--- a/data/02_intermediate/cleaned_Hamed_Daye_songs.xlsx
+++ b/data/02_intermediate/cleaned_Hamed_Daye_songs.xlsx
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Vivre, mourir, pas eu le temps de réfléchir. Pour ma pomme et ceux qui sont tombés dans mon panier, cest survivre le projet. Survivre ici, dans les caves aménagées de leurs palais. Dans ces camps dextermination dnotre dignité. Sans histoire, sans avenir, fermer ta bouche, accepter ! Ouais Croire en cquon tdit, obtempérer ! Cest ça, obtempère ! Obtempère au nom du Père ! Au nom du fils, au nom de leur satané Saint-Esprit ! Tu dois obtempérer Et avoir foi. Avoir foi et croire en Dieu. Prier et rester tranquille en testimant heureux Heureux dêtre simplement en vie ! Voilà les règles du jeu ! Les règles du jeu Elles sont conciliées dans un manuel Le manuel du Roi Soleil. Celui quon appelait Dieudonné. Si cétait son blaze Cest à la Cour de Versailles que les règles sont nées. Et pour le Code Noir, jveux tous vous voir au ciné ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Pour quon nous parle du colon comme on nous a parlé du SS Les millions dcoups de fouet, du champ de coton à la tess Ca passe aux ma-né-ci, cest loin dêtre un film Ma race ils veulent la fumer, pourtant jai pas la gueule dune garette-ci De larmes et de sang, mon arme est le chant Si tu me coupes la langue, mon ga-ga-gang te braque sur le champ ! Issu dun peuple que personne ne comprend Lassé de voir les négros en éternel second plan Cest une première quyait un film sur la traite négrière Ton passé débarque, reste pas acculé sur cette putain de pierre Lhistoire de tes ancêtres et cquils disaient dtes maîtres Cque la France nous a caché, on tle donne sur grand écran 400 ans condensés en une heure trente, cest peu Aujourd'hui on peut plus spermettre dfermer les yeux Jai retrouvé la Porte du non-Retour seul Sil manque un black il manquera toujours une pièce dans lpuzzle You might also like Enfin un film qui retrace notre histoire On va enfin connaître la vérité, cquil advenait de tous les Noirs Et quon se ldise, cest mon, cest ton, cest notre histoire Nos enfants enfin sauront pourquoi fort est le Peuple Noir Vendus comme de la marchandise, traités comme du bétail Cest pas trop tôt quon nous le dise, we have to tell them so Le genre humain et sa bêtise, le Roi Soleil et Sarkozy Même bitin même bagaille, à foutre dans lmême bateau Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Jai une fleur de Lys tatouée dans lcrâne Envie ddynamiter Versailles et Le Louvre, appelle-moi terroriste black Walaye j'veux voir Abdoulaye chier dans lchâteau dVersailles Ces pédés dpoudrés en perruque nous ont pris trop dmaille Trop dapartheid, cinématographique Cette France me fout la gale, cest catastrophique Jai pendu mon prof dhistoire, jlai caché dans la cave Comme la France cache son passé, et tous ses esclaves Avec nos strophes on rééduque parce que les profs sont des trous du uc Ceux qui ont craché sur ldos dDieu veulent crucifier Dieudo Le Roi Soleil nous a mis à lombre Nous les fils de Cham à la peau sombre Jvais aller aux Champs Elysées, et voir le Code Noir Chérie faut pas baliser si jte mets un Code Noir Fais tourner lpop-corn pour le film qui tient ldiable par les cornes Mon Ministère A.M.E.R. crève la France du Porc Combien savent, bravent, les manigances gouvernementales ? Sujet tabou au niveau mondial le babtou Politiquement correct élimine qui pointe du doigt ces rackets dans lhistoire De Louis le Monarque à Sarkozy La femme noire sexy, lhomme noir jamais assez clean 2005 on vote des lois qui positivent les colonies Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Noir est le Code Quand sur mon histoire on pisse, Bors pose sur la prod J'suis complice si jla boucle, mets lson dans lIpod Mec, jai pas dputain dbandeau sur la bouche Pour une exode vers le vrai, pousse le volume sur ma vie Je vois graver dans les bouquins de ma ville Holocauste Noir quand rien névolue, leurs lois sdribblent Ils disent quDieu la voulu, paraît qucest dans la Bible Jsuis français originaire dAfrique du Nord Donc Africain en quête de son histoire pour jamais perdre le nord Le poids dla discrimination étant frisé on lressent Et on cherche le sens des vies quils ont embrasées à lessence Jveux connaître cqui pousse l'homme à être Cruel envers son hôte sachant qula race humaine ne forme quun seul être Une seule couleur dans les veines, rouge pour tous Le sang qui a coulé, remonté pour faire le Code Noir Tant dtemps quils nous la mettent, aujourd'hui Cest à nous de restaurer lhistoire, bourrés despoir Le Code Noir, cest la réponse du fouet trop loin du colon un soir Pris lpouvoir, on vient remettre au 7e Art à la page La page, honorer nos ancêtres, dénoncer la traite Aggraver la suite quils croient écrire pour nous après avoir brûlé nos bibliothèques Mec respecte lhommage, apprécie limage Puis fais passer le message ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! De Louis XIV à Sarkozy quest-ce qui a changé ? Les chaînes aux pieds se sont simplement déplacées. Lautre feu du visage pâle nous a anesthésiés complètement. Il nous a fait danser. Allez vas-y négro ! Continue à taper sur des bambous, tfaçon tu sras jamais numéro 1 ! Continue à voter pour ton maître, continue à réciter que tes ancêtres étaient Gaulois ! Hein, pourquoi pas Vikings ?! Hahaha Beh si ! Allez, vas-y lâche toi tu peux même tengager dans larmée ! Hein négro ! Et partir bombarder la Côte dIvoire ou lTogo ! Par contre viens pas pleurer hein Quand ton gamin sra au chômage, ou trouvera pas de logement Ah non ! Faudra pas miauler. Faudra pas tplaindre de la bavure dun policier sur ton enfant ! Bah tu devras fermer ta gueule ! Voilà ! Et dire merci même ! Et ptet même baisser ton froque ! Ouais Sil ten reste un ! Pov collabo va ! Jte plains mec parce que Je sais quils te finiront comme un chien Noublie pas quils ont écrit un code Un code Son nom LE CODE NOIR ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
+          <t>Vivre, mourir, pas eu le temps de réfléchir. Pour ma pomme et ceux qui sont tombés dans mon panier, cest survivre le projet. Survivre ici, dans les caves aménagées de leurs palais. Dans ces camps dextermination dnotre dignité. Sans histoire, sans avenir, fermer ta bouche, accepter ! Ouais Croire en cquon tdit, obtempérer ! Cest ça, obtempère ! Obtempère au nom du Père ! Au nom du fils, au nom de leur satané Saint-Esprit ! Tu dois obtempérer Et avoir foi. Avoir foi et croire en Dieu. Prier et rester tranquille en testimant heureux Heureux dêtre simplement en vie ! Voilà les règles du jeu ! Les règles du jeu Elles sont conciliées dans un manuel Le manuel du Roi Soleil. Celui quon appelait Dieudonné. Si cétait son blaze Cest à la Cour de Versailles que les règles sont nées. Et pour le Code Noir, jveux tous vous voir au ciné ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Pour quon nous parle du colon comme on nous a parlé du SS Les millions dcoups de fouet, du champ de coton à la tess Ca passe aux ma-né-ci, cest loin dêtre un film Ma race ils veulent la fumer, pourtant jai pas la gueule dune garette-ci De larmes et de sang, mon arme est le chant Si tu me coupes la langue, mon ga-ga-gang te braque sur le champ ! Issu dun peuple que personne ne comprend Lassé de voir les négros en éternel second plan Cest une première quyait un film sur la traite négrière Ton passé débarque, reste pas acculé sur cette putain de pierre Lhistoire de tes ancêtres et cquils disaient dtes maîtres Cque la France nous a caché, on tle donne sur grand écran 400 ans condensés en une heure trente, cest peu Aujourd'hui on peut plus spermettre dfermer les yeux Jai retrouvé la Porte du non-Retour seul Sil manque un black il manquera toujours une pièce dans lpuzzle Enfin un film qui retrace notre histoire On va enfin connaître la vérité, cquil advenait de tous les Noirs Et quon se ldise, cest mon, cest ton, cest notre histoire Nos enfants enfin sauront pourquoi fort est le Peuple Noir Vendus comme de la marchandise, traités comme du bétail Cest pas trop tôt quon nous le dise, we have to tell them so Le genre humain et sa bêtise, le Roi Soleil et Sarkozy Même bitin même bagaille, à foutre dans lmême bateau Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Jai une fleur de Lys tatouée dans lcrâne Envie ddynamiter Versailles et Le Louvre, appelle-moi terroriste black Walaye j'veux voir Abdoulaye chier dans lchâteau dVersailles Ces pédés dpoudrés en perruque nous ont pris trop dmaille Trop dapartheid, cinématographique Cette France me fout la gale, cest catastrophique Jai pendu mon prof dhistoire, jlai caché dans la cave Comme la France cache son passé, et tous ses esclaves Avec nos strophes on rééduque parce que les profs sont des trous du uc Ceux qui ont craché sur ldos dDieu veulent crucifier Dieudo Le Roi Soleil nous a mis à lombre Nous les fils de Cham à la peau sombre Jvais aller aux Champs Elysées, et voir le Code Noir Chérie faut pas baliser si jte mets un Code Noir Fais tourner lpop-corn pour le film qui tient ldiable par les cornes Mon Ministère A.M.E.R. crève la France du Porc Combien savent, bravent, les manigances gouvernementales ? Sujet tabou au niveau mondial le babtou Politiquement correct élimine qui pointe du doigt ces rackets dans lhistoire De Louis le Monarque à Sarkozy La femme noire sexy, lhomme noir jamais assez clean 2005 on vote des lois qui positivent les colonies Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Noir est le Code Quand sur mon histoire on pisse, Bors pose sur la prod J'suis complice si jla boucle, mets lson dans lIpod Mec, jai pas dputain dbandeau sur la bouche Pour une exode vers le vrai, pousse le volume sur ma vie Je vois graver dans les bouquins de ma ville Holocauste Noir quand rien névolue, leurs lois sdribblent Ils disent quDieu la voulu, paraît qucest dans la Bible Jsuis français originaire dAfrique du Nord Donc Africain en quête de son histoire pour jamais perdre le nord Le poids dla discrimination étant frisé on lressent Et on cherche le sens des vies quils ont embrasées à lessence Jveux connaître cqui pousse l'homme à être Cruel envers son hôte sachant qula race humaine ne forme quun seul être Une seule couleur dans les veines, rouge pour tous Le sang qui a coulé, remonté pour faire le Code Noir Tant dtemps quils nous la mettent, aujourd'hui Cest à nous de restaurer lhistoire, bourrés despoir Le Code Noir, cest la réponse du fouet trop loin du colon un soir Pris lpouvoir, on vient remettre au 7e Art à la page La page, honorer nos ancêtres, dénoncer la traite Aggraver la suite quils croient écrire pour nous après avoir brûlé nos bibliothèques Mec respecte lhommage, apprécie limage Puis fais passer le message ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! De Louis XIV à Sarkozy quest-ce qui a changé ? Les chaînes aux pieds se sont simplement déplacées. Lautre feu du visage pâle nous a anesthésiés complètement. Il nous a fait danser. Allez vas-y négro ! Continue à taper sur des bambous, tfaçon tu sras jamais numéro 1 ! Continue à voter pour ton maître, continue à réciter que tes ancêtres étaient Gaulois ! Hein, pourquoi pas Vikings ?! Hahaha Beh si ! Allez, vas-y lâche toi tu peux même tengager dans larmée ! Hein négro ! Et partir bombarder la Côte dIvoire ou lTogo ! Par contre viens pas pleurer hein Quand ton gamin sra au chômage, ou trouvera pas de logement Ah non ! Faudra pas miauler. Faudra pas tplaindre de la bavure dun policier sur ton enfant ! Bah tu devras fermer ta gueule ! Voilà ! Et dire merci même ! Et ptet même baisser ton froque ! Ouais Sil ten reste un ! Pov collabo va ! Jte plains mec parce que Je sais quils te finiront comme un chien Noublie pas quils ont écrit un code Un code Son nom LE CODE NOIR ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Mesdames, messieurs, les passagers non-ressortissants à la Communauté Européenne doivent présenter une fiche d'immigration à l'arrivée en France Dans le cas contraire, nous serons forcés de vous rapatrier à la destination de départ La rage qui m'habite brisera vos murs Que l'état suce ma bite, j'ai endossé l'africaine armure Avec ta France, je n'ai aucun lien de parenté, je suis pas de tes fils J'ai vécu dans la promiscuité avec les fils du vice Vision chaotique d'une situation diabolique L'histoire a fait de moi Kery James le mélancolique J'suis de l'esclave le fils, je t'annonce la couleur d'office D'office, je nique ta police, ta justice et 3 fois 6.6.6stème Je ramène de ma rue ses pensées extrêmes Faudrait que tu te renseignes, on rêve de saigner la droite extrême Seul le Tout-Puissant, bienveillant et omniscient Dispose de mon souffle, de mes forces et de mon sang En plus de son sang je pourrais même y laisser ma vie Avenir obscurci, l'état m'a mis un préavis Mais je suis hostile à toute forme de compromission Sans prétentions, comme dans le passé, je suis sur une mission Chacun sa vision, voilà mon avis Mais notre vision n'est peut-être que le reflet de ce que l'on vit Ici, j'ai vu trop d'horreurs, pas assez vécu de bonheur Ma conscience m'a dénoncé cette vie de malheur Mon passage sur Terre pourrait lui-même n'être qu'un leurre Je serai jamais heureux parce que ce système c'est le leur J'ai peur et rêve que mes frères prennent de l'ampleur Vu quand j'ouvre les yeux, ce n'est pas que de rage que je pleure Mais de déception, c'est bleu, blanc, rouge, comme le sang des nôtres Cette France n'est pas amicalement nôtre You might also like Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Animalement vôtre, ton pays c'est pas le nôtre Moi et mon armée on dévore tout et la tienne tombe et se vautre A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt, et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gènes, qui peut stopper un homme décidé ? Mes yeux saignent de rage, de lourdes larmes creusent les joues de mon visage Drames, sur le macadam, Paname rassemble des milliers de rêves brisés Ça me suffit, je plains les jeunes que le système condamne, yeah Je calme le jeu, sauve mon âme des flammes du mal qui me réclament Je rêve d'évasion, de fuir ce béton qui memplâtre chaque jour un peu plus Cherche au fond des yeux de mes parents le force de tenir encore plus Au mic, c'est conscience, refoulement, donc ça crame dans les halls La violence a toujours été la parole du pauvre Ma voix c'est d'la mélancolie, de l'espoir qui m'alimente Colombia, America Latina, represent Represent, c'est ce foutu mal du pays qui me hante Je rentre par effraction dans un système qui me veut une mort lente Annihiler mes origines, ma culture, ma langue d'origine Puis quand je n'aurai plus rien, on me parquera loin des villes Je serai loin de mon vrai pays et près de celui qui m'a trahi Je veux pas mourir comme un déraciné dans l'oubli Soy como un boomerang los que no creen ya verán Pereceran soy la venganza india llegó el huracán Africano árabe latino jeune de té-ci Je vous l'avais dit, on fera notre place dans ce pays Je suis pas Zorro non, juste un grillé, élevé au pain, même pas grillé Pris au collet, je priais, puis j'suis devenu MC qui rigole pas Fallait qu'ils sachent comment j'm'appelle, sûr, fallait que je sois dur Plus cruel que le sort qui pousse nos pères à la truelle Et je cure mon mal par des mots man, ma rage reste au top des hits Sur micro, m'man est fière de son minot man, ma voix loin des mythomanes Je brave les cons, les pantins que ça fait chier De voir un noir dire ce qui ne va pas dans leurs patelins, ce pouvoir est un devoir que je fais mien Ma couleur fait qu'il faut que je sois mieux que les autres Et si je me vautre, faudra que je me sorte plus vite que les autres, je garde en tête que les nuls sautent Que nos gosses voient tôt des Glocks faire click, combien d'orgueil ont courbé le dos pour un bout de plastique Combien bannissent toute éthique Je rappe pour ma souche, bébé, y'a rien de louche dans mes affaires Je sais ça paraît flou de la part d'un basané mais Mes 10 années de rimes arrosent les fleurs sur les tombes de ceux qui ont pris une pause trop tôt Fini, une vie pas rose Trop de doses ankylosent les choses, dans la tête explosent plein de truc moroses Les neurones pètent, chanceux sont ceux qui dealent des proses pour des chèques Qui taffent avec fierté, tentent de servir d'exemple Fallait oser, allez, je lève mon verre à ceux qui sont allés Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Yeah, je suis comme un boomerang déguisé, la force d'un continent pillé Une vague, qui vient reprendre tout ce qu'on lui a volé A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gênes, qui peut stopper un homme décidé ? J'ai passé 20 ans de ma vie à trimer Tu sais ce que c'est de se réveiller 2 heures avant que le soleil songe à se lever Voir la lampe te flamber les yeuz' comme une sentinelle Et les gouttes des fuites du robinet qui te martèlent, telles une truelle Et voir ton boss, un boulard qui te parle, fonce-dé au pinard T'ordonne d'aller sur le chantier sinon t'es tricard Pour ta paye de smicard, un cauchemar, chaque jour que Dieu fait Mais bonhomme, on encaisse tout On a pas le temps d'aller se plaindre aux prud'hommes, en somme, boum La seule joie qu't'a c'est de voir ton môme grandir chaque jour Et voir ta souffrance qui endure pour devenir demain quelqu'un qu'on respecte Non celui qu'on suspecte, mais celui que les teur-inspect regrettent de voir dans leurs registres Parce que le mec est classé net, je te parle pas du remake de Scarface cette fois-ci Je connais le dos des cartes alors je mise tout sur mon se-fi Un missile que personne pourra désamorcer, stopper ou désaxer de sa mission Ok, j'accéderai peut-être pas avec lui au Panthéon Mais demain son regard brûlera d'un seul coup toute ta nation J'te le dis à la surface de ton rejeton, donc mec fais bien attention Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Yeah, je suis comme un boomerang déguisé, la force d'un continent pillé Une vague, qui vient reprendre tout ce qu'on lui a volé A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt, Animalement Vôtre Et tu crois Ton pays c'est pas le nôtre Moi et mon armée on dévore tout et la tienne tombe et se vautre De surcroît, la tension s'accroît Mes frères en ont marre de porter la croix, et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gênes, qui peux stopper un homme décidé ?</t>
+          <t>Mesdames, messieurs, les passagers non-ressortissants à la Communauté Européenne doivent présenter une fiche d'immigration à l'arrivée en France Dans le cas contraire, nous serons forcés de vous rapatrier à la destination de départ La rage qui m'habite brisera vos murs Que l'état suce ma bite, j'ai endossé l'africaine armure Avec ta France, je n'ai aucun lien de parenté, je suis pas de tes fils J'ai vécu dans la promiscuité avec les fils du vice Vision chaotique d'une situation diabolique L'histoire a fait de moi Kery James le mélancolique J'suis de l'esclave le fils, je t'annonce la couleur d'office D'office, je nique ta police, ta justice et 3 fois 6.6.6stème Je ramène de ma rue ses pensées extrêmes Faudrait que tu te renseignes, on rêve de saigner la droite extrême Seul le Tout-Puissant, bienveillant et omniscient Dispose de mon souffle, de mes forces et de mon sang En plus de son sang je pourrais même y laisser ma vie Avenir obscurci, l'état m'a mis un préavis Mais je suis hostile à toute forme de compromission Sans prétentions, comme dans le passé, je suis sur une mission Chacun sa vision, voilà mon avis Mais notre vision n'est peut-être que le reflet de ce que l'on vit Ici, j'ai vu trop d'horreurs, pas assez vécu de bonheur Ma conscience m'a dénoncé cette vie de malheur Mon passage sur Terre pourrait lui-même n'être qu'un leurre Je serai jamais heureux parce que ce système c'est le leur J'ai peur et rêve que mes frères prennent de l'ampleur Vu quand j'ouvre les yeux, ce n'est pas que de rage que je pleure Mais de déception, c'est bleu, blanc, rouge, comme le sang des nôtres Cette France n'est pas amicalement nôtre Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Animalement vôtre, ton pays c'est pas le nôtre Moi et mon armée on dévore tout et la tienne tombe et se vautre A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt, et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gènes, qui peut stopper un homme décidé ? Mes yeux saignent de rage, de lourdes larmes creusent les joues de mon visage Drames, sur le macadam, Paname rassemble des milliers de rêves brisés Ça me suffit, je plains les jeunes que le système condamne, yeah Je calme le jeu, sauve mon âme des flammes du mal qui me réclament Je rêve d'évasion, de fuir ce béton qui memplâtre chaque jour un peu plus Cherche au fond des yeux de mes parents le force de tenir encore plus Au mic, c'est conscience, refoulement, donc ça crame dans les halls La violence a toujours été la parole du pauvre Ma voix c'est d'la mélancolie, de l'espoir qui m'alimente Colombia, America Latina, represent Represent, c'est ce foutu mal du pays qui me hante Je rentre par effraction dans un système qui me veut une mort lente Annihiler mes origines, ma culture, ma langue d'origine Puis quand je n'aurai plus rien, on me parquera loin des villes Je serai loin de mon vrai pays et près de celui qui m'a trahi Je veux pas mourir comme un déraciné dans l'oubli Soy como un boomerang los que no creen ya verán Pereceran soy la venganza india llegó el huracán Africano árabe latino jeune de té-ci Je vous l'avais dit, on fera notre place dans ce pays Je suis pas Zorro non, juste un grillé, élevé au pain, même pas grillé Pris au collet, je priais, puis j'suis devenu MC qui rigole pas Fallait qu'ils sachent comment j'm'appelle, sûr, fallait que je sois dur Plus cruel que le sort qui pousse nos pères à la truelle Et je cure mon mal par des mots man, ma rage reste au top des hits Sur micro, m'man est fière de son minot man, ma voix loin des mythomanes Je brave les cons, les pantins que ça fait chier De voir un noir dire ce qui ne va pas dans leurs patelins, ce pouvoir est un devoir que je fais mien Ma couleur fait qu'il faut que je sois mieux que les autres Et si je me vautre, faudra que je me sorte plus vite que les autres, je garde en tête que les nuls sautent Que nos gosses voient tôt des Glocks faire click, combien d'orgueil ont courbé le dos pour un bout de plastique Combien bannissent toute éthique Je rappe pour ma souche, bébé, y'a rien de louche dans mes affaires Je sais ça paraît flou de la part d'un basané mais Mes 10 années de rimes arrosent les fleurs sur les tombes de ceux qui ont pris une pause trop tôt Fini, une vie pas rose Trop de doses ankylosent les choses, dans la tête explosent plein de truc moroses Les neurones pètent, chanceux sont ceux qui dealent des proses pour des chèques Qui taffent avec fierté, tentent de servir d'exemple Fallait oser, allez, je lève mon verre à ceux qui sont allés Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Yeah, je suis comme un boomerang déguisé, la force d'un continent pillé Une vague, qui vient reprendre tout ce qu'on lui a volé A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gênes, qui peut stopper un homme décidé ? J'ai passé 20 ans de ma vie à trimer Tu sais ce que c'est de se réveiller 2 heures avant que le soleil songe à se lever Voir la lampe te flamber les yeuz' comme une sentinelle Et les gouttes des fuites du robinet qui te martèlent, telles une truelle Et voir ton boss, un boulard qui te parle, fonce-dé au pinard T'ordonne d'aller sur le chantier sinon t'es tricard Pour ta paye de smicard, un cauchemar, chaque jour que Dieu fait Mais bonhomme, on encaisse tout On a pas le temps d'aller se plaindre aux prud'hommes, en somme, boum La seule joie qu't'a c'est de voir ton môme grandir chaque jour Et voir ta souffrance qui endure pour devenir demain quelqu'un qu'on respecte Non celui qu'on suspecte, mais celui que les teur-inspect regrettent de voir dans leurs registres Parce que le mec est classé net, je te parle pas du remake de Scarface cette fois-ci Je connais le dos des cartes alors je mise tout sur mon se-fi Un missile que personne pourra désamorcer, stopper ou désaxer de sa mission Ok, j'accéderai peut-être pas avec lui au Panthéon Mais demain son regard brûlera d'un seul coup toute ta nation J'te le dis à la surface de ton rejeton, donc mec fais bien attention Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Yeah, je suis comme un boomerang déguisé, la force d'un continent pillé Une vague, qui vient reprendre tout ce qu'on lui a volé A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt, Animalement Vôtre Et tu crois Ton pays c'est pas le nôtre Moi et mon armée on dévore tout et la tienne tombe et se vautre De surcroît, la tension s'accroît Mes frères en ont marre de porter la croix, et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gênes, qui peux stopper un homme décidé ?</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Jai vu ce quils projettent de faire Ils sont comme des sauterelles Ils déplacent leur civilisation de planète en planète Après avoir consommé toutes les ressources naturelles, ils repartent Nous sommes les suivants Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Je quitte mon milieu naturel la jungle urbaine quimporte ma dégaine Jerre, jsuis à des années lumières jme sers dmon flair Mon ombre sombre comme Spawn plane sur la ville lumière Dans mon repaire une place pour chaque tête mec, comme trophée de guerre Jpends les boys band aux boyaux des boys scouts qui m'boycottent Check le scoop, branche ton scope découvre les yeux des mioches mortes Les sales gosses en Lacoste prennent la sale dope dans le zen Arrachent ta daube de ma zone ou jte fouette à coup de chaînes Et cache tes pâturages quand vient le prédateur africain Yreste plus rien de la pauvre chèvre et dce vieux monsieur Seguin Jaspire ton atmosphère, pire jentends encore tes soupirs Comme la veille dlapocalypse lève les yeux au ciel, fuir! Mais pour aller où Timal ? viens à la rencontre de clui qui a canné Ltroisième type dun seul coup, mal, mal Mon trip cest dbalourder tes tripes au fond de la trappe J moins rien, les miens se souviendront de cette sale date You might also like Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Jsors dmon cocon, un nouveau colon Sauf que moi mon nom cest pas Christophe Colomb Mais Hamed Daye, le seul chef dcette flotte en perdition Dans ma caravelle jcherche pas dépices Mais le port des MCs qui glissent à fond de cale Pour cette expédition mon drapeau la bannière noire du Secteur Ä flotte Le jeune moussaillon flippe et une flaque Jte fous la pétoche comme mes pères lont foutu jadis aux Boches En foutant une cicatrice sur la joue de la douce France, japproche Alors Papy fait dla résistance et leur mioches collaborent Les pseudos de napalm approchent et veulent ma mort Me foutre en Zone 51, écoute ce baratin Comme un homme-soldat qui a djà échoué, jamais! Comme mon sauce lalbinos, je toast et fausse les données Pour crier nous pas bouger moi et mes têtes grainées Les têtes brûlent encore plus fêlées Qules hommes sous les ordres Pappy Boyington, tché Prêt pour une bataille rangée Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Pas de mayday, mayday, pas la peine de chialer Jsuis pas le lieutenant Spock, cette loque de captaine Kirk viendra pas te sauver À bord de lEntreprise on nique le bénef Toujours jte fesse, blesse, laisse et jleste, hasta la vista bébé, rhalas Je vois déjà sur ta tête se dresser tes Dread Locks Comme un stressos place toi face à moi et dun seul coup jte boxe Car ya pas de place pour toi dans lhyperespace là où mes forces décuplent On amasse trop de blé, harcelés par les civils en tasse-pé Jme méfie delles et jen foudroie avec mon rayon Delta Appelle moi Seaman, Orco ou bien Chewbacca Quand jenfile mon blouson de combat cest pour la guerre, tché Ton Sud contre not Nord une nouvelle guerre de Sécession Rétorque et sors les armes si tu veux perpétuer la tradition Jviens sauver ton HIP-HOP français comme le Che la fait pour la Bolivie Donc quitte ton baggy, ton treillis ou ton pe-sli, Hamed Daye te suis Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Encore une fois mon secteur Ä te fout ça Cest chaud daye et tu le sais Hamed Daye, hein, Lino, hein Planque toi Tché, Planque toi Tché Négro on tlavait dit, Secteur Äpocalypse Encore un inédit Lindépendance Daye on tlavait prédit On danse sous une pluie de balles, nique la tendance Le balai tireur Ärsenik pousse le tirailleur, offense Dans toute la France, 98, 99, 2000, 2001, 2002 et tout ce que tu veux !</t>
+          <t>Jai vu ce quils projettent de faire Ils sont comme des sauterelles Ils déplacent leur civilisation de planète en planète Après avoir consommé toutes les ressources naturelles, ils repartent Nous sommes les suivants Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Je quitte mon milieu naturel la jungle urbaine quimporte ma dégaine Jerre, jsuis à des années lumières jme sers dmon flair Mon ombre sombre comme Spawn plane sur la ville lumière Dans mon repaire une place pour chaque tête mec, comme trophée de guerre Jpends les boys band aux boyaux des boys scouts qui m'boycottent Check le scoop, branche ton scope découvre les yeux des mioches mortes Les sales gosses en Lacoste prennent la sale dope dans le zen Arrachent ta daube de ma zone ou jte fouette à coup de chaînes Et cache tes pâturages quand vient le prédateur africain Yreste plus rien de la pauvre chèvre et dce vieux monsieur Seguin Jaspire ton atmosphère, pire jentends encore tes soupirs Comme la veille dlapocalypse lève les yeux au ciel, fuir! Mais pour aller où Timal ? viens à la rencontre de clui qui a canné Ltroisième type dun seul coup, mal, mal Mon trip cest dbalourder tes tripes au fond de la trappe J moins rien, les miens se souviendront de cette sale date Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Jsors dmon cocon, un nouveau colon Sauf que moi mon nom cest pas Christophe Colomb Mais Hamed Daye, le seul chef dcette flotte en perdition Dans ma caravelle jcherche pas dépices Mais le port des MCs qui glissent à fond de cale Pour cette expédition mon drapeau la bannière noire du Secteur Ä flotte Le jeune moussaillon flippe et une flaque Jte fous la pétoche comme mes pères lont foutu jadis aux Boches En foutant une cicatrice sur la joue de la douce France, japproche Alors Papy fait dla résistance et leur mioches collaborent Les pseudos de napalm approchent et veulent ma mort Me foutre en Zone 51, écoute ce baratin Comme un homme-soldat qui a djà échoué, jamais! Comme mon sauce lalbinos, je toast et fausse les données Pour crier nous pas bouger moi et mes têtes grainées Les têtes brûlent encore plus fêlées Qules hommes sous les ordres Pappy Boyington, tché Prêt pour une bataille rangée Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Pas de mayday, mayday, pas la peine de chialer Jsuis pas le lieutenant Spock, cette loque de captaine Kirk viendra pas te sauver À bord de lEntreprise on nique le bénef Toujours jte fesse, blesse, laisse et jleste, hasta la vista bébé, rhalas Je vois déjà sur ta tête se dresser tes Dread Locks Comme un stressos place toi face à moi et dun seul coup jte boxe Car ya pas de place pour toi dans lhyperespace là où mes forces décuplent On amasse trop de blé, harcelés par les civils en tasse-pé Jme méfie delles et jen foudroie avec mon rayon Delta Appelle moi Seaman, Orco ou bien Chewbacca Quand jenfile mon blouson de combat cest pour la guerre, tché Ton Sud contre not Nord une nouvelle guerre de Sécession Rétorque et sors les armes si tu veux perpétuer la tradition Jviens sauver ton HIP-HOP français comme le Che la fait pour la Bolivie Donc quitte ton baggy, ton treillis ou ton pe-sli, Hamed Daye te suis Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Encore une fois mon secteur Ä te fout ça Cest chaud daye et tu le sais Hamed Daye, hein, Lino, hein Planque toi Tché, Planque toi Tché Négro on tlavait dit, Secteur Äpocalypse Encore un inédit Lindépendance Daye on tlavait prédit On danse sous une pluie de balles, nique la tendance Le balai tireur Ärsenik pousse le tirailleur, offense Dans toute la France, 98, 99, 2000, 2001, 2002 et tout ce que tu veux !</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bouges pour toi sinon qui le fera Vous êtes toujours sur Chaud Lapin F.M, si vous n'aimez pas Stomy, bonne chance, vous êtes sur sa radio et comme hier, comme avant-hier, demain, après-demain, c'est sa journée, Chaud Lapin Je viens comme le parrain des parrains Bruit de bisou Baise-moi la main Je blanchis mon argent Pour mes négros, la couleur est la sang 9.5.200 la table est ronde, ça parle bizness et ça gronde Les prétentieux en fondent J'ai la bague dans la main comme Capone pour dénicher les chiens Je ne me protège pas derrière les enfants quand Les ritals me rafalent de balles Non, non ne me prends pas pour Nino négro Ou le costaud caïd qui se fait fourrer dans les films de Tarantino Place à la classe, numéro uno, Bugsy my-Sto L'art du hold-up au stylo Je sais qu'un petit coup de langue peut tuer plus vite qu'un clan de cubain Mais c'est un risque j'aime, j'aime l'amour du risque et tout ce qui s'en suit Dans le monde du crime, l'oxygène je suis Tueur à Garges à la vision large Dans le respect, il y a une marge et si tu la dépasses, carnage On vit dans un monde de lope-sa Y'a pas de coup-ci, coup-ça Tous mes couz, ici sont murs comme Sosa Pour ma familia You might also like Je marche pour ma familia, pour mes nègres infâmes, il y a Trop de filiales pour un crew, je roule ma sensimilia Trop de tendance simili, il y trop de lascars dans ma Cosca Qu'il n'y a d'encre dans ton poska ou de béné dans ton rosse-ca Si tu vois la que-arna, je redeviens carnassier Aussi vrai que ma parole est ferme et mon manche est d'acier Assieds-toi ou goute au nouveau western moderne façon Sergio Leone Pour ta gouverne, on est soudés comme le clan Corleone Et on nique la vie, donnes moi le micro pour un clash, un homicide L'enfer remonte à la surface déclenche un génocide Ceux qui me suivent, lèvent leur main, les autres peuvent aller se faire mettre J'ai pas le temps de me la jouer négro funky, je peux pas me le permettre Omettre ce détail équivaut à fixer ton destin au bout de mon canon J'ai l'instinct d'un tueur psychopathe au micro damné comme Fanon Suis-je le gardien de mon frère ? Oui je le suis, fier de mes connexions Mon secteur rentre en action, Arsenik pour une inspection Section mafioso, bozo File quand je cause au microphone, hostile mon rap est flexible comme le roseau Laisses moi me fonce-dé Tu vois bien que Calbo est protégé des fous Partout dans toutes les poches, fauchent quand c'est la guerre Mon groupe vient briser des carrières et ma famille protège mes arrières Donnes la palme à Trois on explose comme dans un film de De Palma Arsenik te crame au napalm avance pour sa familia Là c'est parfait j'enchaine, ma race est calé sur multi-piste Si t'as fumé l'intox, propager le tumulte de La Rumeur depuis sa force Encore un moyen de plus de faire du bruit Faire parler les gaillards de mon écurie, compris Avant le son de cloche, je marque des points sur le ring Décoches des coups de te-trai, autant de demandes de featuring L'infamie étatique garde ouverte nos plaies Je te promets Je trace en franc-tireur, de la hargne en lieu et place des pleurs Une conscience d'arabe et pas de beur De cramé de la France qu'a compris qu'elle n'attend de lui qu'un faux pas Ou la soumission dans le silence Épargne moi des remords si je t'irrite la ge-gor Discréditer La Rumeur c'est lui servir de sponsor Alors de la balle, un concept qui me-cal S'installe tant bien que mal est à-l pour de bon Avec des sales intonations, des postillons dans la che-tron C'est sur l'album de Mister gringo que je prouve pour ma familia À chacun sa lame s'il y a mort d'homme, c'est la mierda Ma Clinique est en guerre, Furet, Papillon sortent de la serre Commencement d'une série noire, amères seront les prières Vais-je buter un innocent, être l'avocat d'un truand Bruler les squales comme du bétail, confier des bombes à des enfants ? Ensuite, j'irais délivrer les malades de Saint-Anne Et moi les animaux dangereux, enfermés dans des trams Ayant lil de la biche et les dents du requin Considère que son vice et croisé à celui du Parrain Prends ça dans le fion et laisses-moi mon bizness garçon Mais parfait dans le rap j'opère en typhon Passes moi 86 flammes, j'allume tout Paname Les Sales Gosses sont dramatiquement cinglés dans lâme Passes le fusil, j'arme, vas y négro fourre ça, laisse-moi donner ça dans le tas Pour qu'ils comprennent que l'on ne bouge qu'avec la familia J'ai fait un pacte pour le meilleur et pour le pire Et quand ma voix s'élève, c'est toujours la même qui transpire Marianne où c'est que je dépose toutes mes valises ? Marianne tu m'avais dit que c'était le Terre Promise Putain de merde c'est ça Paris, on m'a bluffé Même la Tour Eiffel n'est pas aussi grande qu'on me l'avait dit Djé Depuis mon arrivée, depuis que j'ai emménagé chez mon cousin Abdoulaye Ils ont fait des rapports sur moi dans les moindres détails Ma famille est solide comme les 5 piliers gars Si tu touches à un, c'est tous les autres qui tombent sur toi Alors nous cherches pas la guerre C'est un peu comme tes ploucs de mousquetaires, un pour tous, tous sur un, est-ce clair Pas de gri-gri, j'avance pour qui et pour quoi Pour ma familia et devines qui est derrière moi Mon secteur A, mon secteur A Je trinque pour 80, Daye avec le prince des scar-la Je suis un ange pour ma mille-fa, dans la guérilla le ble-dia Prosterne toi voilà l'altesse double S, le pah pah Comme à Halloween paie ta dime Ou mes vermines t'éliminent Oublies un sou, joues les casse-couille au cou Et je me fous de tout, je troue Femmes, enfants, ripoux comme des poux vaudous Je calcule, stimule mes crapules si tu recules , moi j'en Comme pour les intègres, tel nègre la pègre Ça tourne au vinaigre Passi pense, rentre en transe avec ses loups, danse et avance Je massacre toutes vos mères, je bourre toutes vos surs et je transforme vos frères en eunuque Je crois qu'ils ont assimilé la leçon, on y va Ouais</t>
+          <t>Bouges pour toi sinon qui le fera Vous êtes toujours sur Chaud Lapin F.M, si vous n'aimez pas Stomy, bonne chance, vous êtes sur sa radio et comme hier, comme avant-hier, demain, après-demain, c'est sa journée, Chaud Lapin Je viens comme le parrain des parrains Bruit de bisou Baise-moi la main Je blanchis mon argent Pour mes négros, la couleur est la sang 9.5.200 la table est ronde, ça parle bizness et ça gronde Les prétentieux en fondent J'ai la bague dans la main comme Capone pour dénicher les chiens Je ne me protège pas derrière les enfants quand Les ritals me rafalent de balles Non, non ne me prends pas pour Nino négro Ou le costaud caïd qui se fait fourrer dans les films de Tarantino Place à la classe, numéro uno, Bugsy my-Sto L'art du hold-up au stylo Je sais qu'un petit coup de langue peut tuer plus vite qu'un clan de cubain Mais c'est un risque j'aime, j'aime l'amour du risque et tout ce qui s'en suit Dans le monde du crime, l'oxygène je suis Tueur à Garges à la vision large Dans le respect, il y a une marge et si tu la dépasses, carnage On vit dans un monde de lope-sa Y'a pas de coup-ci, coup-ça Tous mes couz, ici sont murs comme Sosa Pour ma familia Je marche pour ma familia, pour mes nègres infâmes, il y a Trop de filiales pour un crew, je roule ma sensimilia Trop de tendance simili, il y trop de lascars dans ma Cosca Qu'il n'y a d'encre dans ton poska ou de béné dans ton rosse-ca Si tu vois la que-arna, je redeviens carnassier Aussi vrai que ma parole est ferme et mon manche est d'acier Assieds-toi ou goute au nouveau western moderne façon Sergio Leone Pour ta gouverne, on est soudés comme le clan Corleone Et on nique la vie, donnes moi le micro pour un clash, un homicide L'enfer remonte à la surface déclenche un génocide Ceux qui me suivent, lèvent leur main, les autres peuvent aller se faire mettre J'ai pas le temps de me la jouer négro funky, je peux pas me le permettre Omettre ce détail équivaut à fixer ton destin au bout de mon canon J'ai l'instinct d'un tueur psychopathe au micro damné comme Fanon Suis-je le gardien de mon frère ? Oui je le suis, fier de mes connexions Mon secteur rentre en action, Arsenik pour une inspection Section mafioso, bozo File quand je cause au microphone, hostile mon rap est flexible comme le roseau Laisses moi me fonce-dé Tu vois bien que Calbo est protégé des fous Partout dans toutes les poches, fauchent quand c'est la guerre Mon groupe vient briser des carrières et ma famille protège mes arrières Donnes la palme à Trois on explose comme dans un film de De Palma Arsenik te crame au napalm avance pour sa familia Là c'est parfait j'enchaine, ma race est calé sur multi-piste Si t'as fumé l'intox, propager le tumulte de La Rumeur depuis sa force Encore un moyen de plus de faire du bruit Faire parler les gaillards de mon écurie, compris Avant le son de cloche, je marque des points sur le ring Décoches des coups de te-trai, autant de demandes de featuring L'infamie étatique garde ouverte nos plaies Je te promets Je trace en franc-tireur, de la hargne en lieu et place des pleurs Une conscience d'arabe et pas de beur De cramé de la France qu'a compris qu'elle n'attend de lui qu'un faux pas Ou la soumission dans le silence Épargne moi des remords si je t'irrite la ge-gor Discréditer La Rumeur c'est lui servir de sponsor Alors de la balle, un concept qui me-cal S'installe tant bien que mal est à-l pour de bon Avec des sales intonations, des postillons dans la che-tron C'est sur l'album de Mister gringo que je prouve pour ma familia À chacun sa lame s'il y a mort d'homme, c'est la mierda Ma Clinique est en guerre, Furet, Papillon sortent de la serre Commencement d'une série noire, amères seront les prières Vais-je buter un innocent, être l'avocat d'un truand Bruler les squales comme du bétail, confier des bombes à des enfants ? Ensuite, j'irais délivrer les malades de Saint-Anne Et moi les animaux dangereux, enfermés dans des trams Ayant lil de la biche et les dents du requin Considère que son vice et croisé à celui du Parrain Prends ça dans le fion et laisses-moi mon bizness garçon Mais parfait dans le rap j'opère en typhon Passes moi 86 flammes, j'allume tout Paname Les Sales Gosses sont dramatiquement cinglés dans lâme Passes le fusil, j'arme, vas y négro fourre ça, laisse-moi donner ça dans le tas Pour qu'ils comprennent que l'on ne bouge qu'avec la familia J'ai fait un pacte pour le meilleur et pour le pire Et quand ma voix s'élève, c'est toujours la même qui transpire Marianne où c'est que je dépose toutes mes valises ? Marianne tu m'avais dit que c'était le Terre Promise Putain de merde c'est ça Paris, on m'a bluffé Même la Tour Eiffel n'est pas aussi grande qu'on me l'avait dit Djé Depuis mon arrivée, depuis que j'ai emménagé chez mon cousin Abdoulaye Ils ont fait des rapports sur moi dans les moindres détails Ma famille est solide comme les 5 piliers gars Si tu touches à un, c'est tous les autres qui tombent sur toi Alors nous cherches pas la guerre C'est un peu comme tes ploucs de mousquetaires, un pour tous, tous sur un, est-ce clair Pas de gri-gri, j'avance pour qui et pour quoi Pour ma familia et devines qui est derrière moi Mon secteur A, mon secteur A Je trinque pour 80, Daye avec le prince des scar-la Je suis un ange pour ma mille-fa, dans la guérilla le ble-dia Prosterne toi voilà l'altesse double S, le pah pah Comme à Halloween paie ta dime Ou mes vermines t'éliminent Oublies un sou, joues les casse-couille au cou Et je me fous de tout, je troue Femmes, enfants, ripoux comme des poux vaudous Je calcule, stimule mes crapules si tu recules , moi j'en Comme pour les intègres, tel nègre la pègre Ça tourne au vinaigre Passi pense, rentre en transe avec ses loups, danse et avance Je massacre toutes vos mères, je bourre toutes vos surs et je transforme vos frères en eunuque Je crois qu'ils ont assimilé la leçon, on y va Ouais</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Couplet 1 Stomy Bugsy Première image un toxico en train de crever Le nez ensanglanté, mais ce n'est pas une overdose. La cause ? Je suppose, le manque de sa dose qui le place à l'apothéose La caméra le quitte tout tremblant On aperçoit un homme qui agite, vite, un sachet blanc Parle! Le premier mot vient d'être prononcé, le projecteur dans sa gueule Les minutes passent, il dégueule ! Les balances ne mentent pas Tout est cadencé, bien lancé, bien placé, brossé Sa gueule et les pompes n'arrêtent pas de converser Il est tellement rossé qu'il aurait pu doubler De Niro dans Raging Bull quand il a le nez pété, déclassé Assez ! Il braille, assez!!, dans le commissariat Ha, tu comprends pourquoi ? Ses voeux n'ont pas été exaucés Il a beau prier et jurer, son cauchemar ne fait que commencer Et comme la tactique, l'attaque des poulets est amorcée La bonne et vieille technique du keuf qui t'écroule A coups de boule et celui qui est très cool Tu veux une cigarette ou un café? Et comme son corps est déjà infligé de châtiments corporels Il rentre dans la confession telle une chatte qui avance gentiment à l'hôtel Il se met à baver, la machine à taper Les inspecteurs s'exclament, HAHAHAA !! You might also likePré-refrain Tu vas en prendre pour un long moment! Les balances ne mentent pas au commissariat Tu vas en prendre pour un long moment! Les balances ne mentent pas Refrain Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Demande aux Yakuzas, pour ça, ils coupent des doigts Et les scar-la te font la balafre et là, la la la la la ! Couplet 2 Passi Version deux, j'te parle de l'as des as, du biz coriace Qui brasse, caillasse en liasse et au calepin plein de pétasses Son jeu les coups juteux, le milieu, la meu-meu Fabuleux saltimbanque, jamais pris par les bleus Tu sais le coup du Brinks ? Le tank des banques bang bang Les preuves manquent mais le magot est dans sa planque Sur sa ligne téléphonique, non pas d'affaire de fric ! Son tic, timinik, c'est qu'il appelle Brigitte femme de flic Car il se sait écouté et pour narguer les kisdés Il a serré cette pimbêche, devenue sa tabataspech ? Nympho tombée accroc de ce négro du barrio De son ex-macro qu'on appelle Mysto Le commissaire frappé, fouetté par le préfet vé-ner S'est juré de tous les mettre au vert Alors les poulets passent au plan ES Espionne Salope Passi va te raconter ça, à la façon double S Une de ces seufs sur une meuf qui le bleute dans une teuf Une indic pour keuf et il fonce comme un boeuf T'as vu le loup de Tex Avery ? Donc tu sex ce qui suit ! Gros plan sur le héros et la fille sur ses pectoraux Tous les jours il est beau quand dans le lit, c'est chaud Témoin plus micro, confessions sur l'oreiller Au poste de lice-po, il pleut des oh yeah! Ah ouais Robert, on l'a eu ! Vas-y ça s'arrose eh !! Pré-refrain Tu vas en prendre pour un long moment! Les balances ne mentent pas au commissariat Tu vas en prendre pour un long moment! Les balances ne mentent pas Refrain Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment !</t>
+          <t>Couplet 1 Stomy Bugsy Première image un toxico en train de crever Le nez ensanglanté, mais ce n'est pas une overdose. La cause ? Je suppose, le manque de sa dose qui le place à l'apothéose La caméra le quitte tout tremblant On aperçoit un homme qui agite, vite, un sachet blanc Parle! Le premier mot vient d'être prononcé, le projecteur dans sa gueule Les minutes passent, il dégueule ! Les balances ne mentent pas Tout est cadencé, bien lancé, bien placé, brossé Sa gueule et les pompes n'arrêtent pas de converser Il est tellement rossé qu'il aurait pu doubler De Niro dans Raging Bull quand il a le nez pété, déclassé Assez ! Il braille, assez!!, dans le commissariat Ha, tu comprends pourquoi ? Ses voeux n'ont pas été exaucés Il a beau prier et jurer, son cauchemar ne fait que commencer Et comme la tactique, l'attaque des poulets est amorcée La bonne et vieille technique du keuf qui t'écroule A coups de boule et celui qui est très cool Tu veux une cigarette ou un café? Et comme son corps est déjà infligé de châtiments corporels Il rentre dans la confession telle une chatte qui avance gentiment à l'hôtel Il se met à baver, la machine à taper Les inspecteurs s'exclament, HAHAHAA !! Pré-refrain Tu vas en prendre pour un long moment! Les balances ne mentent pas au commissariat Tu vas en prendre pour un long moment! Les balances ne mentent pas Refrain Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Demande aux Yakuzas, pour ça, ils coupent des doigts Et les scar-la te font la balafre et là, la la la la la ! Couplet 2 Passi Version deux, j'te parle de l'as des as, du biz coriace Qui brasse, caillasse en liasse et au calepin plein de pétasses Son jeu les coups juteux, le milieu, la meu-meu Fabuleux saltimbanque, jamais pris par les bleus Tu sais le coup du Brinks ? Le tank des banques bang bang Les preuves manquent mais le magot est dans sa planque Sur sa ligne téléphonique, non pas d'affaire de fric ! Son tic, timinik, c'est qu'il appelle Brigitte femme de flic Car il se sait écouté et pour narguer les kisdés Il a serré cette pimbêche, devenue sa tabataspech ? Nympho tombée accroc de ce négro du barrio De son ex-macro qu'on appelle Mysto Le commissaire frappé, fouetté par le préfet vé-ner S'est juré de tous les mettre au vert Alors les poulets passent au plan ES Espionne Salope Passi va te raconter ça, à la façon double S Une de ces seufs sur une meuf qui le bleute dans une teuf Une indic pour keuf et il fonce comme un boeuf T'as vu le loup de Tex Avery ? Donc tu sex ce qui suit ! Gros plan sur le héros et la fille sur ses pectoraux Tous les jours il est beau quand dans le lit, c'est chaud Témoin plus micro, confessions sur l'oreiller Au poste de lice-po, il pleut des oh yeah! Ah ouais Robert, on l'a eu ! Vas-y ça s'arrose eh !! Pré-refrain Tu vas en prendre pour un long moment! Les balances ne mentent pas au commissariat Tu vas en prendre pour un long moment! Les balances ne mentent pas Refrain Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment !</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>1994, encore une saison rude, je reprends de l'altitude Tandis qu'à Paris 1e pouvoir s'endurcit à l'heure La Gaule repart dans la terreur Elle montre qui est le maître, pratique la traite des traîtres Le Diable crache sur la France répand ses semences Fric, sexe, violence en alternance Poussent, poussent vers la décadence De la crise resurgissent les disciples de Mein Kampf Comme pendant les guerres d'antan Suppôt de Satan, fachos, collabos partent en avant J'ai vu ces blancs sur les Champs comme des enfants Fêtés les 500 ans du jeune continent Glorifiés Colomb sous l'ombre des hécatombes Ses catacombes servent de tombes Les miens sombrent et tombent, Pam Pam dans la tête des nègres Pam Pam dans la tête des bougnoules, Pam Pam dans la foule, pool Certains s'enflamment, d'autres acclament profanent Vendent leurs âmes, Marianne la Sheitane blâme, baise et condamne T'as signé de ton sang ? Elle s'éclate en ton nom Les Anges Damnés ont les ailes coupées La chasse aux sorciers a déjà commencé Rira bien qui rira le dernier La chute est inévitable n'entends tu pas sonner les cloches du Diable ? x 4 Le démon tourne autour Autour de nous comme un vautour Ding dong font les cloches du diable Gling début du gong coupable est le verdict Que 1e dicte à tout Babylone avant que mon heure sonne Assieds toi, écoute moi, je pose ma voix attention Première indication sous ecsta', les camés assurent nada La France rentre dans la danse rentre dans la Trans Des petits blonds et bruns, roses cochons, défoncés, désaxés Sur du son, moi y en a trouver ça bon Informer mes négrillons prends le comme tu veux Mais plus tu fermeras les yeux plus la note sera salée Comme le matador quand il se fait shooter N'y a plus de olé deuxième indication Totalement dément Satan est-il ton président ? Pan ! Dans tes dents, je m'adresse à toi petit blanc Le baise ton gouvernement tu me diras Pourquoi tant de haine ? avec la sale haleine Je te dirai ta mère, ta sur, cette chienne Kiffe l'Afrique ma trique, ma zik, logique Elle veut un négroïde bourré de spermyStozoïdes Trop de maneé-ci, Eddy Murphy, MTV Sissi veut goûter à mon gode ou est-ce une victime de la mode Aux fantasmes incontrôlables? Mélanges instables bleu, blanc, rouge Vert, jaune, rouge alerte rouge Que personne ne bouge n'entends-tu pas sonner les cloches du Diable ? Le démon tourne autour Autour de nous comme un vautour Dès six heures du matin. comme des loups hurlent les chiens Dans un monde de chiens les miens sont en chien Tandis que les cloches du Sheitan sonnent sonnent chez Marianne L'odeur du souffre plane sur Paname Au niveau mondial tout va mal timal Après la Tempête du Désert, Babylone restaure l'espoir Les carottes pleuvent sur le continent noir Fâché fâché comme un somalien assiégé Y.M.0.T.S double S.A.P no techno parano Négro numéro uno, assistent au déficit dictent la mauvaise conduite Sous les ra-ta-ta-ta je ressuscite Guetsch me place sur orbite Kenzy me donne la ''Touche maudite L'ennemi ne peut rien même s'il chante aux armes citoyens De plus en plus d'homos, de péchés, d'escrocs Les prêtres veulent la levrette, le mariage comme droit Ils passent du ''Hallelujah'' au Bee bop a lulla Tous les ans des dizaines de viols, de viols d'enfants De guerres, poussière tout redeviendra poussière Mais restera à jamais gravé le Ministère pour que la tête du porc Diable soit toujours reconnaissable une couleur Un malheur, un coupable qui fait sonner les cloches du Diable Le démon tourne autour Autour de nous comme un vautourYou might also like</t>
+          <t>1994, encore une saison rude, je reprends de l'altitude Tandis qu'à Paris 1e pouvoir s'endurcit à l'heure La Gaule repart dans la terreur Elle montre qui est le maître, pratique la traite des traîtres Le Diable crache sur la France répand ses semences Fric, sexe, violence en alternance Poussent, poussent vers la décadence De la crise resurgissent les disciples de Mein Kampf Comme pendant les guerres d'antan Suppôt de Satan, fachos, collabos partent en avant J'ai vu ces blancs sur les Champs comme des enfants Fêtés les 500 ans du jeune continent Glorifiés Colomb sous l'ombre des hécatombes Ses catacombes servent de tombes Les miens sombrent et tombent, Pam Pam dans la tête des nègres Pam Pam dans la tête des bougnoules, Pam Pam dans la foule, pool Certains s'enflamment, d'autres acclament profanent Vendent leurs âmes, Marianne la Sheitane blâme, baise et condamne T'as signé de ton sang ? Elle s'éclate en ton nom Les Anges Damnés ont les ailes coupées La chasse aux sorciers a déjà commencé Rira bien qui rira le dernier La chute est inévitable n'entends tu pas sonner les cloches du Diable ? x 4 Le démon tourne autour Autour de nous comme un vautour Ding dong font les cloches du diable Gling début du gong coupable est le verdict Que 1e dicte à tout Babylone avant que mon heure sonne Assieds toi, écoute moi, je pose ma voix attention Première indication sous ecsta', les camés assurent nada La France rentre dans la danse rentre dans la Trans Des petits blonds et bruns, roses cochons, défoncés, désaxés Sur du son, moi y en a trouver ça bon Informer mes négrillons prends le comme tu veux Mais plus tu fermeras les yeux plus la note sera salée Comme le matador quand il se fait shooter N'y a plus de olé deuxième indication Totalement dément Satan est-il ton président ? Pan ! Dans tes dents, je m'adresse à toi petit blanc Le baise ton gouvernement tu me diras Pourquoi tant de haine ? avec la sale haleine Je te dirai ta mère, ta sur, cette chienne Kiffe l'Afrique ma trique, ma zik, logique Elle veut un négroïde bourré de spermyStozoïdes Trop de maneé-ci, Eddy Murphy, MTV Sissi veut goûter à mon gode ou est-ce une victime de la mode Aux fantasmes incontrôlables? Mélanges instables bleu, blanc, rouge Vert, jaune, rouge alerte rouge Que personne ne bouge n'entends-tu pas sonner les cloches du Diable ? Le démon tourne autour Autour de nous comme un vautour Dès six heures du matin. comme des loups hurlent les chiens Dans un monde de chiens les miens sont en chien Tandis que les cloches du Sheitan sonnent sonnent chez Marianne L'odeur du souffre plane sur Paname Au niveau mondial tout va mal timal Après la Tempête du Désert, Babylone restaure l'espoir Les carottes pleuvent sur le continent noir Fâché fâché comme un somalien assiégé Y.M.0.T.S double S.A.P no techno parano Négro numéro uno, assistent au déficit dictent la mauvaise conduite Sous les ra-ta-ta-ta je ressuscite Guetsch me place sur orbite Kenzy me donne la ''Touche maudite L'ennemi ne peut rien même s'il chante aux armes citoyens De plus en plus d'homos, de péchés, d'escrocs Les prêtres veulent la levrette, le mariage comme droit Ils passent du ''Hallelujah'' au Bee bop a lulla Tous les ans des dizaines de viols, de viols d'enfants De guerres, poussière tout redeviendra poussière Mais restera à jamais gravé le Ministère pour que la tête du porc Diable soit toujours reconnaissable une couleur Un malheur, un coupable qui fait sonner les cloches du Diable Le démon tourne autour Autour de nous comme un vautour</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Abdulaï résurrection, le hip-hop a une érection Je veux tuer l'temps mais le temps veut ma peau On s'comprend entre criminels, on s'tire le chapeau Cinq litres de sang dans l'corps pour graver l'Histoire Les points sur les Ä, sur ta gueule, ta ratte sur l'trottoir Bavard en bastos, muet à l'interrogatoire Mon groupuscule t'encule jusqu'à la cervelle J't'ai lobotomisé, le rap vient d'Garges Sarcelles Cherche la vibe comme un tox', j'suis dopé J'suis un paradoxe, un calibre avec un message de paix La voie est libre, j'vise et shoote avant qu'les anges m'accueillent Des salopes surfent sur la vague avec une planche de cercueil Engreneur avec une bouteille, d'l'essence un chiffon Pardonne-leur, Seigneur, ils savent pas c'qu'ils font Moi j'donne l'heure, du fond, d'la bonne herbe, du son qui traumatise C'est comme la roulette russe avec un automatique C'est dead Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler You might also like On baise le buzz, toujours en biz, deuil, disque C'est mort pour nous c'est l'Christ Qui va nous mettre sous terre dans c'biz du disque Il risque d'y avoir des flaques de sang, la rue s'attriste Alors on pisse, le Ä pisse sur les langues de putes Hip-hop résistants Kamikazes, genre soldats d'Afghanistan Avec le traître aux dreadlocks on a mis la distance Assiste à la reconquête d'l'empire, le chemin est glissant La liste des victimes s'allonge, mec on reste puissants Une guerre, cest une vie pour une vie Lindustrie a rien compris Hamed Daye au micro Cest comme ce putain de Zarkaoui Evadé de Guantanamo Allah est avec les négros Toi avec les clitos J'vous excise avec mon stylo Jviens faire lintifada avec mon canon scié Prier, crier, trier Avec le démon jvous envoie griller Cest pas laïd pourtant ça va saigner Oualaye, tes une caille Au djihad viens tassocier Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler Une ogive dans ta tête gros, pour tout faire sauter Mec, ma Secte rentre sec mais personne peut stopper C.A.L. gangsta, ceux qui kiffent votez Quand ça baise, l'État, l'bleu, toujours opé Baskets blanches, bruit d'coupe-coupe, fly-jacket Traverse pas ma zone MC ou on t'rackette C'est chaud chaud, un yo-yo pour les frères au cachot Abdulaï à la mort, c'est d'la bonne t'inquiète Laisse-moi, ha Dé-délimiter l'périmètre de sécurité Déto-détonation verbale, j'ai la bouche dynamitée Avec un dé-débit direct, eux ont l'débit différé T'inquiète, ici ça kicke sec, mes cailles sont dé-déterminées Laisse passer mon G.A.N.G Au micro j'ai la haine, tu ressens le danger La donne va changer, les MC vont manger Le hip-hop on vient venger Ça dé-dé-défouraille, sur le beat c'est Abdulaï Sorti tout droit des ténèbres pour bénir la racaille Barbare popo, j'viens m'faire per-pom Trop sale, poto, la barre pour quer-cro Trop rap, trop fort, trop squale, trop gore J'ai un don d'Abdulaï, la kalash dans l'cerveau Kamikazes, on débarque et les balles parlent C'est l'bal des claques pour les baltringues, le ball-trap C'est l'banc d'touche, la machette, ta bande qui bataille Un pack de chiens entre potos On baise le biz putain d'bâtards Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler</t>
+          <t>Abdulaï résurrection, le hip-hop a une érection Je veux tuer l'temps mais le temps veut ma peau On s'comprend entre criminels, on s'tire le chapeau Cinq litres de sang dans l'corps pour graver l'Histoire Les points sur les Ä, sur ta gueule, ta ratte sur l'trottoir Bavard en bastos, muet à l'interrogatoire Mon groupuscule t'encule jusqu'à la cervelle J't'ai lobotomisé, le rap vient d'Garges Sarcelles Cherche la vibe comme un tox', j'suis dopé J'suis un paradoxe, un calibre avec un message de paix La voie est libre, j'vise et shoote avant qu'les anges m'accueillent Des salopes surfent sur la vague avec une planche de cercueil Engreneur avec une bouteille, d'l'essence un chiffon Pardonne-leur, Seigneur, ils savent pas c'qu'ils font Moi j'donne l'heure, du fond, d'la bonne herbe, du son qui traumatise C'est comme la roulette russe avec un automatique C'est dead Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler On baise le buzz, toujours en biz, deuil, disque C'est mort pour nous c'est l'Christ Qui va nous mettre sous terre dans c'biz du disque Il risque d'y avoir des flaques de sang, la rue s'attriste Alors on pisse, le Ä pisse sur les langues de putes Hip-hop résistants Kamikazes, genre soldats d'Afghanistan Avec le traître aux dreadlocks on a mis la distance Assiste à la reconquête d'l'empire, le chemin est glissant La liste des victimes s'allonge, mec on reste puissants Une guerre, cest une vie pour une vie Lindustrie a rien compris Hamed Daye au micro Cest comme ce putain de Zarkaoui Evadé de Guantanamo Allah est avec les négros Toi avec les clitos J'vous excise avec mon stylo Jviens faire lintifada avec mon canon scié Prier, crier, trier Avec le démon jvous envoie griller Cest pas laïd pourtant ça va saigner Oualaye, tes une caille Au djihad viens tassocier Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler Une ogive dans ta tête gros, pour tout faire sauter Mec, ma Secte rentre sec mais personne peut stopper C.A.L. gangsta, ceux qui kiffent votez Quand ça baise, l'État, l'bleu, toujours opé Baskets blanches, bruit d'coupe-coupe, fly-jacket Traverse pas ma zone MC ou on t'rackette C'est chaud chaud, un yo-yo pour les frères au cachot Abdulaï à la mort, c'est d'la bonne t'inquiète Laisse-moi, ha Dé-délimiter l'périmètre de sécurité Déto-détonation verbale, j'ai la bouche dynamitée Avec un dé-débit direct, eux ont l'débit différé T'inquiète, ici ça kicke sec, mes cailles sont dé-déterminées Laisse passer mon G.A.N.G Au micro j'ai la haine, tu ressens le danger La donne va changer, les MC vont manger Le hip-hop on vient venger Ça dé-dé-défouraille, sur le beat c'est Abdulaï Sorti tout droit des ténèbres pour bénir la racaille Barbare popo, j'viens m'faire per-pom Trop sale, poto, la barre pour quer-cro Trop rap, trop fort, trop squale, trop gore J'ai un don d'Abdulaï, la kalash dans l'cerveau Kamikazes, on débarque et les balles parlent C'est l'bal des claques pour les baltringues, le ball-trap C'est l'banc d'touche, la machette, ta bande qui bataille Un pack de chiens entre potos On baise le biz putain d'bâtards Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>De nouveau sur la scène, je reviens Je me ramène, micro en main dans l'arène Augmente le son ça vaut la peine damné titulaire du A.M.E.R Mon attitude est noire et fière mon attitude est amère Viens avec ta négritude, tes manies, et les coutumes On fera la fête t'as tes sapes, tes Weston, tes costumes Le CFA a perdu du poids comme s'il avait le sida Ici on parle en écu, je te souhaite la bienvenue t'auras le statut Réfugié économique n'oublie pas ramène moi Un bon saka-saka typique on ira à Château d'Eau pour te faire une coupe À Château Rouge on fera les courses pour la vie de groupe On sera 20 chez moi, on mettra la musique fort Tous les vendredis en boîte et les samedis encore En lingala on parlera fort dans tous les transports Normal l'homme noir est trop noir trop fort Pas inquiet pour tes papiers, la mode est au métissage Récépissé plus mariage, tu seras du paysage Et j'insiste, tu seras pas là en touriste Tout comme moi avec la police Tu auras droit à ''vérification, nous détenons un Papa, Alpha, Sierra, India Artiste réaliste, hérétique, analyste Traité de raciste, fasciste, anarchiste, extrémiste, activiste, intégriste Tous les mots que je débite vous irrite ? Je ne suis pas là en touriste Je ne suis pas venu en touriste Non, non pas en touriste, la voix de basse La voix de basse, la voix de basse brouille les pistes L'homme qu'on appelait Daye accède à l'auditoire Sous le nom de Frère Hamed et démarre peinard Par aucun handicap je me rattrape je fous des tapes À tous les les MCs flip-flap Pour ce genre de mission je suis apte La grande famille du stère-Mini est enfin réunie L'été nous appartient et personne ne me contredit En dehors ou sur les terrains de basket Frère Hamed n'est pas du genre à faire banquette Je dribble à gauche, je dribble à droite Je lance mon mètre 90 et mes 95 kilos sur ta tête Hou ! Très fort ! Hou ! Très fort ! Le nègre vient de te travailler au corps Et comme d'habitude après chaque match Frère Hamed doit toucher son cash Ouais je ne suis pas venu en touriste Je ne suis pas venu en touriste Je suis le nègre de la pègre réformiste Aux paroles terroristes boycotté par les radios Côté par les négros, surveillé par les Renseignements Généraux Jamais derrière les barreaux Toujours en train de taraud excitant comme l'alcool Plus cher que le pétrole vos filles sont folles de moi Il y a de quoi ! Devinez qui vient dîner à la maison ? Devinez qui vient dîner au réveillon ? Moi Stomy Bugsy, plus côté que Schwarzy et Rocky au box-office D'office je suis l'ami de votre fils, le petit ami de votre fille Pas besoin d'attaque, tac, je rentre par la porte, toc toc Escalope de veau ? Bien je sais manger avec un fourchette et une couteau Ne faites pas la tête, non, accepte-moi belle maman Je t'offrirai un exemplaire du Coran Accepte-moi beau papa tu auras la photo de l'Ayatollah Parlons de Monique je lui prévois un bel avenir Tchador, je t'adore, elle le portera Quoi ! vous n'êtes pas d'accord ? On sera jamais dans la dèche, elle sera ma taspechhhe Le dessert passe mal, mal quand elle gueule comme une squale Sans respect c'est OK en moins d'une seconde Je crache auprès de ma blonde dans la France profonde J'insiste, persiste tel un exorciste je n'ai pas la croix du Christ....You might also like</t>
+          <t>De nouveau sur la scène, je reviens Je me ramène, micro en main dans l'arène Augmente le son ça vaut la peine damné titulaire du A.M.E.R Mon attitude est noire et fière mon attitude est amère Viens avec ta négritude, tes manies, et les coutumes On fera la fête t'as tes sapes, tes Weston, tes costumes Le CFA a perdu du poids comme s'il avait le sida Ici on parle en écu, je te souhaite la bienvenue t'auras le statut Réfugié économique n'oublie pas ramène moi Un bon saka-saka typique on ira à Château d'Eau pour te faire une coupe À Château Rouge on fera les courses pour la vie de groupe On sera 20 chez moi, on mettra la musique fort Tous les vendredis en boîte et les samedis encore En lingala on parlera fort dans tous les transports Normal l'homme noir est trop noir trop fort Pas inquiet pour tes papiers, la mode est au métissage Récépissé plus mariage, tu seras du paysage Et j'insiste, tu seras pas là en touriste Tout comme moi avec la police Tu auras droit à ''vérification, nous détenons un Papa, Alpha, Sierra, India Artiste réaliste, hérétique, analyste Traité de raciste, fasciste, anarchiste, extrémiste, activiste, intégriste Tous les mots que je débite vous irrite ? Je ne suis pas là en touriste Je ne suis pas venu en touriste Non, non pas en touriste, la voix de basse La voix de basse, la voix de basse brouille les pistes L'homme qu'on appelait Daye accède à l'auditoire Sous le nom de Frère Hamed et démarre peinard Par aucun handicap je me rattrape je fous des tapes À tous les les MCs flip-flap Pour ce genre de mission je suis apte La grande famille du stère-Mini est enfin réunie L'été nous appartient et personne ne me contredit En dehors ou sur les terrains de basket Frère Hamed n'est pas du genre à faire banquette Je dribble à gauche, je dribble à droite Je lance mon mètre 90 et mes 95 kilos sur ta tête Hou ! Très fort ! Hou ! Très fort ! Le nègre vient de te travailler au corps Et comme d'habitude après chaque match Frère Hamed doit toucher son cash Ouais je ne suis pas venu en touriste Je ne suis pas venu en touriste Je suis le nègre de la pègre réformiste Aux paroles terroristes boycotté par les radios Côté par les négros, surveillé par les Renseignements Généraux Jamais derrière les barreaux Toujours en train de taraud excitant comme l'alcool Plus cher que le pétrole vos filles sont folles de moi Il y a de quoi ! Devinez qui vient dîner à la maison ? Devinez qui vient dîner au réveillon ? Moi Stomy Bugsy, plus côté que Schwarzy et Rocky au box-office D'office je suis l'ami de votre fils, le petit ami de votre fille Pas besoin d'attaque, tac, je rentre par la porte, toc toc Escalope de veau ? Bien je sais manger avec un fourchette et une couteau Ne faites pas la tête, non, accepte-moi belle maman Je t'offrirai un exemplaire du Coran Accepte-moi beau papa tu auras la photo de l'Ayatollah Parlons de Monique je lui prévois un bel avenir Tchador, je t'adore, elle le portera Quoi ! vous n'êtes pas d'accord ? On sera jamais dans la dèche, elle sera ma taspechhhe Le dessert passe mal, mal quand elle gueule comme une squale Sans respect c'est OK en moins d'une seconde Je crache auprès de ma blonde dans la France profonde J'insiste, persiste tel un exorciste je n'ai pas la croix du Christ....</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Assia Pour lui j'aurais donné toute ma vie Trahi mon âme quand j'ai perdu l'esprit Tant pis si je peux goûter de bonheur infini De moi à lui, le jour, la nuit Parole d'amie, une pure folie Tant pis si pour ça je suis bannie du paradis Refrain Quand les anges pleurent Le ciel s'assombrit Les larmes de pluie effleurent Le démon sourit Quand les anges pleurent Moi je pleure aussi Assia Voilà trois jour que t'es parti Hamed Däye Même si je n'donne pas signe de vie C'est toi qui me maintiens en vie Avec toi mon sommeil s'est enfui L'essentiel, c'est que je sois près de toi Oublie toutes ces nuits Mon ciel est gris et je compte les gouttes de pluie Te mets pas dans tous ces états Viens dans mes bras ma chérie Arrête de me faire du mal je t'en prie You might also likeHamed Däye Cesse de péter les plombs et débloquer A chaque fois que le téléphone chiale Assia Un jour tu regretteras tout ça Hamed Däye J'attache aucune importance à toutes ces folles qui braillent Tu pleureras en pensant à moi Pour s'arracher mon corps alors que mon cur affiche complet L'amour c'est pas ça OK continue à parler toute seule Moi je m'arrache, Ciao bébé Refrain Hamed Däye Ma vie n'a plus aucun sens, j'me sens trop seul tu sais Depuis que tu m'as quitté, je me fais une fixette sur ton décès Je suis sûr que si j'avais été là ce soir-là, à tes côtés Tu serais encore en vie mais qu'est-ce-qui m'a pris J'étais censé te protéger pour le restant de ta vie Maintenant c'est moi qui pleure Mes larmes et mes cris transpercent les portes du paradis Oh mon Dieu, mon vu le plus cher Ça serait de la revoir, de la chérir juste une dernière fois Combien de fois j'ai songé à te rejoindre bébé Combien de fois j'me suis réveillé au milieu de la nuit pour sombrer Dans le désespoir si tu veux savoir mon plus grand regret C'est de ne pas t'avoir dit assez à quel point je t'aimais Alors écoute-moi une dernière fois j't'aime et j't'ai toujours aimée En fin de compte j'suis peut-être un démon Mais mon âme s'est purifiée le jour où t'as pris ton envol vers l'horizon</t>
+          <t>Assia Pour lui j'aurais donné toute ma vie Trahi mon âme quand j'ai perdu l'esprit Tant pis si je peux goûter de bonheur infini De moi à lui, le jour, la nuit Parole d'amie, une pure folie Tant pis si pour ça je suis bannie du paradis Refrain Quand les anges pleurent Le ciel s'assombrit Les larmes de pluie effleurent Le démon sourit Quand les anges pleurent Moi je pleure aussi Assia Voilà trois jour que t'es parti Hamed Däye Même si je n'donne pas signe de vie C'est toi qui me maintiens en vie Avec toi mon sommeil s'est enfui L'essentiel, c'est que je sois près de toi Oublie toutes ces nuits Mon ciel est gris et je compte les gouttes de pluie Te mets pas dans tous ces états Viens dans mes bras ma chérie Arrête de me faire du mal je t'en prie Hamed Däye Cesse de péter les plombs et débloquer A chaque fois que le téléphone chiale Assia Un jour tu regretteras tout ça Hamed Däye J'attache aucune importance à toutes ces folles qui braillent Tu pleureras en pensant à moi Pour s'arracher mon corps alors que mon cur affiche complet L'amour c'est pas ça OK continue à parler toute seule Moi je m'arrache, Ciao bébé Refrain Hamed Däye Ma vie n'a plus aucun sens, j'me sens trop seul tu sais Depuis que tu m'as quitté, je me fais une fixette sur ton décès Je suis sûr que si j'avais été là ce soir-là, à tes côtés Tu serais encore en vie mais qu'est-ce-qui m'a pris J'étais censé te protéger pour le restant de ta vie Maintenant c'est moi qui pleure Mes larmes et mes cris transpercent les portes du paradis Oh mon Dieu, mon vu le plus cher Ça serait de la revoir, de la chérir juste une dernière fois Combien de fois j'ai songé à te rejoindre bébé Combien de fois j'me suis réveillé au milieu de la nuit pour sombrer Dans le désespoir si tu veux savoir mon plus grand regret C'est de ne pas t'avoir dit assez à quel point je t'aimais Alors écoute-moi une dernière fois j't'aime et j't'ai toujours aimée En fin de compte j'suis peut-être un démon Mais mon âme s'est purifiée le jour où t'as pris ton envol vers l'horizon</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Hawaï Police d'Etat, y a pas dra le cain-cain Venu de l'ouest africain vient foutre son grain de sel Appelle qui tu veux, mon cartel martèle Du travail de pro, le résultat est nickel, ma belle Sur l'échiquier, l'altesse, la tour en mission Opération du bon son, deux voix graves en salve Na zo ya encore le Saka-Saka, oui c'est le ssi-Pa Celui qui tient sa trique, du gingembre de l'Afrique Je me promène dans ma ville, j'ai l'impression que tout le monde me connaît Mais qui veut me poignarder, qui veut me tester ? Je guette de droite à gauche, mon Secteur Ä t'a déjà traîné tché J'ai la puissance du python comme les vieux pères du de-blé Dis bonjour, v'là les boss, la flambe en boss, les Giorgio Smalto, ston-We croco du rap braillés Nos stratégies, cellules cérébrales grillées Notre bario, tu le sais A deux points t'y es Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S You might also like Laisse-moi m'asseoir sur tout le biz, arrête tes bêtises Marche pas sur mes plates-bandes car c'est ta femme que je courtise Peser, gagner, la tirer en une prise À minuit quand toutes les ch... sont grises Adultère et lope-sa, cile-fa ça baise à ris-Pas Toi ris pas ça se trouve on fourre la tienne et tu le sais même pas Bon, bon, arrête là, maintenant tu sais qui pèse et qui ne pèse pas Deux putains de nègres de la pègre, nominés pour le secteur Ä Daye, Passi, ici, tu suis sans souci Nominés aux premiers prix sans surprise, mon stère-Mini On monte sur le podium, nos smokings sont taillés On lève les bras et on arrache le trophée Tout le monde applaudit y compris nos ennemis J'arrange mon nud pap' et je leur souris La grande classe bébé, la grande classe tasse-pé Et jusque dans les coulisses on est toujours bien escortés Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S Pas de fiasco chez les négros qui braquent au micro Dans notre bizness y a pas de Donnie Brasco Je déniche la taupe, fourgue la dope, de la bonne came Qui a passé la douane et qui débarque chez toi juste à l'aube Je suis servi par décibels, Taj Mahal verbal Je deale à la tienne, les rues nous appartiennent Ouais, Ouais j'pèse comme Gainsbar, des barres et des barres Du wari wari, ce soir négro y a pas de lézard Tu veux des sensations, si pour toi le temps est gris Grippe dans ta gorge, l'atmosphère est pourrie Paris nous voici, ta décadence, tes boîtes de nuit On va maquer tout ça et se faire un max de profit Ah, Ah, je suis vraiment à Paris De Sarcelles, je suis passé à Neuilly Oui c'est donc ça la vie, j'ai réussi J'ai envoyé assez de blé pour construire au pays Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S</t>
+          <t>Hawaï Police d'Etat, y a pas dra le cain-cain Venu de l'ouest africain vient foutre son grain de sel Appelle qui tu veux, mon cartel martèle Du travail de pro, le résultat est nickel, ma belle Sur l'échiquier, l'altesse, la tour en mission Opération du bon son, deux voix graves en salve Na zo ya encore le Saka-Saka, oui c'est le ssi-Pa Celui qui tient sa trique, du gingembre de l'Afrique Je me promène dans ma ville, j'ai l'impression que tout le monde me connaît Mais qui veut me poignarder, qui veut me tester ? Je guette de droite à gauche, mon Secteur Ä t'a déjà traîné tché J'ai la puissance du python comme les vieux pères du de-blé Dis bonjour, v'là les boss, la flambe en boss, les Giorgio Smalto, ston-We croco du rap braillés Nos stratégies, cellules cérébrales grillées Notre bario, tu le sais A deux points t'y es Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S Laisse-moi m'asseoir sur tout le biz, arrête tes bêtises Marche pas sur mes plates-bandes car c'est ta femme que je courtise Peser, gagner, la tirer en une prise À minuit quand toutes les ch... sont grises Adultère et lope-sa, cile-fa ça baise à ris-Pas Toi ris pas ça se trouve on fourre la tienne et tu le sais même pas Bon, bon, arrête là, maintenant tu sais qui pèse et qui ne pèse pas Deux putains de nègres de la pègre, nominés pour le secteur Ä Daye, Passi, ici, tu suis sans souci Nominés aux premiers prix sans surprise, mon stère-Mini On monte sur le podium, nos smokings sont taillés On lève les bras et on arrache le trophée Tout le monde applaudit y compris nos ennemis J'arrange mon nud pap' et je leur souris La grande classe bébé, la grande classe tasse-pé Et jusque dans les coulisses on est toujours bien escortés Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S Pas de fiasco chez les négros qui braquent au micro Dans notre bizness y a pas de Donnie Brasco Je déniche la taupe, fourgue la dope, de la bonne came Qui a passé la douane et qui débarque chez toi juste à l'aube Je suis servi par décibels, Taj Mahal verbal Je deale à la tienne, les rues nous appartiennent Ouais, Ouais j'pèse comme Gainsbar, des barres et des barres Du wari wari, ce soir négro y a pas de lézard Tu veux des sensations, si pour toi le temps est gris Grippe dans ta gorge, l'atmosphère est pourrie Paris nous voici, ta décadence, tes boîtes de nuit On va maquer tout ça et se faire un max de profit Ah, Ah, je suis vraiment à Paris De Sarcelles, je suis passé à Neuilly Oui c'est donc ça la vie, j'ai réussi J'ai envoyé assez de blé pour construire au pays Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Un deux, un, devinez qui revient Je pèse et je baise En levrette, en brochettes, pickpocket, pichenette J'impose ma notoriété comme Vito Corleone Me regarde pas d'travers, enculé d'ta mère J'viens flamber sur l'album des Neg' Marrons Et tu m'connais Si t'es pas content, va t'faire mettre jusqu'aux trous d'nez J'te piétine à coups d'talon façon Joe Pesci L'affranchi, pas d'chichis, mon Secteur Ä te chie Devant lui tu fléchis Même si tu cries, on augmente la mélodie d'la tuerie Fait passer l'homicide pour un putain d'hara-kiri Les flics sucent leurs indics, personne sait c'est iq Va t'faire enculer J'veux c'qui m'revient, ne plus voir les richesses non étalées Stomy Bugsy, c'est comme ça qu'on m'appelle Tu sais, le beau gosse avec le costard, la coupe de champagne et le cigare Et les rattes de des rêves, j'en ai à la pelle J'ai tout connu, laisse-moi sortir du cul Les murs de chez moi sont tellement fins Que quand mon voisin chie, j'peux savoir si c'est des pâtes ou du riz Quand les fils de salopes prétendent faire du vrai hip-hop L'important c'est la maille, le flooze, la pêche, la classe quoi Appelle-moi Stomy Bugsy Montana Le calibre qu'il te faut en attendant le prochain album du M.Ä You might also like Mon premier est une taspé qui kiffe Gynéco Mon second un MC qui fait du rap à l'eau Le tout est une su que je baise sans poa Je touche ma SACEM et j'investis dans un BM Je pèse, je baise, toutes les filles m'aiment L'homme qui met son doigt dans ton intimité A prostitué ton rap sur le boulevard Ney Si tu veux pécho viens voir Gynéco Jamais de pénurie au PLC non non non J'investis en gros dans les rues du quartier J'suis sur toutes les radios, j'ai des clips vidéos On s'échange mes démos, j'ai une putain d'promo Un riche en sursis toi-même tu sais que Secteur Ä m'appuie Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? C'est encore nous Les trois scars-la voyous Ben-J Jacky Djamatik Daddy viennent tchatcher pour vous 1-9-9-chut, l'année où tu rêves de pèze Lève-toi, bats-toi si tu n'veux pas être de la baise Maille, maille, maille, ma-ma-ma-maille Mais oui il n'y a que la maille qui m'aille Djamatik le dancehall a fait découper ça XXX Chaud, écoute ça Marre de vivre comme une victime de XXX 1-9-9-7 l'argent entre dans ma vie J'en ai marre de rêver, faut qu'j'assouvisse mes envies C'que j'ai pas eu hier, faut qu'j'l'obtienne aujourd'hui Tu veux d'la maille, des tunes, du fric, non non non non non il ne faut pas qu'tu flaires La monnaie dirige le monde, je l'ai déjà dit l'année dernière Comme nous t'aimes be-flam Et dans tous les mouvements Avoir des taspés tout l'temps Avoir les poches pleines d'argent Qu'on dise que t'es important Peser à cent pour cent Comme le temps c'est d'l'argent il faut qu't'agisses dès maintenant Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? 1996, soit tu pèses, soit t'es d'la baise Le tirailleur revient donc bouge ton cul d'ma chaise Je fesse, blesse, laisse les MC flip-flap à leur place Quand l'Cain-cain pèse, les Caucasiens font la grimace, ouais Rien à foutre de l'état d'ton XXX je fourre tout dans ma BNP Le siège social reste j'crois qu'mon oreiller Mais cette fois François, ne paye pas en francs CFA J'veux qu'tu m'payes en francs lourds hé hé, la caisse est par là J'suis l'mec qui va t'faire perdre toute ta paye T'es encore d'la baise, un conseil, paye Hamed Däye Faut du wari-wari, plus de wari-wari Pour qu'j'puisse me retirer en retraite au pays Hamed Däye, Neg' Marrons, mem bagay, envoie le pognon Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Sorti du sixième chaudron Ärsenik le poison est dans ta maison Les douilles éclatent et l'hémoglobine souille mon sol écarlate Écarte les âmes sensibles quand les XXX Mais MC XXX trop bavards, de France ou de Navarre Je suis connu comme le flingueur le moins avare Avare en bastos, mon esprit part en testos XXX qui nous XXX et les microbes comme Domestos Si le rap était un système solaire, je serais son éclipse Despee dans l'il du cyclone, symptôme de l'Apocalypse L'ogre nègre ennemi d'la concurrence humide Qui ne comprend pas ne comprendra jamais le rugissement du tigre XXX 80 Ärsenik le ceau-mor Je prends le microphone et l'pays brûle comme Sodome et Gomorrhe Dans mon Secteur, je suis vecteur Cannibale sectaire, plus bas qu'terre XXX manière qu'Hannibal Lecter L'exterminateur expert tenace comme une gangrène Je suis la menace des cités où pousse la mauvaise graine Le french schizo à la rime exquise au micro XXX Despee, costaud mais allergique à la kryptonite verte Alerte, danger danger Rangez vos miches, je viens manger, changer XXX au purgatoire, un étranger Dans mon crâne et du métal dans ma poche XXX Ärsenik comme la mort te fauche Sur une mélodie sinistre, un concerto macabre affûté comme un sabre Tchoum tchoum, et on danse la biguine L'emprise de la XXX sauve-toi XXX Mon alcôve est un satané XXX l'antichambre de l'enfer Combat l'ambiance crépusculaire, mon groupuscule erre dans la brume Je danse avec le diable au clair de Lune Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Comme un guerrier Viêt-Cong, surgissant du Mékong Passi sonne le gong, tu m'connais à la longue Issap! Big, pas de tminik, je renique sur le ring Le numéro six, année un double-neuf sept Se la pète et glisse un feu d'artifice Quand mon Secteur Ä je hisse dans l'orifice du rap en France Je fous ça sans vice Et ce n'est plus gratis quand sur les pingres hostiles je pisse Les miens je rejoins Dans la bringue et je tringle Avec mes dingues dont les mots sur le cerveau sont des tringles Ma requête n'est pas des moindres, monnaie monnaie quitte à enfreindre Cette année damnée, donner l'plaisir, l'atteindre et XXX Laissez-nous rejoindre toutes celles qu'on entend se plaindre Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Pour le Secteur Ä, Ärsenik P.A.Double S.I Stomy Bugsy, Doc Gynéco Hamed Däye, Neg' Marrons Aaah! Comme King-Kong Est-ce que t'as bien saisi?</t>
+          <t>Un deux, un, devinez qui revient Je pèse et je baise En levrette, en brochettes, pickpocket, pichenette J'impose ma notoriété comme Vito Corleone Me regarde pas d'travers, enculé d'ta mère J'viens flamber sur l'album des Neg' Marrons Et tu m'connais Si t'es pas content, va t'faire mettre jusqu'aux trous d'nez J'te piétine à coups d'talon façon Joe Pesci L'affranchi, pas d'chichis, mon Secteur Ä te chie Devant lui tu fléchis Même si tu cries, on augmente la mélodie d'la tuerie Fait passer l'homicide pour un putain d'hara-kiri Les flics sucent leurs indics, personne sait c'est iq Va t'faire enculer J'veux c'qui m'revient, ne plus voir les richesses non étalées Stomy Bugsy, c'est comme ça qu'on m'appelle Tu sais, le beau gosse avec le costard, la coupe de champagne et le cigare Et les rattes de des rêves, j'en ai à la pelle J'ai tout connu, laisse-moi sortir du cul Les murs de chez moi sont tellement fins Que quand mon voisin chie, j'peux savoir si c'est des pâtes ou du riz Quand les fils de salopes prétendent faire du vrai hip-hop L'important c'est la maille, le flooze, la pêche, la classe quoi Appelle-moi Stomy Bugsy Montana Le calibre qu'il te faut en attendant le prochain album du M.Ä Mon premier est une taspé qui kiffe Gynéco Mon second un MC qui fait du rap à l'eau Le tout est une su que je baise sans poa Je touche ma SACEM et j'investis dans un BM Je pèse, je baise, toutes les filles m'aiment L'homme qui met son doigt dans ton intimité A prostitué ton rap sur le boulevard Ney Si tu veux pécho viens voir Gynéco Jamais de pénurie au PLC non non non J'investis en gros dans les rues du quartier J'suis sur toutes les radios, j'ai des clips vidéos On s'échange mes démos, j'ai une putain d'promo Un riche en sursis toi-même tu sais que Secteur Ä m'appuie Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? C'est encore nous Les trois scars-la voyous Ben-J Jacky Djamatik Daddy viennent tchatcher pour vous 1-9-9-chut, l'année où tu rêves de pèze Lève-toi, bats-toi si tu n'veux pas être de la baise Maille, maille, maille, ma-ma-ma-maille Mais oui il n'y a que la maille qui m'aille Djamatik le dancehall a fait découper ça XXX Chaud, écoute ça Marre de vivre comme une victime de XXX 1-9-9-7 l'argent entre dans ma vie J'en ai marre de rêver, faut qu'j'assouvisse mes envies C'que j'ai pas eu hier, faut qu'j'l'obtienne aujourd'hui Tu veux d'la maille, des tunes, du fric, non non non non non il ne faut pas qu'tu flaires La monnaie dirige le monde, je l'ai déjà dit l'année dernière Comme nous t'aimes be-flam Et dans tous les mouvements Avoir des taspés tout l'temps Avoir les poches pleines d'argent Qu'on dise que t'es important Peser à cent pour cent Comme le temps c'est d'l'argent il faut qu't'agisses dès maintenant Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? 1996, soit tu pèses, soit t'es d'la baise Le tirailleur revient donc bouge ton cul d'ma chaise Je fesse, blesse, laisse les MC flip-flap à leur place Quand l'Cain-cain pèse, les Caucasiens font la grimace, ouais Rien à foutre de l'état d'ton XXX je fourre tout dans ma BNP Le siège social reste j'crois qu'mon oreiller Mais cette fois François, ne paye pas en francs CFA J'veux qu'tu m'payes en francs lourds hé hé, la caisse est par là J'suis l'mec qui va t'faire perdre toute ta paye T'es encore d'la baise, un conseil, paye Hamed Däye Faut du wari-wari, plus de wari-wari Pour qu'j'puisse me retirer en retraite au pays Hamed Däye, Neg' Marrons, mem bagay, envoie le pognon Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Sorti du sixième chaudron Ärsenik le poison est dans ta maison Les douilles éclatent et l'hémoglobine souille mon sol écarlate Écarte les âmes sensibles quand les XXX Mais MC XXX trop bavards, de France ou de Navarre Je suis connu comme le flingueur le moins avare Avare en bastos, mon esprit part en testos XXX qui nous XXX et les microbes comme Domestos Si le rap était un système solaire, je serais son éclipse Despee dans l'il du cyclone, symptôme de l'Apocalypse L'ogre nègre ennemi d'la concurrence humide Qui ne comprend pas ne comprendra jamais le rugissement du tigre XXX 80 Ärsenik le ceau-mor Je prends le microphone et l'pays brûle comme Sodome et Gomorrhe Dans mon Secteur, je suis vecteur Cannibale sectaire, plus bas qu'terre XXX manière qu'Hannibal Lecter L'exterminateur expert tenace comme une gangrène Je suis la menace des cités où pousse la mauvaise graine Le french schizo à la rime exquise au micro XXX Despee, costaud mais allergique à la kryptonite verte Alerte, danger danger Rangez vos miches, je viens manger, changer XXX au purgatoire, un étranger Dans mon crâne et du métal dans ma poche XXX Ärsenik comme la mort te fauche Sur une mélodie sinistre, un concerto macabre affûté comme un sabre Tchoum tchoum, et on danse la biguine L'emprise de la XXX sauve-toi XXX Mon alcôve est un satané XXX l'antichambre de l'enfer Combat l'ambiance crépusculaire, mon groupuscule erre dans la brume Je danse avec le diable au clair de Lune Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Comme un guerrier Viêt-Cong, surgissant du Mékong Passi sonne le gong, tu m'connais à la longue Issap! Big, pas de tminik, je renique sur le ring Le numéro six, année un double-neuf sept Se la pète et glisse un feu d'artifice Quand mon Secteur Ä je hisse dans l'orifice du rap en France Je fous ça sans vice Et ce n'est plus gratis quand sur les pingres hostiles je pisse Les miens je rejoins Dans la bringue et je tringle Avec mes dingues dont les mots sur le cerveau sont des tringles Ma requête n'est pas des moindres, monnaie monnaie quitte à enfreindre Cette année damnée, donner l'plaisir, l'atteindre et XXX Laissez-nous rejoindre toutes celles qu'on entend se plaindre Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Pour le Secteur Ä, Ärsenik P.A.Double S.I Stomy Bugsy, Doc Gynéco Hamed Däye, Neg' Marrons Aaah! Comme King-Kong Est-ce que t'as bien saisi?</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Super Chaud sur Show Lapin FM Shooow Lapiiin !!! Ouais, ouais, ouais, ouais... Mon papa à moi... remix Mon papa à moi c'est un gan... chhh Le genre de gangster qui bouge en silence Manigance en douce dans la douce Franchté Entame son plat de riz avec les mains vésquis S'essuie la bouche avec la manche de son costume acheté à Tati Un peigne afro dans la poche gauche Dans l'autre une fausse feuille d 'embauche En guise de couverture pour les flics auche Mais il sait dire oui oui Missié, tout de suite Missié Pour qu'on l'laisse circuler puis après il continue à faire son business et Arrivé au foyer y m'dit de tailler, me lâche des billets À peine la porte fermée, j'me mets à mater Par le trou d'la serrure mais ce que j'vois jamais j'le dévoilerai Parce que j'balancerai jamais celui qui m'donne à manger Même si mon papa marche la tête baissée dehors Pour moi et pour la famille au bled il reste le plus fort Mon papa manigance mais il sait s'taire Le genre de gangster que t'enverras jamais par terre You might also like Payé en Dollars, Sterling on leur donne l'heure précise Comme les profs j'utilise des strophes pour décrire les catastrophes, Imagine Une prime, une vermine qui faut que j'extermine L'atmosphère musicale, les mines, les rimes mais ça se termine Primo mon nom Passi Deuzio Ministère Tertio un gangster en cachemire pas en polyester Une bonne Chester, champagne, Magnum dans le holster Dans mon hystérique Western, j'ai le rôle de Winchester Un hostile gangster qui vient des mystères de l'Ouest Qui vise à Rio, à Manchester et s'terre à Palerme Pour qui la terre entière n'est juste qu'une cage pour un hamster Un gangster qui rêve même de niquer le système stellaire Faire de la vendetta Une façon de communiquer Papa et relations publiques, au micro un expert Papa gangster, maman doit s'taire Pleure pas, un jour petit tu prendras la place de ton père Son rep à lui c'est un vrai Un rep qui fait reup Un putain de daron Un pacha, un caid, un baron Si tu te demandes d'où viennent nos paroles meurtrières C'est héréditaire Y'a rien à faire Mon père est un gangster Papa c'est pas un gangster c'est Zorro Il met sa fausse barbe rose Son masque, à la banque, la tune tombe des arbres Après on joue à Starsky et Hutch Parce qu'il roule aussi speed, casse plus de caisses, et met les même Nikes À l'école, pire que Tom Sawyer J'ai les meilleures notes sans l'vouloir, ni l'pouvoir, et les plus bonnes profs Jamais on m'a collé, chuis fier de mon Pops C'est l'meilleur, les juges l'appellent monsieur, Oxmo Puccino Dans les News, j'ai vu ce keuf qui m'a foutu le blues occisé Dans une flaque de sang, boxon, on aurait dit par 12 toxs Papa est revenu avec un cuir marron, le même Que ce même civil, quelle coïncidence, c'est marrant C'est pas un gangster, qui roule en Holster Je reste le chéri de sa voisine Une meuf terrible et papa il a le poster A classe du biz le papa d'Pit brise coeurs Sur les disques et on parle de lui et on dit qu'c'est un mythe Lino Pas de blagues, pas de bag is rough Levis ras les couilles Au boogie gangster Aux aguets et même pris en flag Il nie et drague les jupes mini-zig-zag Avec les stups fini toujours ses jobs du métal sous son Tacchini bob Sur le crane comme jamais la couleuvre ça fera lou'velouse ça fait une partouze une putain d'heure La savane son royaume il traine ses shoes la zep son médicament XL Quand maman fils sans maman fixe... Calbo Ce mec là n'a pas d'principe, kiffe surtout ce qui rapporte Exporte son vice, vif le soir, le matin t'approche pas de sa porte Forte poitrine, grosse paire de cojones au mont des moisis Bourrés de saisie en tout genre et cette fois ci à Roissy Il s'envole couche une liasse avant d'se vésau Ne dit même pas au'revoir à tout moment sa vie peut tésau Respect, j'irai jamais trainer tout près d'ses vestons Mais où est son caisson, dedans je sais qu'j'y trouverai du bon Mon Paps j'le connaît trop pas trop pape sans pour être honnête Trop pro pour mettre du sang sur sa gourmette Comme dit le raggae un tocou dans la poche Même pour les enterrements il emmène sûrement un pompe dans le BM Un il sur sa bague où ils sont comme en limousine L'autre sur ses cousines Pas d'religion, pas d'prêtres, pas d'rabbins Il se confesse qu'à la teillbout Père Labat Prend jamais l'un d'ses gamins par la main J'sais qu'il a tellement semé sa semence en France Que quand j't'appelle refré c'est pour d'vrai Si tu lui dois beaucoup d'sous il t'fout un coup d'coupe-coupe sous l'cou Daron fiancé au Tiercé, tu veux niquer sa maille aux dominos Y'a des filles comme au Bobino Vengeance y'a plus d'jeux plus y'a d'gens genre Et n'y'a qu'deux potes car y'a moins d'Rhum Et d'ganja plus y'a d'gens Mal Negre foncedé Faut toujours qu'on finisse par battre nos femmes et chaque fois plus pire qu'nos pères, imagine nos fils Dring, Dring, papa c'est les flics casse toi Depuis qu'chuis tout petit c'est ce que j'lui répète à chaque fois Les huissiers les impôts, le fisc au cul Il leur met dans l'cul, prend leur femme et les fait devenir cocu... leurs cornes poussent Wanted alors il se barre au bled en douce Quand il repart il a trop d'gosses et il les connaît même pas tous Toutes les femmes lui disent qu'il finira malheureux Il répond Salope, Salope j'ai mon fils au monde y'a pas mieux La seule qu'il respecte c'est ma mère mais elle se laisse pas faire Et elle lui jette un verre points d'suture à l'arcade sourcilière Et on peut rien y faire sinon lui et moi c'est la guerre Si un inspecteur jacte dans le haut-parleur Rend toi Il lui dit nique toi J'dirais pas qu'toutes les polices le recherchent En tout cas celle de Paris j'te parie qu'ils se cachent dans une brèche... cchh N'essaie pas d'reconnaître ma voix chuis enrhumé à force de l'chercher Et quand chuis bien Stomy... chhh Chaud lapin comme mon père et son père à lui</t>
+          <t>Super Chaud sur Show Lapin FM Shooow Lapiiin !!! Ouais, ouais, ouais, ouais... Mon papa à moi... remix Mon papa à moi c'est un gan... chhh Le genre de gangster qui bouge en silence Manigance en douce dans la douce Franchté Entame son plat de riz avec les mains vésquis S'essuie la bouche avec la manche de son costume acheté à Tati Un peigne afro dans la poche gauche Dans l'autre une fausse feuille d 'embauche En guise de couverture pour les flics auche Mais il sait dire oui oui Missié, tout de suite Missié Pour qu'on l'laisse circuler puis après il continue à faire son business et Arrivé au foyer y m'dit de tailler, me lâche des billets À peine la porte fermée, j'me mets à mater Par le trou d'la serrure mais ce que j'vois jamais j'le dévoilerai Parce que j'balancerai jamais celui qui m'donne à manger Même si mon papa marche la tête baissée dehors Pour moi et pour la famille au bled il reste le plus fort Mon papa manigance mais il sait s'taire Le genre de gangster que t'enverras jamais par terre Payé en Dollars, Sterling on leur donne l'heure précise Comme les profs j'utilise des strophes pour décrire les catastrophes, Imagine Une prime, une vermine qui faut que j'extermine L'atmosphère musicale, les mines, les rimes mais ça se termine Primo mon nom Passi Deuzio Ministère Tertio un gangster en cachemire pas en polyester Une bonne Chester, champagne, Magnum dans le holster Dans mon hystérique Western, j'ai le rôle de Winchester Un hostile gangster qui vient des mystères de l'Ouest Qui vise à Rio, à Manchester et s'terre à Palerme Pour qui la terre entière n'est juste qu'une cage pour un hamster Un gangster qui rêve même de niquer le système stellaire Faire de la vendetta Une façon de communiquer Papa et relations publiques, au micro un expert Papa gangster, maman doit s'taire Pleure pas, un jour petit tu prendras la place de ton père Son rep à lui c'est un vrai Un rep qui fait reup Un putain de daron Un pacha, un caid, un baron Si tu te demandes d'où viennent nos paroles meurtrières C'est héréditaire Y'a rien à faire Mon père est un gangster Papa c'est pas un gangster c'est Zorro Il met sa fausse barbe rose Son masque, à la banque, la tune tombe des arbres Après on joue à Starsky et Hutch Parce qu'il roule aussi speed, casse plus de caisses, et met les même Nikes À l'école, pire que Tom Sawyer J'ai les meilleures notes sans l'vouloir, ni l'pouvoir, et les plus bonnes profs Jamais on m'a collé, chuis fier de mon Pops C'est l'meilleur, les juges l'appellent monsieur, Oxmo Puccino Dans les News, j'ai vu ce keuf qui m'a foutu le blues occisé Dans une flaque de sang, boxon, on aurait dit par 12 toxs Papa est revenu avec un cuir marron, le même Que ce même civil, quelle coïncidence, c'est marrant C'est pas un gangster, qui roule en Holster Je reste le chéri de sa voisine Une meuf terrible et papa il a le poster A classe du biz le papa d'Pit brise coeurs Sur les disques et on parle de lui et on dit qu'c'est un mythe Lino Pas de blagues, pas de bag is rough Levis ras les couilles Au boogie gangster Aux aguets et même pris en flag Il nie et drague les jupes mini-zig-zag Avec les stups fini toujours ses jobs du métal sous son Tacchini bob Sur le crane comme jamais la couleuvre ça fera lou'velouse ça fait une partouze une putain d'heure La savane son royaume il traine ses shoes la zep son médicament XL Quand maman fils sans maman fixe... Calbo Ce mec là n'a pas d'principe, kiffe surtout ce qui rapporte Exporte son vice, vif le soir, le matin t'approche pas de sa porte Forte poitrine, grosse paire de cojones au mont des moisis Bourrés de saisie en tout genre et cette fois ci à Roissy Il s'envole couche une liasse avant d'se vésau Ne dit même pas au'revoir à tout moment sa vie peut tésau Respect, j'irai jamais trainer tout près d'ses vestons Mais où est son caisson, dedans je sais qu'j'y trouverai du bon Mon Paps j'le connaît trop pas trop pape sans pour être honnête Trop pro pour mettre du sang sur sa gourmette Comme dit le raggae un tocou dans la poche Même pour les enterrements il emmène sûrement un pompe dans le BM Un il sur sa bague où ils sont comme en limousine L'autre sur ses cousines Pas d'religion, pas d'prêtres, pas d'rabbins Il se confesse qu'à la teillbout Père Labat Prend jamais l'un d'ses gamins par la main J'sais qu'il a tellement semé sa semence en France Que quand j't'appelle refré c'est pour d'vrai Si tu lui dois beaucoup d'sous il t'fout un coup d'coupe-coupe sous l'cou Daron fiancé au Tiercé, tu veux niquer sa maille aux dominos Y'a des filles comme au Bobino Vengeance y'a plus d'jeux plus y'a d'gens genre Et n'y'a qu'deux potes car y'a moins d'Rhum Et d'ganja plus y'a d'gens Mal Negre foncedé Faut toujours qu'on finisse par battre nos femmes et chaque fois plus pire qu'nos pères, imagine nos fils Dring, Dring, papa c'est les flics casse toi Depuis qu'chuis tout petit c'est ce que j'lui répète à chaque fois Les huissiers les impôts, le fisc au cul Il leur met dans l'cul, prend leur femme et les fait devenir cocu... leurs cornes poussent Wanted alors il se barre au bled en douce Quand il repart il a trop d'gosses et il les connaît même pas tous Toutes les femmes lui disent qu'il finira malheureux Il répond Salope, Salope j'ai mon fils au monde y'a pas mieux La seule qu'il respecte c'est ma mère mais elle se laisse pas faire Et elle lui jette un verre points d'suture à l'arcade sourcilière Et on peut rien y faire sinon lui et moi c'est la guerre Si un inspecteur jacte dans le haut-parleur Rend toi Il lui dit nique toi J'dirais pas qu'toutes les polices le recherchent En tout cas celle de Paris j'te parie qu'ils se cachent dans une brèche... cchh N'essaie pas d'reconnaître ma voix chuis enrhumé à force de l'chercher Et quand chuis bien Stomy... chhh Chaud lapin comme mon père et son père à lui</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Hamed_Daye_songs.xlsx
+++ b/data/02_intermediate/cleaned_Hamed_Daye_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,233 +458,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sacrifice de poulets</t>
+          <t>Independance Daye</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>THE FÊTE. As soon as Georgette was well, Madame sent her away into the country. I was sorry I loved the child, and her loss made me poorer than before. But I must not complain. I lived in a house full of robust life I might have had companions, and I chose solitude. Each of the teachers in turn made me overtures of special intimacy I tried them all. One I found to be an honest woman, but a narrow thinker, a coarse feeler, and an egotist. The second was a Parisienne, externally refinedat heart, corruptwithout a creed, without a principle, without an affection having penetrated the outward crust of decorum in this character, you found a slough beneath. She had a wonderful passion for presents and, in this point, the third teachera person otherwise characterless and insignificantclosely resembled her. This last-named had also one other distinctive propertythat of avarice. In her reigned the love of money for its own sake. The sight of a piece of gold would bring into her eyes a green glisten, singular to witness. She once, as a mark of high favour, took me up-stairs, and, opening a secret door, showed me a hoarda mass of coarse, large coinabout fifteen guineas, in five-franc pieces. She loved this hoard as a bird loves its eggs. These were her savings. She would come and talk to me about them with an infatuated and persevering dotage, strange to behold in a person not yet twenty-five. The Parisienne, on the other hand, was prodigal and profligate in disposition, that is as to action, I do not know. That latter quality showed its snake-head to me but once, peeping out very cautiously. A curious kind of reptile it seemed, judging from the glimpse I got its novelty whetted my curiosity if it would have come out boldly, perhaps I might philosophically have stood my ground, and coolly surveyed the long thing from forked tongue to scaly tail-tip but it merely rustled in the leaves of a bad novel and, on encountering a hasty and ill-advised demonstration of wrath, recoiled and vanished, hissing. She hated me from that day. This Parisienne was always in debt her salary being anticipated, not only in dress, but in perfumes, cosmetics, confectionery, and condiments. What a cold, callous epicure she was in all things! I see her now. Thin in face and figure, sallow in complexion, regular in features, with perfect teeth, lips like a thread, a large, prominent chin, a well-opened, but frozen eye, of light at once craving and ingrate. She mortally hated work, and loved what she called pleasure being an insipid, heartless, brainless dissipation of time. Madame Beck knew this woman's character perfectly well. She once talked to me about her, with an odd mixture of discrimination, indifference, and antipathy. I asked why she kept her in the establishment. She answered plainly, because it suited her interest to do so and pointed out a fact I had already noticed, namely, that Mademoiselle St. Pierre possessed, in an almost unique degree, the power of keeping order amongst her undisciplined ranks of scholars. A certain petrifying influence accompanied and surrounded her without passion, noise, or violence, she held them in check as a breezeless frost-air might still a brawling stream. She was of little use as far as communication of knowledge went, but for strict surveillance and maintenance of rules she was invaluable. Je sais bien qu'elle n'a pas de principes, ni, peut-être, de moeurs, admitted Madame frankly but added with philosophy, son maintien en classe est toujours convenable et rempli même d'une certaine dignité c'est tout ce qu'il faut. Ni les élèves ni les parents ne regardent plus loin ni, par conséquent, moi non plus. A strange, frolicsome, noisy little world was this school great pains were taken to hide chains with flowers a subtle essence of Romanism pervaded every arrangement large sensual indulgence so to speak was permitted by way of counterpoise to jealous spiritual restraint. Each mind was being reared in slavery but, to prevent reflection from dwelling on this fact, every pretext for physical recreation was seized and made the most of. There, as elsewhere, the CHURCH strove to bring up her children robust in body, feeble in soul, fat, ruddy, hale, joyous, ignorant, unthinking, unquestioning. Eat, drink, and live! she says. Look after your bodies leave your souls to me. I hold their cureguide their course I guarantee their final fate. A bargain, in which every true Catholic deems himself a gainer. Lucifer just offers the same terms All this power will I give thee, and the glory of it for that is delivered unto me, and to whomsoever I will I give it. If thou, therefore, wilt worship me, all shall be thine! About this timein the ripest glow of summerMadame Beck's house became as merry a place as a school could well be. All day long the broad folding-doors and the two-leaved casements stood wide open settled sunshine seemed naturalized in the atmosphere clouds were far off, sailing away beyond sea, resting, no doubt, round islands such as Englandthat dear land of mistsbut withdrawn wholly from the drier continent. We lived far more in the garden than under a roof classes were held, and meals partaken of, in the grand berceau. Moreover, there was a note of holiday preparation, which almost turned freedom into licence. The autumnal long vacation was but two months distant but before that, a great dayan important ceremonynone other than the fête of Madameawaited celebration. The conduct of this fête devolved chiefly on Mademoiselle St. Pierre Madame herself being supposed to stand aloof, disinterestedly unconscious of what might be going forward in her honour. Especially, she never knew, never in the least suspected, that a subscription was annually levied on the whole school for the purchase of a handsome present. The polite tact of the reader will please to leave out of the account a brief, secret consultation on this point in Madame's own chamber. What will you have this year? was asked by her Parisian lieutenant. Oh, no matter! Let it alone. Let the poor children keep their francs, And Madame looked benign and modest. The St. Pierre would here protrude her chin she knew Madame by heart she always called her airs of bontédes grimaces. She never even professed to respect them one instant. Vite! she would say coldly. Name the article. Shall it be jewellery or porcelain, haberdashery or silver? Eh bien! Deux ou trois cuillers, et autant de fourchettes en argent. And the result was a handsome case, containing 300 francs worth of plate. The programme of the fête-day's proceedings comprised Presentation of plate, collation in the garden, dramatic performance with pupils and teachers for actors, a dance and supper. Very gorgeous seemed the effect of the whole to me, as I well remember. Zélie St. Pierre understood these things and managed them ably. The play was the main point a month's previous drilling being there required. The choice, too, of the actors required knowledge and care then came lessons in elocution, in attitude, and then the fatigue of countless rehearsals. For all this, as may well be supposed, St. Pierre did not suffice other management, other accomplishments than hers were requisite here. They were supplied in the person of a masterM. Paul Emanuel, professor of literature. It was never my lot to be present at the histrionic lessons of M. Paul, but I often saw him as he crossed the carré a square hall between the dwelling-house and school-house. I heard him, too, in the warm evenings, lecturing with open doors, and his name, with anecdotes of him, resounded in ones ears from all sides. Especially our former acquaintance, Miss Ginevra Fanshawe,who had been selected to take a prominent part in the playused, in bestowing upon me a large portion of her leisure, to lard her discourse with frequent allusions to his sayings and doings. She esteemed him hideously plain, and used to profess herself frightened almost into hysterics at the sound of his step or voice. A dark little man he certainly was pungent and austere. Even to me he seemed a harsh apparition, with his close-shorn, black head, his broad, sallow brow, his thin cheek, his wide and quivering nostril, his thorough glance, and hurried bearing. Irritable he was one heard that, as he apostrophized with vehemence the awkward squad under his orders. Sometimes he would break out on these raw amateur actresses with a passion of impatience at their falseness of conception, their coldness of emotion, their feebleness of delivery. Ecoutez! he would cry and then his voice rang through the premises like a trumpet and when, mimicking it, came the small pipe of a Ginevra, a Mathilde, or a Blanche, one understood why a hollow groan of scorn, or a fierce hiss of rage, rewarded the tame echo. Vous n'êtes donc que des poupées, I heard him thunder. Vous n'avez pas de passionsvous autres. Vous ne sentez donc rien? Votre chair est de neige, votre sang de glace! Moi, je veux que tout cela s'allume, qu'il ait une vie, une âme! Vain resolve! And when he at last found it was vain, he suddenly broke the whole business down. Hitherto he had been teaching them a grand tragedy he tore the tragedy in morsels, and came next day with a compact little comic trifle. To this they took more kindly he presently knocked it all into their smooth round pates. Mademoiselle St. Pierre always presided at M. Emanuel's lessons, and I was told that the polish of her manner, her seeming attention, her tact and grace, impressed that gentleman very favourably. She had, indeed, the art of pleasing, for a given time, whom she would but the feeling would not last in an hour it was dried like dew, vanished like gossamer. The day preceding Madame's fête was as much a holiday as the fête itself. It was devoted to clearing out, cleaning, arranging and decorating the three schoolrooms. All within-doors was the gayest bustle neither up-stairs nor down could a quiet, isolated person find rest for the sole of her foot accordingly, for my part, I took refuge in the garden. The whole day did I wander or sit there alone, finding warmth in the sun, shelter among the trees, and a sort of companionship in my own thoughts. I well remember that I exchanged but two sentences that day with any living being not that I felt solitary I was glad to be quiet. For a looker-on, it sufficed to pass through the rooms once or twice, observe what changes were being wrought, how a green-room and a dressing-room were being contrived, a little stage with scenery erected, how M. Paul Emanuel, in conjunction with Mademoiselle St. Pierre, was directing all, and how an eager band of pupils, amongst them Ginevra Fanshawe, were working gaily under his control. The great day arrived. The sun rose hot and unclouded, and hot and unclouded it burned on till evening. All the doors and all the windows were set open, which gave a pleasant sense of summer freedomand freedom the most complete seemed indeed the order of the day. Teachers and pupils descended to breakfast in dressing-gowns and curl-papers anticipating avec délices the toilette of the evening, they seemed to take a pleasure in indulging that forenoon in a luxury of slovenliness like aldermen fasting in preparation for a feast. About nine o'clock A.M., an important functionary, the coiffeur, arrived. Sacrilegious to state, he fixed his head-quarters in the oratory, and there, in presence of bénitier, candle, and crucifix, solemnised the mysteries of his art. Each girl was summoned in turn to pass through his hands emerging from them with head as smooth as a shell, intersected by faultless white lines, and wreathed about with Grecian plaits that shone as if lacquered. I took my turn with the rest, and could hardly believe what the glass said when I applied to it for information afterwards the lavished garlandry of woven brown hair amazed meI feared it was not all my own, and it required several convincing pulls to give assurance to the contrary. I then acknowledged in the coiffeur a first-rate artistone who certainly made the most of indifferent materials. The oratory closed, the dormitory became the scene of ablutions, arrayings and bedizenings curiously elaborate. To me it was, and ever must be an enigma, how they contrived to spend so much time in doing so little. The operation seemed close, intricate, prolonged the result simple. A clear white muslin dress, a blue sash the Virgin's colours, a pair of white, or straw-colour kid glovessuch was the gala uniform, to the assumption whereof that houseful of teachers and pupils devoted three mortal hours. But though simple, it must be allowed the array was perfectperfect in fashion, fit, and freshness every head being also dressed with exquisite nicety, and a certain compact tastesuiting the full, firm comeliness of Labassecourien contours, though too stiff for any more flowing and flexible style of beautythe general effect was, on the whole, commendable. In beholding this diaphanous and snowy mass, I well remember feeling myself to be a mere shadowy spot on a field of light the courage was not in me to put on a transparent white dress something thin I must wearthe weather and rooms being too hot to give substantial fabrics sufferance, so I had sought through a dozen shops till I lit upon a crape-like material of purple-graythe colour, in short, of dun mist, lying on a moor in bloom. My tailleuse had kindly made it as well as she could because, as she judiciously observed, it was si tristesi pen voyant, care in the fashion was the more imperative it was well she took this view of the matter, for I, had no flower, no jewel to relieve it and, what was more, I had no natural rose of complexion. We become oblivious of these deficiencies in the uniform routine of daily drudgery, but they will force upon us their unwelcome blank on those bright occasions when beauty should shine. However, in this same gown of shadow, I felt at home and at ease an advantage I should not have enjoyed in anything more brilliant or striking. Madame Beck, too, kept me in countenance her dress was almost as quiet as mine, except that she wore a bracelet, and a large brooch bright with gold and fine stones. We chanced to meet on the stairs, and she gave me a nod and smile of approbation. Not that she thought I was looking wella point unlikely to engage her interestbut she considered me dressed convenablement, décemment, and la Convenance et la Décence were the two calm deities of Madame's worship. She even paused, laid on my shoulder her gloved hand, holding an embroidered and perfumed handkerchief, and confided to my ear a sarcasm on the other teachers whom she had just been complimenting to their faces. Nothing so absurd, she said, as for des femmes mûres 'to dress themselves like girls of fifteen'quant à la. St. Pierre, elle a l'air d'une vieille coquette qui fait l'ingénue. Being dressed at least a couple of hours before anybody else, I felt a pleasure in betaking myselfnot to the garden, where servants were busy propping up long tables, placing seats, and spreading cloths in readiness for the collation but to the schoolrooms, now empty, quiet, cool, and clean their walls fresh stained, their planked floors fresh scoured and scarce dry flowers fresh gathered adorning the recesses in pots, and draperies, fresh hung, beautifying the great windows. Withdrawing to the first classe, a smaller and neater room than the others, and taking from the glazed bookcase, of which I kept the key, a volume whose title promised some interest, I sat down to read. The glass-door of this classe, or schoolroom, opened into the large berceau acacia-boughs caressed its panes, as they stretched across to meet a rose-bush blooming by the opposite lintel in this rose-bush bees murmured busy and happy. I commenced reading. Just as the stilly hum, the embowering shade, the warm, lonely calm of my retreat were beginning to steal meaning from the page, vision from my eyes, and to lure me along the track of reverie, down into some deep dell of dreamlandjust then, the sharpest ring of the street-door bell to which that much-tried instrument had ever thrilled, snatched me back to consciousness. Now the bell had been ringing all the morning, as workmen, or servants, or coiffeurs, or tailleuses, went and came on their several errands. Moreover, there was good reason to expect it would ring all the afternoon, since about one hundred externes were yet to arrive in carriages or fiacres nor could it be expected to rest during the evening, when parents and friends would gather thronging to the play. Under these circumstances, a ringeven a sharp ringwas a matter of course yet this particular peal had an accent of its own, which chased my dream, and startled my book from my knee. I was stooping to pick up this last, whenfirm, fast, straightright on through vestibulealong corridor, across carré, through first division, second division, grand sallestrode a step, quick, regular, intent. The closed door of the first classemy sanctuaryoffered no obstacle it burst open, and a paletôt and a bonnet grec filled the void also two eyes first vaguely struck upon, and then hungrily dived into me. C'est cela! said a voice. Je la connais c'est l'Anglaise. Tant pis. Toute Anglaise, et, par conséquent, toute bégueule qu'elle soitelle fera mon affaire, ou je saurai pourquoi. Then, with a certain stern politeness I suppose he thought I had not caught the drift of his previous uncivil mutterings, and in a jargon the most execrable that ever was heard, Meess, play you must I am planted there. What can I do for you, M. Paul Emanuel? I inquired for M. Paul Emanuel it was, and in a state of no little excitement. Play you must. I will not have you shrink, or frown, or make the prude. I read your skull that night you came I see your moyens play you can play you must. But how, M. Paul? What do you mean? There is no time to be lost, he went on, now speaking in French and let us thrust to the wall all reluctance, all excuses, all minauderies. You must take a part. In the vaudeville? In the vaudeville. You have said it. I gasped, horror-struck. What did the little man mean? Listen! he said. The case shall be stated, and you shall then answer me Yes, or No and according to your answer shall I ever after estimate you. The scarce-suppressed impetus of a most irritable nature glowed in his cheek, fed with sharp shafts his glances, a naturethe injudicious, the mawkish, the hesitating, the sullen, the affected, above all, the unyielding, might quickly render violent and implacable. Silence and attention was the best balm to apply I listened. The whole matter is going to fail, he began. Louise Vanderkelkov has fallen illat least so her ridiculous mother asserts for my part, I feel sure she might play if she would it is only good-will that lacks. She was charged with a rôle, as you know, or do not knowit is equal without that rôle the play is stopped. There are now but a few hours in which to learn it not a girl in this school would hear reason, and accept the task. Forsooth, it is not an interesting, not an amiable, part their vile amour-proprethat base quality of which women have so muchwould revolt from it. Englishwomen are either the best or the worst of their sex. Dieu sait que je les déteste comme la peste, ordinairement this between his recreant teeth. I apply to an Englishwoman to rescue me. What is her answerYes, or No? A thousand objections rushed into my mind. The foreign language, the limited time, the public display Inclination recoiled, Ability faltered, Self-respect that vile quality trembled. Non, non, non! said all these but looking up at M. Paul, and seeing in his vexed, fiery, and searching eye, a sort of appeal behind all its menace, my lips dropped the word oui. For a moment his rigid countenance relaxed with a quiver of content quickly bent up again, however, he went on, Vite à l'ouvrage! Here is the book here is your rôle read. And I read. He did not commend at some passages he scowled and stamped. He gave me a lesson I diligently imitated. It was a disagreeable parta man'san empty-headed fop's. One could put into it neither heart nor soul I hated it. The playa mere trifleran chiefly on the efforts of a brace of rivals to gain the hand of a fair coquette. One lover was called the Ours, a good and gallant but unpolished man, a sort of diamond in the rough the other was a butterfly, a talker, and a traitor and I was to be the butterfly, talker, and traitor. I did my bestwhich was bad, I know it provoked M. Paul he fumed. Putting bothhands to the work, I endeavoured to do better than my best I presume he gave me credit for good intentions he professed to be partially content. Ca ira! he cried and as voices began sounding from the garden, and white dresses fluttering among the trees, he added You must withdraw you must be alone to learn this. Come with me. Without being allowed time or power to deliberate, I found myself in the same breath convoyed along as in a species of whirlwind, up-stairs, up two pair of stairs, nay, actually up three for this fiery little man seemed as by instinct to know his way everywhere to the solitary and lofty attic was I borne, put in and locked in, the key being, in the door, and that key he took with him and vanished. The attic was no pleasant place I believe he did not know how unpleasant it was, or he never would have locked me in with so little ceremony. In this summer weather, it was hot as Africa as in winter, it was always cold as Greenland. Boxes and lumber filled it old dresses draped its unstained wallcobwebs its unswept ceiling. Well was it known to be tenanted by rats, by black beetles, and by cockroachesnay, rumour affirmed that the ghostly Nun of the garden had once been seen here. A partial darkness obscured one end, across which, as for deeper mystery, an old russet curtain was drawn, by way of screen to a sombre band of winter cloaks, pendent each from its pin, like a malefactor from his gibbet. From amongst these cloaks, and behind that curtain, the Nun was said to issue. I did not believe this, nor was I troubled by apprehension thereof but I saw a very dark and large rat, with a long tail, come gliding out from that squalid alcove and, moreover, my eye fell on many a black-beetle, dotting the floor. These objects discomposed me more, perhaps, than it would be wise to say, as also did the dust, lumber, and stifling heat of the place. The last inconvenience would soon have become intolerable, had I not found means to open and prop up the skylight, thus admitting some freshness. Underneath this aperture I pushed a large empty chest, and having mounted upon it a smaller box, and wiped from both the dust, I gathered my dress my best, the reader must remember, and therefore a legitimate object of care fastidiously around me, ascended this species of extempore throne, and being seated, commenced the acquisition of my task while I learned, not forgetting to keep a sharp look-out on the black-beetles and cockroaches, of which, more even, I believe, than of the rats, I sat in mortal dread. My impression at first was that I had undertaken what it really was impossible to perform, and I simply resolved to do my best and be resigned to fail. I soon found, however, that one part in so short a piece was not more than memory could master at a few hours' notice. I learned and learned on, first in a whisper, and then aloud. Perfectly secure from human audience, I acted my part before the garret-vermin. Entering into its emptiness, frivolity, and falsehood, with a spirit inspired by scorn and impatience, I took my revenge on this fat, by making him as fatuitous as I possibly could. In this exercise the afternoon passed day began to glide into evening and I, who had eaten nothing since breakfast, grew excessively hungry. Now I thought of the collation, which doubtless they were just then devouring in the garden far below. I had seen in the vestibule a basketful of small pâtés à la crême, than which nothing in the whole range of cookery seemed to me better. A pâté, or a square of cake, it seemed to me would come very àpropos and as my relish for those dainties increased, it began to appear somewhat hard that I should pass my holiday, fasting and in prison. Remote as was the attic from the street-door and vestibule, yet the ever-tinkling bell was faintly audible here and also the ceaseless roll of wheels, on the tormented pavement. I knew that the house and garden were thronged, and that all was gay and glad below here it began to grow dusk the beetles were fading from my sight I trembled lest they should steal on me a march, mount my throne unseen, and, unsuspected, invade my skirts. Impatient and apprehensive, I recommenced the rehearsal of my part merely to kill time. Just as I was concluding, the long-delayed rattle of the key in the lock came to my earno unwelcome sound. M. Paul I could just see through the dusk that it was M. Paul, for light enough still lingered to show the velvet blackness of his close-shorn head, and the sallow ivory of his brow looked in. Brava! cried he, holding the door open and remaining at the threshold. J'ai tout entendu. C'est assez bien. Encore! A moment I hesitated. Encore! said he sternly. Et point de grimaces! A bas la timidité! Again I went through the part, but not half so well as I had spoken it alone. Enfin, elle sait, said he, half dissatisfied, and one cannot be fastidious or exacting under the circumstances. Then he added, You may yet have twenty minutes for preparation au revoir! And he was going. Monsieur, I called out, taking courage. Eh bien! Qu'est-ce que c'est, Mademoiselle? J'ai bien faim. Comment, vous avez faim! Et la collation? I know nothing about it. I have not seen it, shut up here. Ah! C'est vrai, cried he. In a moment my throne was abdicated, the attic evacuated an inverse repetition of the impetus which had brought me up into the attic, instantly took me downdowndown to the very kitchen. I thought I should have gone to the cellar. The cook was imperatively ordered to produce food, and I, as imperatively, was commanded to eat. To my great joy this food was limited to coffee and cake I had feared wine and sweets, which I did not like. How he guessed that I should like a petit pâté à la crême I cannot tell but he went out and procured me one from some quarter. With considerable willingness I ate and drank, keeping the petit pâté till the last, as a bonne bouche. M. Paul superintended my repast, and almost forced upon me more than I could swallow. A la bonne heure, he cried, when I signified that I really could take no more, and, with uplifted hands, implored to be spared the additional roll on which he had just spread butter. You will set me down as a species of tyrant and Bluebeard, starving women in a garret whereas, after all, I am no such thing. Now, Mademoiselle, do you feel courage and strength to appear? I said, I thought I did though, in truth, I was perfectly confused, and could hardly tell how I felt but this little man was of the order of beings who must not be opposed, unless you possessed an all-dominant force sufficient to crush him at once. Come then, said he, offering his hand. I gave him mine, and he set off with a rapid walk, which obliged me to run at his side in order to keep pace. In the carré he stopped a moment it was lit with large lamps the wide doors of the classes were open, and so were the equally wide garden-doors orange-trees in tubs, and tall flowers in pots, ornamented these portals on each side groups of ladies and gentlemen in evening-dress stood and walked amongst the flowers. Within, the long vista of the school-rooms presented a thronging, undulating, murmuring, waving, streaming multitude, all rose, and blue, and half translucent white. There were lustres burning overhead far off there was a stage, a solemn green curtain, a row of footlights. Nest-ce pas que c'est beau? demanded my companion. I should have said it was, but my heart got up into my throat. M. Paul discovered this, and gave me a side-scowl and a little shake for my pains. I will do my best, but I wish it was over, said I then I asked Are we to walk through that crowd? By no means I manage matters better we pass through the gardenhere. In an instant we were out of doors the cool, calm night revived me somewhat. It was moonless, but the reflex from the many glowing windows lit the court brightly, and even the alleysdimly. Heaven was cloudless, and grand with the quiver of its living fires. How soft are the nights of the Continent! How bland, balmy, safe! No sea-fog no chilling damp mistless as noon, and fresh as morning. Having crossed court and garden, we reached the glass door of the first classe. It stood open, like all other doors that night we passed, and then I was ushered into a small cabinet, dividing the first classe from the grand salle. This cabinet dazzled me, it was so full of light it deafened me, it was clamorous with voices it stifled me, it was so hot, choking, thronged. De l'ordre! Du silence! cried M. Paul. Is this chaos?, he demanded and there was a hush. With a dozen words, and as many gestures, he turned out half the persons present, and obliged the remnant to fall into rank. Those left were all in costume they were the performers, and this was the green-room. M. Paul introduced me. All stared and some tittered. It was a surprise they had not expected the Englishwoman would play in a vaudeville. Ginevra Fanshawe, beautifully dressed for her part, and looking fascinatingly pretty, turned on me a pair of eyes as round as beads. In the highest spirit, unperturbed by fear or bashfulness, delighted indeed at the thought of shining off before hundredsmy entrance seemed to transfix her with amazement in the midst of her joy. She would have exclaimed, but M. Paul held her and all the rest in check. Having surveyed and criticized the whole troop, he turned to me. You, too, must be dressed for your part. Dresseddressed like a man! exclaimed Zélie St. Pierre, darting forwards adding with officiousness, I will dress her myself. To be dressed like a man did not please, and would not suit me. I had consented to take a man's name and part as to his dresshalte là! No. I would keep my own dress, come what might. M. Paul might storm, might rage I would keep my own dress. I said so, with a voice as resolute in intent, as it was low, and perhaps unsteady in utterance. He did not immediately storm or rage, as I fully thought he would he stood silent. But Zélie again interposed. She will make a capital petit-mâitre. Here are the garments, allall complete somewhat too large, butI will arrange all that. Come, chère amiebelle Anglaise! And she sneered, for I was not belle. She seized my hand, she was drawing me away. M. Paul stood impassableneutral. You must not resist, pursued St. Pierrefor resist I did. You will spoil all, destroy the mirth of the piece, the enjoyment of the company, sacrifice everything to your amour-propre. This would be too badmonsieur will never permit this? She sought his eye. I watched, likewise, for a glance. He gave her one, and then he gave me one. Stop! he said slowly, arresting St. Pierre, who continued her efforts to drag me after her. Everybody awaited the decision. He was not angry, not irritated I perceived that, and took heart. You do not like these clothes? he asked, pointing to the masculine vestments. I don't object to some of them, but I won't have them all. How must it be, then? How accept a man's part, and go on the stage dressed as a woman? This is an amateur affair, it is truea vaudeville de pensionnat certain modifications I might sanction, yet something you must have to announce you as of the nobler sex. And I will, Monsieur but it must be arranged in my own way nobody must meddle the things must not be forced upon me. Just let me dress myself. Monsieur, without another word, took the costume from St. Pierre, gave it to me, and permitted me to pass into the dressing-room. Once alone, I grew calm, and collectedly went to work. Retaining my woman's garb without the slightest retrenchment, I merely assumed, in addition, a little vest, a collar, and cravat, and a paletôt of small dimensions the whole being the costume of a brother of one of the pupils. Having loosened my hair out of its braids, made up the long back-hair close, and brushed the front hair to one side, I took my hat and gloves in my hand and came out. M. Paul was waiting, and so were the others. He looked at me. That may pass in a pensionnat, he pronounced. Then added, not unkindly, Courage, mon ami! Un peu de sangfroidun peu d'aplomb, M. Lucien, et tout ira bi</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Le code noir</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Vivre, mourir, pas eu le temps de réfléchir. Pour ma pomme et ceux qui sont tombés dans mon panier, cest survivre le projet. Survivre ici, dans les caves aménagées de leurs palais. Dans ces camps dextermination dnotre dignité. Sans histoire, sans avenir, fermer ta bouche, accepter ! Ouais Croire en cquon tdit, obtempérer ! Cest ça, obtempère ! Obtempère au nom du Père ! Au nom du fils, au nom de leur satané Saint-Esprit ! Tu dois obtempérer Et avoir foi. Avoir foi et croire en Dieu. Prier et rester tranquille en testimant heureux Heureux dêtre simplement en vie ! Voilà les règles du jeu ! Les règles du jeu Elles sont conciliées dans un manuel Le manuel du Roi Soleil. Celui quon appelait Dieudonné. Si cétait son blaze Cest à la Cour de Versailles que les règles sont nées. Et pour le Code Noir, jveux tous vous voir au ciné ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Pour quon nous parle du colon comme on nous a parlé du SS Les millions dcoups de fouet, du champ de coton à la tess Ca passe aux ma-né-ci, cest loin dêtre un film Ma race ils veulent la fumer, pourtant jai pas la gueule dune garette-ci De larmes et de sang, mon arme est le chant Si tu me coupes la langue, mon ga-ga-gang te braque sur le champ ! Issu dun peuple que personne ne comprend Lassé de voir les négros en éternel second plan Cest une première quyait un film sur la traite négrière Ton passé débarque, reste pas acculé sur cette putain de pierre Lhistoire de tes ancêtres et cquils disaient dtes maîtres Cque la France nous a caché, on tle donne sur grand écran 400 ans condensés en une heure trente, cest peu Aujourd'hui on peut plus spermettre dfermer les yeux Jai retrouvé la Porte du non-Retour seul Sil manque un black il manquera toujours une pièce dans lpuzzle Enfin un film qui retrace notre histoire On va enfin connaître la vérité, cquil advenait de tous les Noirs Et quon se ldise, cest mon, cest ton, cest notre histoire Nos enfants enfin sauront pourquoi fort est le Peuple Noir Vendus comme de la marchandise, traités comme du bétail Cest pas trop tôt quon nous le dise, we have to tell them so Le genre humain et sa bêtise, le Roi Soleil et Sarkozy Même bitin même bagaille, à foutre dans lmême bateau Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Jai une fleur de Lys tatouée dans lcrâne Envie ddynamiter Versailles et Le Louvre, appelle-moi terroriste black Walaye j'veux voir Abdoulaye chier dans lchâteau dVersailles Ces pédés dpoudrés en perruque nous ont pris trop dmaille Trop dapartheid, cinématographique Cette France me fout la gale, cest catastrophique Jai pendu mon prof dhistoire, jlai caché dans la cave Comme la France cache son passé, et tous ses esclaves Avec nos strophes on rééduque parce que les profs sont des trous du uc Ceux qui ont craché sur ldos dDieu veulent crucifier Dieudo Le Roi Soleil nous a mis à lombre Nous les fils de Cham à la peau sombre Jvais aller aux Champs Elysées, et voir le Code Noir Chérie faut pas baliser si jte mets un Code Noir Fais tourner lpop-corn pour le film qui tient ldiable par les cornes Mon Ministère A.M.E.R. crève la France du Porc Combien savent, bravent, les manigances gouvernementales ? Sujet tabou au niveau mondial le babtou Politiquement correct élimine qui pointe du doigt ces rackets dans lhistoire De Louis le Monarque à Sarkozy La femme noire sexy, lhomme noir jamais assez clean 2005 on vote des lois qui positivent les colonies Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! Noir est le Code Quand sur mon histoire on pisse, Bors pose sur la prod J'suis complice si jla boucle, mets lson dans lIpod Mec, jai pas dputain dbandeau sur la bouche Pour une exode vers le vrai, pousse le volume sur ma vie Je vois graver dans les bouquins de ma ville Holocauste Noir quand rien névolue, leurs lois sdribblent Ils disent quDieu la voulu, paraît qucest dans la Bible Jsuis français originaire dAfrique du Nord Donc Africain en quête de son histoire pour jamais perdre le nord Le poids dla discrimination étant frisé on lressent Et on cherche le sens des vies quils ont embrasées à lessence Jveux connaître cqui pousse l'homme à être Cruel envers son hôte sachant qula race humaine ne forme quun seul être Une seule couleur dans les veines, rouge pour tous Le sang qui a coulé, remonté pour faire le Code Noir Tant dtemps quils nous la mettent, aujourd'hui Cest à nous de restaurer lhistoire, bourrés despoir Le Code Noir, cest la réponse du fouet trop loin du colon un soir Pris lpouvoir, on vient remettre au 7e Art à la page La page, honorer nos ancêtres, dénoncer la traite Aggraver la suite quils croient écrire pour nous après avoir brûlé nos bibliothèques Mec respecte lhommage, apprécie limage Puis fais passer le message ! Ma seule arme cest lsavoir, jveux voir le Code Noir ! Jveux connaître mon histoire, jveux voir le Code Noir ! Tous les lascars dmon tier-quar, veulent voir le Code Noir ! Arrête dme cacher lhistoire, jveux voir le Code Noir ! Jai le pousse pousse pousse, pour le Code Noir ! Bougez-tous tous tous, pour le Code Noir ! Réveille-toi, sois pas en retard, va voir le Code Noir ! Je sais où jmets mon gent-ar, pour le Code Noir ! De Louis XIV à Sarkozy quest-ce qui a changé ? Les chaînes aux pieds se sont simplement déplacées. Lautre feu du visage pâle nous a anesthésiés complètement. Il nous a fait danser. Allez vas-y négro ! Continue à taper sur des bambous, tfaçon tu sras jamais numéro 1 ! Continue à voter pour ton maître, continue à réciter que tes ancêtres étaient Gaulois ! Hein, pourquoi pas Vikings ?! Hahaha Beh si ! Allez, vas-y lâche toi tu peux même tengager dans larmée ! Hein négro ! Et partir bombarder la Côte dIvoire ou lTogo ! Par contre viens pas pleurer hein Quand ton gamin sra au chômage, ou trouvera pas de logement Ah non ! Faudra pas miauler. Faudra pas tplaindre de la bavure dun policier sur ton enfant ! Bah tu devras fermer ta gueule ! Voilà ! Et dire merci même ! Et ptet même baisser ton froque ! Ouais Sil ten reste un ! Pov collabo va ! Jte plains mec parce que Je sais quils te finiront comme un chien Noublie pas quils ont écrit un code Un code Son nom LE CODE NOIR ! Paroles rédigées et expliquées par la communauté RapGenius France2</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Le maton me guette</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Sandhyas! Sandhyas! Sandhyas! Calling all downs. Calling all downs to dayne. Array! Surrection! Eireweeker to the wohld bludyn world. O rally, O rally, O rally! Phlenxty, O rally! To what lifelike thyne of the bird can be. Seek you somany matters. Haze sea east to Osseania. Here! Here! Tass, Patt, Staff, Woff, Havv, Bluvv and Rutter. The smog is lofting. And already the oldumans olduman has godden up on othertimes to litanate the bonnamours. Sonne feine, somme feehn avaunt! Guld modning, have yous viewsed Piers aube? Thane yaars agon we have used yoors up since when we have fused now orther. Calling all daynes. Calling all daynes to dawn. The old breeding bradsted culminwillth of natures to Foyn MacHooligan. The leader, the leader! Securest jubilends albas Te moram. Clogan slogan. Quake up, dim dusky, wook doom for husky! And let Billey Feghin be baallad out of his humuluation. Confindention to churchen. We have highest gratifications in announcing to pewtewr publikumst of pratician pratyusers, gen-ghis is ghoon for you. A hand from the cloud emerges, holding a chart expanded. The eversower of the seeds of light to the cowld owld sowls that are in the domnatory of Defmut after the night of the carrying of the word of Nuahs and the night of making Mehs to cuddle up in a coddlepot, Pu Nuseht, lord of risings in the yonderworld of Ntamplin, tohp triumphant, speaketh. Vah! Suvarn Sur! Scatter brand to the reneweller of the sky, thou who agnitest! Dah! Arcthuris comeing! Be! Verb umprin-cipiant through the trancitive spaces! Kilt by kelt shell kithagain with kinagain. We elect for thee, Tirtangel. Svadesia salve! We Durbalanars, theeadjure. A way, the Margan, from our astamite, through dimdom done till light kindling light has led we hopas but hunt me the journeyon, iteritinerant, the kal his course, amid the semitary of Somnionia. Even unto Heliotropolis, the castellated, the enchanting. Now if soomone felched a twoel and soomonelses warmet watter we could, while you was saying Morkret Miry or Smud, Brunt and Rubbinsen, make sunlike sylp om this warful dunes battam. Yet clarify begins at. Whither the spot for? Whence the hour by? See but! Lever hulme! Take in. Respassers should be pursaccoutred. Qui stabat Meins quan-tum qui stabat Peins. As of yours. We annew. Our shades of minglings mengle them and help help horizons. A flasch and, rasch, it shall come to pasch, as hearth by hearth leaps live. For the tanderest stock with the rosinost top Ahlen Hills, clubpub-ber, in general stores and. Atriathroughwards, Lugh the Brathwacker will be the listened after and he larruping sparks out of his teiney ones. The spearspid of dawnfire totouches ain the tablestoane ath the centre of the great circle of the macroliths of Helusbelus in the boshiman brush on this our peneplain by Fan-galuvu Bight whence the horned cairns erge, stanserstanded, to floran frohn, idols of isthmians. Overwhere. Gaunt grey ghostly gossips growing grubber in the glow. Past now pulls. Cur one beast, even Dane the Great, may treadspath with sniffer he snout impursuant to byelegs. Edars chuckal humuristic. But why pit the cur afore the noxe? Let shrill their duan Gallus, han, and she, hou the Sassqueehenna, makes ducks-runs at crooked. Once for the chantermale, twoce for the pother and once twoce threece for the waither. So an inedible yellow-meat turns out the invasable blackth. Kwhat serves to rob with Alliman, saelior, a turnkeyed trot to Seapoint, pierrotettes, means Noels Bar and Julepunsch, by Joge, if youve tippertaps in your head or starting kursses, tailour, youre silenced at Henge Ceol- leges, Exmooth, Ostbys for ost, boys, each and one? Death banes and the quick quoke. But life wends and the dombs spake! Whake? Hill of Hafid, knock and knock, nachasach, gives relief to the langscape as he strauches his lamusong untoupon gazelle channel and the bride of the Bryne, shin high shake, is dotter than evar for a damse wed her farther. Lambel on the up! We may plesently heal Geoglyphys twentynine ways to say good-bett an wassing seoosoon liv. With the forty wonks winking please me your much as to. With her tup. Its a long long ray to Newirglands premier. For korps, for streamfish, for confects, for bullyoungs, for smearsassage, for patates, for steaked pig, for men, for limericks, for waterfowls, for wagsfools, for louts, for cold airs, for late trams, for curries, for curlews, for leekses, for orphalines, for tunnygulls, for clear goldways, for lungfortes, for moonyhaunts, for fairmoneys, for coffins, for tantrums, for armaurs, for waglugs, for rogues comings, for sly goings, for larksmathes, for homdsmeethes, for quailsmeathes, kilalooly. Tep! Come lead, crom lech! Top. Wisely for us Old Bruton has withdrawn his theory. You are alpsulumply wroght! Amsu-lummmm. But this is perporteroguing youpoorapps? Naman tanai. Sure its not revieng your? Amslu! Good all so. We seem to understand apad vellumtomes muniment, Arans Duhkha, among hoseshoes, cheriotiers and etceterogenious bargainbout-barrows, ofver and umnder, since, evenif or although, in double preposition as in triple conjunction, how the mudden research in the topaia that was Mankaylands has gone to prove from the picalava present in the maramara melma that while a successive generation has been in the deep deep deeps of Deepereras. Buried hearts. Rest here. Conk a dook hell doo. Svap. So let him slap, the sap! Till they take down his shatter from his shap. He canease. Fill stap. Thus faraclacks the friarbird. Listening, Syd! The child, a natural child, thenown by the mnames of, aya! aya!, wouldbewas kidnapped at an age of recent probably, possibly remoter or he conjured himself from seight by slide at hand for which thetheatron is a lemoronage at milch-goat fairmesse in full dogdhis sod on a fall pat the hundering blundering dunderfunder of plundersundered manhood behold, he returns renascenent fincarnate still foretold around the hearth-side at matin a fact hailed chimers ersekind foe purmanant, fum in his mow awike in wave risurging into chrest victis poenis hesternis fostfath of solas fram choicest of wiles with warmen and sogns til Banba, burial aranging under articles thirtynine of the reconstitution by the lords order of the canon consecrand-able earthlost that we thought him pesternost, the noneknown worrier from Tumbarumba mountain in persence of whole landslots forebe all the rassias sire of leery subs of dub the Dig-gins, Woodenhenge, as to hang out at with spawnish oel full his angalach the sousenugh gnomeosulphidosalamermauderman the big brucer, fert in fort Gunnar, of The Gunnings, Gund one of the two or three forefivest fellows a bloke could in holiday crowd encounter benedicted be the barrel kilderkins, lids off a roache, an oxmaster, a sort of heaps, a pamphilius, a vintivat niviceny, a hygiennic contrivance socalled from the editor the thick of your thigh you knox quite talking to the vicars joy and ruth the gren, woid and glue been broking by the maybole gards he when no crane in Elga is heard upout to speak this lay without links, without impediments, with gygantogyres, with freeflawformsparasama to himself atman as evars whom otherwise becauses no puler as of old but as of young a palatin whitelock not lacked nor temperasoleon though he appears a funny colourstoatters some but a quite a big bug after the dahlias place inspectorum sarchent also the hullow chyst ex-cavement astronomically fabulafigured as Jambudvispa Vipra foresaw of him the last half versicle repurchasing his pawned word sorensplit and paddypatched and pfor to pfinish our pfun of a pfan coalding the keddle mickwhite sure, straight, slim, sturdy, serene, synthetical, swift. By the antar of Yasas! Ruse made him worthily achieve inherited wish. The drops upon that mantle rained never around Fingal. Goute! Loughlins Salts, Will, make a newman if any- worn. Soe? La! Lamfadars arm it has cocoincidences. You mean to see we have been hadding a sound nights sleep? You may so. It is just, it is just about to, it is just about to rolywholyover. Svapnasvap. Of all the stranger things that ever not even in the hundrund and badst pageans of unthowsent and wonst nice or in eddas and oddes bokes of tomb, dyke and hollow to be have happened! The untireties of livesliving being the one substrance of a streamsbecoming. Totalled in toldteld and teldtold in tittle-tell tattle. Why? Because, graced be Gad and all giddy gadgets, in whose words were the beginnings, there are two signs to tum to, the yest and the ist, the wright side and the wronged side, feeling aslip and wauking up, so an, so farth. Why? On the sourd-site we have the Moskiosk Djinpalast with its twin adjacencies, the bathouse and the bazaar, allahallahallah, and on the sponthe-site it is the alcovan and the rosegarden, boony noughty, all pura puthry. Why? Ones apurr apuss a story about brid and break fedes and parricombating and coushcouch but others is of tholes and oubworn buyings, dolings and chafferings in heat, contest and enmity. Why? Every talk has his stay, vidnis Shavarsanjivana, and all-a-dreams perhapsing under lucksloop at last are through. Why? It is a sot of a swigswag, systomy dystomy, which evera-body you ever anywhere at all doze. Why? Such me. And howpsadrowsay. Lok! A shaft of shivery in the act, anilancinant. Colds sleuth! Vayuns! Where did thots come from? It is infinitesimally fevers, resty fever, risy fever, a coranto of aria, sleeper awakening, in the smalls of ones back presentiment, gip, and again, geip, a flash from a future of maybe mahamayability through the windr of a wondr in a wildr is a weltr as a wirbl of a warbl is a world. Tom. It is perfect degrees excelsius. A jaladaew still stilleth. Cloud lay but mackrel are. Anemone activescent, the torporature is re-turning to mornal. Humid nature is feeling itself freely at ease with the all fresco. The vervain is to herald as the grass admini-sters. They say, they say in effect, they really say. You have eaden fruit. Say whuit. You have snakked mid a fish. Telle whish. Every those personal place objects if nonthings where soevers and they just done been doing being in a dromo of todos with-outen a bound to be your trowers. Forswundled. You hald him by the tap of the tang. Not a salutary sellable sound is since. In-steed for asteer, adrift with adraft. Nuctumbulumbumus wander wards the Nil. Victorias neanzas. Alberths neantas. It was a long, very long, a dark, very dark, an allburt unend, scarce endurable, and we could add mostly quite various and somenwhat stumble-tumbling night. Endee he sendee. Diu! The has goning at gone, the is coming to come. Greets to ghastern, hie to morgning. Dor-midy, destady. Doom is the faste. Well down, good other! Now day, slow day, from delicate to divine, divases. Padma, brighter and sweetster, this flower that bells, it is our hour or risings. Tickle, tickle. Lotus spray. Till herenext. Adya. Take thanks, thankstum, thamas. In that earopean end meets Ind. There is something supernoctural about whatever you called him it. Panpan and vinvin are not alonety vanvan and pinpin in your Tamal without tares but simplysoley they are they. This-utter followis that odder fellow. Himkim kimkim. Old yeaster loaves may be a stale as a stub and the pitcher go to aftoms on the wall. Mildew, murk, leak and yarn now want the bad that they lied on. And your last words todate in camparative accousto-mology are going to tell stretch of a fancy through strength to wards joyance, adyatants, where he gets up. Allay for allay, a threat for a throat. Tim! To them in Ysat Loka. Hearing. The urb it orbs. Thens now with nows then in tense continuant. Heard. Who having has he shall have had. Hear! Upon the thuds trokes truck, chim, it will be exactlyso fewer hours by so many minutes of the ope of the diurn of the sennight of the maaned of the yere of the age of the madamanvantora of Grossguy and Littleylady, our hugibus hugibum and our weewee mother, actaman house-truewith, and their childer and their napirs and their napirs childers napirs and their chattels and their servance and their cognance and their ilks and their orts and their everythings that is be will was theirs. Much obliged. Time-o-Thay! But wherth, O clerk? Whithr a clonk? Vartman! See you not soo the pfath they pfunded, oura vatars that arred in Himmal, harruad bathar na-mas, the gow, the stiar, the tigara, the liofant, when even thurst was athar vetals, mid trefoils slipped the sable rampant, hoof, hoof, hoof, hoof, padapodopudupedding on fattafottafutt. Ere we are! Signifying, if tungs may tolkan, that, primeval condi-tions having gradually receded but nevertheless the emplacement of solid and fluid having to a great extent persisted through intermittences of sullemn fulminance, sollemn nuptialism, sallemn sepulture and providential divining, making possible and ever inevitable, after his a time has a tense haves and havenots hesitency, at the place and period under consideration a socially organic entity of a millenary military maritory monetary morphological circumformation in a more or less settled state of equonomic ecolube equalobe equilab equilibbrium. Gam on, Gearge! Nomo-morphemy for me! Lessnatbe angardsmanlake! You jast gat a tache of army on the stumuk. To the Angar at Anker. Aecquo-tincts. Seeworthy. Lots thankyouful, polite pointsins! Theres a tavarn in the tarn. Tip. Take Tamotimos topical. Tip. Browne yet Noland. Tip. Advert. Where. Cumulonubulocirrhonimbant heaven electing, the dart of desire has gored the heart of secret waters and the poplarest wood in the entire district is being grown at present, eminently adapted for the requirements of pacnincstricken humanity and, between all the goings up and the whole of the comings down and the fog of the cloud in which we toil and the cloud of the fog under which we labour, bomb the things to be domb about it so that, beyond indicating the locality, it is felt that one cannot with advantage add a very great deal to the aforegoing by what, such as it is to be, follows, just mentioning however that the old man of the sea and the old woman in the sky if they dont say nothings about it they dont tell us lie, the gist of the pantomime, from cannibal king to the property horse, being, slumply and slopely, to remind us how, in this drury world of ours, Father Times and Mother Spacies boil their kettle with their crutch. Which every lad and lass in the lane knows. Hence. Polycarp pool, the pool of Innalavia, Saras the saft as, of meadewy marge, atween Deltas Piscium and Sagittariastrion, whereinn once we lave tis alve and vale, minnyhahing here from hiarwather, a poddlebridges in a passabed, the river of lives, the regenerations of the incarnations of the emanations of the appa-rentations of Funn and Nin in Cleethabala, the kongdomain of the Alieni, an accorsaired race, infester of Libnud Ocean, Moyla-more, let it be! Where Allbroggt Neandser tracking Viggynette Neeinsee gladsighted her Linfian Fall and a teamdiggingharrow turned the first sod. Sluce! Caughterect! Goodspeed the blow! Incidentally tis believed that his harpened before Gages Fane for it has to be over this booty spotch, though some hours to the wester, that ex-Colonel Houses preterpost heiress is to re-turn unto the outstretcheds of Dweyr OMichaels loinsprung the blunterbusted pikehead which his had hewn in hers, pro-longed laughter words. There an alomdree begins to green, soreen seen for loveseat, as we know that should she, for by essentience his law, so it make all. It is scainted to Vitalba. And her little white bloomkins, twittersky trimmed, are hobdoblins hankypanks. Saxenslyke our anscessers thought so darely on now theyre going soever to Anglesen, free of juties, dyrt chapes. There too a slab slobs, immermemorial, the only in all swamp. But so bare, so boulder, brag sagging such a brr bll bmm show that, of Barindens, the white alfred, it owed to have at leased some butchups upperon. Homos Circas Elochlannensis! His showplace at Leeambye. Old Wommany Wyes. Pfif! But, while gleam with gloom swan here and there, this shame rock and that whispy planter tell Paudheen Steel-the-Poghue and his perty Molly Vardant, in goodbroomirish, arrah, this place is a proper and his feist a ferial for curdnal communial, so be who would celibrate the holy mystery upon or that the pirigrim from Mainy-lands beatend, the calmleaved hutcaged by that look whose glaum is sure he means bisnisgels to empalmover. A naked yogpriest, clothed of sundust, his oakey doaked with frondest leoves, offrand to the ewon of her owen. Tasyam kuru salilakriyamu! Pfaf! Bring about it to be brought about and it will be, loke, our lake lemanted, that greyt lack, the citye of Is is issuant atlanst!, urban and orbal, through seep froms umber under wasseres of Erie. Lough! Hwo! Hwy, dairmaidens? Asthoreths, assay! Earthsigh to is heavened. Hillsengals, the daughters of the cliffs, responsen. Longsome the samphire coast. From thee to thee, thoo art it thoo, that thouest there. The like the near, the liker nearer. O sosay! A family, a band, a school, a clanagirls. Fiftines andbut fortines by novanas andor vantads by octettes ayand decadendecads by a lunary with last a lone. Whose every has herdifferent from the similies with her site. Sicut campanulae petalliferentes they coroll in caroll round Botany Bay. A dweam of dose innocent dirly dirls. Keavn! Keavn! And they all setton voicies about singsing music was Keavn! He. Only he. Ittle he. Ah! The whole clangalied. Oh! S. Wilhelminas, S. Gardenias, S. Phibias, S. Veslandruas, S. Clarindas, S. Immeculas, S. Dolores Delphins, S. Perlan-throas, S. Errands Gays, S. Eddaminivas, S. Rhodamenas, S. Ruadagaras, S. Drimicumtras, S. Una Vestitys, S. Mintargisias, S. MishaLa-Valses, S. Churstrys, S. Clouonaskieyms, S. Bella-visturas, S. Santamontas, S. Ringsingsunds, S. Heddadin Drades, S. Glacianivias, S. Waidafriras, S. Thomassabbesss and trema! unloud!! pepet!!! S. Loellisotoelles! Prayfulness! Prayfulness! Euh! Thaet is seu whaet shaell one naeme it! The meidinogues have tingued togethering. Ascend out of your bed, cavern of a trunk, and shrine! Kathlins is kitchin. Soros cast, ma brone! You must exterra acquarate to interirigate all the arkypelicans. The austrologer Wallaby by Tolan, who farshook our showrs from Newer Aland, has signed the you and the now our mandate. Milenesia waits. Be smark. One seekings. Not the lithe slender, not the broad roundish near the lithe slender, not the fairsized fullfeatured to the leeward of the broad roundish but, indeed and inneed, the curling, perfect-portioned, flowerfleckled, shapely highhued, delicate features swaying to the windward of the fairsized fullfeatured. Was that in the air about when something is to be said for it or is it someone imparticular who will somewherise for the whole anyhow? What does Coemghen? Tell his hidings clearly! A woodtoo-gooder. Is his moraltack still his best of weapons? How about a little more goaling goold? Rowlins tun he gadder no must. It is the voice of Roga. His face is the face of a son. Be thine the silent hall, O Jarama! A virgin, the one, shall mourn thee. Rogas stream is solence. But Croona is in adestance. The ass of the ODwyer of Greyglens is abrowtobayse afeald in his terroirs of the Potter-tons forecoroners, the reeks around the burleyhearthed. When visited by an indepondant reporter, Mike Portlund, to burrow burning the lattermans Resterant so is called the gortan in ques-ture he mikes the fallowing for the Durban Gazette? firstcoming issue. From a collispendent. Any were. Deemsday. Bosse of Upper and Lower Byggotstrade, Ciwareke, may he live for river! The Games funeral at Valleytemple. Saturnights pomps, exhabiting that corricatore of a harss, revealled by Oscur Camerad. The last of Dutch Schulds, perhumps. Pipe in Dream Cluse. Uncovers Pub History. The Outrage, at Length. Affected Mob Follows in Reli-gious Sullivence. Rinvention of vestiges by which they drugged the buddhy. Moviefigure on in scenic section. By Patathicus. And there, from out of the scuity, misty Londan, along the canavan route, that is with the years gone, mild beam of the wave his polar bearing, steerner among stars, trust touthena and you tread true turf, comes the sorter, Mr Hurr Hansen, talking allthe-ways in himself of his hopes to fall in among a merryfoule of maidens happynghome from the dance, his knyckle allaready in his knackskey fob, a passable compatriate proparly of the Grimstad galleon, old pairs frieze, feed up to the noxer with their geese and peeas and oats upon a trencher and the toyms hed lust in Wooming but with that smeoil like a grace of backoning over his egglips of the sunsoonshine. Heres heering you in a guessmasque, latterman! And such an improofment! As royt as the mail and as fat as a fuddle! Schoen! Shoan! Shoon the Puzt! A penny for your thought abouts! Tay, tibby, tanny, tummy, tasty, tosty, tay. Batch is for Baker who baxters our bread. O, what an ovenly odour! Butter butter! Bring us this days our maily bag! But receive me, my frensheets, from the emerald dark winterlong! For diss is the doss for Eilder Downes and dass is it duss, as singen sengers, what the hardworking straightwalking stoutstamping securelysealing officials who trow to form our G.M.P.s pass muster generally shay for shee and sloo for slee when butting their headd to the pillow for a night-shared nakeshift with the alter girl they tuck in for sweepsake. Dutiful wealker for his hydes of march. Haves you the time. Hans ahike? Heard you the crime, senny boy? The man was giddy on letties on the dewry of the duary, be pursueded, whethered with entrenous, midgreys, dagos, teatimes, shadows, nocturnes or samoans, if wellstocked fillerouters plushfeverfraus with dopy chonks, and this, that and the other pigskin or muffle kinkles, taking a pipe course or doing an anguish, seen to his fleece in after his foull, when Dr Chart of Greet Chorsles street he changed his backbone at a citting. He had not the declaination, as what with the foos as whet with the fays, but so far as hanging a goobes on the precedings, wherethen the lag allows, it mights be anything after darks. Which the deers alones they sees and the darkies they is snuffing of the wind up. Debbling. Greanteavvents! Hyacinssies with heliotrollops! Not once fullvixen freakings and but dubbledecoys! It is a lable iction on the porte of the cuthulic church and summum most atole for it. Where is that blinketey blanketer, that quound of a pealer, the sunt of a hunt whant foxes good men! Where or he, our loved among many? But what does Coemghem, the fostard? Tyro a tora. The novened iconostase of his blueygreyned vitroils but begins in feint to light his legend. Let Phosphoron proclaim! Peechy peechy. Say he that saw him that saw! Man shall sharp run do a get him. Ask no more, Jerry mine, Rogas voice! No pice soorkabatcha. The bog which puckerooed the posy. The vinebranch of Heremonheber on Bregias plane where Teffia lies is leaved invert and fructed proper but the cublic hatches endnot open yet for hourly rincers mess. Read Higgins, Cairns and Egen. Malthus is yet lukked in close. Withun. How swathed there-answer alcove makes theirinn! Besoakers loiter on. And primi libatory solicates of limon sodias will be absorbable. It is not even yet the engine of the load with haled morries full of crates, you mattinmummur, for dombell dumbs? Sure and tis not then. The greek Sideral Reulthway, as it havvents, will soon be starting a smooth with its first single hastencraft. Danny buz-zers instead of the vialact coloured milk train on the fartykket plan run with its endless gallaxion of rotatorattlers and the smool-troon our elderens rememberem as the scream of the service, Strubry Bess. Also the waggonwobblers are still yet everdue to precipitate after nights combustion. Aspect, Shamus Rogua or! Taceate and! Hagiographice canat Ecclesia. Which aubrey our first shall show. Inattendance who is who is will play thats whats that to whats that, what. Oyes! Oyeses! Oyesesyeses! The primace of the Gaulls, pro-tonotorious, I yam as I yam, mitrogenerand in the free state on the air, is now aboil to blow a Gael warning. Inoperation Eyr-lands Eyot, Meganesia, Habitant and the onebut thousand insels, Western and Osthern Approaches. Of Kevin, of increate God the servant, of the Lord Creator a filial fearer, who, given to the growing grass, took to the tall tim-ber, slippery dick the springy heeler, as we have seen, so we have heard, what we have received, that we have transmitted, thus we shall hope, this we shall pray till, in the search for love of knowledge through the comprehension of the unity in altruism through stupefaction, it may again how it may again, shearing aside the four wethers and passing over the dainty daily dairy and dropping by the way the lapful of live coals and smoothing out Nelly Nettle and her lad of mettle, full of stings, fond of stones, friend of gnewgnawns bones and leaving all the messy messy to look after our douche douche, the miracles, death and life are these. Yad. Procreated on the ultimate ysland of Yreland in the en-cyclical yrish archipelago, come their feast of precreated holy whiteclad angels, whomamong the christener of his, voluntarily poor Kevin, having been graunted the praviloge of a priests postcreated portable altare cum balneo, when espousing the one true cross, invented and exalted, in celibate matrimony at matin chime arose and westfrom went and came in alb of cloth of gold to our own midmost Glendalough-le-vert by archangelical guid-ance where amiddle of meeting waters of river Yssia and Essia river on this one of eithers lone navigable lake piously Kevin, lawding the triune trishagion, amidships of his conducible altar super bath, rafted centripetally, diaconal servent of orders hiber-nian, midway across the subject lake surface to its supreem epi centric lake Ysle, whereof its lake is the ventrifugal principality, whereon by prime, powerful in knowledge, Kevin came to where its centre is among the circumfluent watercourses of Yshgafiena and Yshgafiuna, an enysled lakelet yslanding a lacustrine yslet, whereupon with beached raft subdiaconal bath propter altar, with oil extremely anointed, accompanied by prayer, holy Kevin bided till the third morn hour but to build a rubric penitential honeybeehivehut in whose enclosure to live in fortitude, acolyte of cardinal virtues, whereof the arenary floor, most holy Kevin excavated as deep as to the depth of a seventh part of one full fathom, which excavated, venerable Kevin, anchorite, taking counsel, proceded towards the lakeside of the ysletshore whereat seven several times he, eastward genuflecting, in entire ubidience at sextnoon collected gregorian water sevenfold and with am-brosian eucharistic joy of heart as many times receded, carrying that privileged altar unacumque bath, which severally seven timcs into the cavity excavated, a lector of water levels, most venerable Kevin, then effused thereby letting there be water where was there-tofore dry land, by him so concreated, who now, confirmed a strong and perfect christian, blessed Kevin, exorcised his holy sister water, perpetually chaste, so that, well understanding, she should fill to midheight his tubbathaltar, which hanbathtub, most blessed Kevin, ninthly enthroned, in the concentric centre of the trans-lated water, whereamid, when violet vesper vailed, Saint Kevin, Hydrophilos, having girded his sable cappa magna as high as to his cherubical loins, at solemn compline sat in his sate of wis-dom, that handbathtub, whereverafter, recreated doctor insularis of the universal church, keeper of the door of meditation, memory extempore proposing and intellect formally considering, recluse, he meditated continuously with seraphic ardour the primal sacra-ment of baptism or the regeneration of all man by affusion of water. Yee. Bisships, bevel to rocks rite! Sarver buoy, extinguish! Nuota-bene. The rare view from the three Benns under the bald heaven is on the other end, askan your blixom on dimmen and blastun, something to right hume about. They were erected in a purvious century, as a hen fine coops and, if you know your Bristol and have trudged the trolly ways and elventurns of that old cobbold city, you will sortofficially scribble a mental PenyKnox-Gore. Whether they were franklings by name also has not been fully probed. Their design is a whosold word and the charming de-tails of light in dark are freshed from the feminiairity which breathes content. O ferax cupla! Ah, fairypair! The first exploder to make his ablations in these parks was indeed that lucky mortal which the monster trial showed on its first day out. What will not arky paper, anticidingly inked with penmark, push, per sample prof, kuvertly falted, when style, stink and stigmataphoron are of one sum in the same person? He comes out of the soil very well after all just where Old Toffler is to come shuffling along-soons Panniquanne starts showing of her peequuliar talonts. Awaywrong wandler surking to a rightrare rute for his plain utterrock sukes, appelled to by her fancy claddaghs. You plied that pokar, gamesy, swell as aye did, while there were flickars to the flores. He may be humpy, nay, he may be dumpy but there is always something racey about, say, a sailor on a horse. As soon as we sale him geen we gates a sprise! He brings up tofatufa and that is how we get to Missas in Massas. The old Marino tale. We veriters verity notefew demmed lustres priorly magistrite maxi-mollient in ludubility learned. Facst. Teak off that wise head! Great sinner, good sonner, is in effect the motto of the MacCowell family. The gloved fist skrimmhandsker was intraduced into their socerdatal tree before the fourth of the twelfth and it is even a little odd all four horolodgeries still gonging restage Jakob van der Bethel, smolking behing his pipe, with Essav of Messagepostumia, lentling out his borrowed chafingdish, before cymbaloosing the apostles at every hours of changeover. The first and last rittlerattle of the anniverse when is a nam nought a nam whenas it is a. Watch! Heroes Highway where our fleshers leave their bonings and every bob and joan to fill the bumper fair. It is their segnall for old Champelysied to seek the shades of his retirement and for young Chappielassies to tear a round and tease their partners lovesoftfun at Finnegans Wake. And its high tigh tigh. Titley hi ti ti. That my dig pressed in your dag si. Gnug of old Gnig. Ni, gnid mig brawly! I bag your burden. Mees is thees knees. Thi is Mi. We have caught one-selves, Sveasmeas, in somes incontigruity coumplegs of heopon hurrish marrage from whose I most sublumbunate. A polog, my engl! Excutes. Om still so sovvy. Whyle om till ti ti. Ha! Dayagreening gains in schlimninging. A summerwint spring-falls, abated. Hail, regn of durknass, snowly receassing, thund lightening thund, into the dimbelowstard departamenty whither-out, soon hist, soon mist, to the hothehill from the hollow, Solsking the Frist attempted by the admirable Captive Bunting and LoftonantCornel Blaire will processingly show up above Tumplen Bar whereupont he was much jubilated by Boerge-mester Dyk ffogg of Isoles, now Eisold, looking most plussed with exhib 39 a clout capped sunbubble anaccanponied from his bequined torse. Up. Blanchardstown mewspeppers pleads coppyl. Gracest good-ness, heave mensy upponnus! Grand old Manbutton, give your bowlers a rest! It is a mere mienerism of this vague of visibilities, mark you, as accorded to by moisturologist of the Brehons Assorceration for the advauncement of scayence because, my dear, mentioning of it under the breath, as in pure what bunkum! essenesse, there have been disselving forenenst you just the draeper, the two drawpers assisters and the three droopers assessors confraterni-tisers. Who are, of course, Uncle Arth, your two cozes from Niece and kunject a bit now! our own familiars, Billyhealy, Bally-hooly and Bullyhowley, surprised in an indecorous position by the Sigurd Sigerson Sphygmomanometer Society for bled-prusshers. Knightsmore. Haventyne? Ha ha! This Mister Ireland? And a live? Ay, ay. Aye, aye, baas. The cry of Stena chills the vitals of slumbring off the motther has been pleased into the harms of old salaciters, meassurers soon and soon, but the voice of Alina gladdens the cockly-hearted dreamerish for that magic moning with its ching chang chap sugay kaow laow milkee muchee bringing becker-brose, the brew with the foochoor in it. Sawyest? Nodt? Nyets, I dhink I sawn to remumb or sumbsuch. A kind of a thinglike all traylogged then pubably it resymbles a pe</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Animalement vôtre</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Mesdames, messieurs, les passagers non-ressortissants à la Communauté Européenne doivent présenter une fiche d'immigration à l'arrivée en France Dans le cas contraire, nous serons forcés de vous rapatrier à la destination de départ La rage qui m'habite brisera vos murs Que l'état suce ma bite, j'ai endossé l'africaine armure Avec ta France, je n'ai aucun lien de parenté, je suis pas de tes fils J'ai vécu dans la promiscuité avec les fils du vice Vision chaotique d'une situation diabolique L'histoire a fait de moi Kery James le mélancolique J'suis de l'esclave le fils, je t'annonce la couleur d'office D'office, je nique ta police, ta justice et 3 fois 6.6.6stème Je ramène de ma rue ses pensées extrêmes Faudrait que tu te renseignes, on rêve de saigner la droite extrême Seul le Tout-Puissant, bienveillant et omniscient Dispose de mon souffle, de mes forces et de mon sang En plus de son sang je pourrais même y laisser ma vie Avenir obscurci, l'état m'a mis un préavis Mais je suis hostile à toute forme de compromission Sans prétentions, comme dans le passé, je suis sur une mission Chacun sa vision, voilà mon avis Mais notre vision n'est peut-être que le reflet de ce que l'on vit Ici, j'ai vu trop d'horreurs, pas assez vécu de bonheur Ma conscience m'a dénoncé cette vie de malheur Mon passage sur Terre pourrait lui-même n'être qu'un leurre Je serai jamais heureux parce que ce système c'est le leur J'ai peur et rêve que mes frères prennent de l'ampleur Vu quand j'ouvre les yeux, ce n'est pas que de rage que je pleure Mais de déception, c'est bleu, blanc, rouge, comme le sang des nôtres Cette France n'est pas amicalement nôtre Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Animalement vôtre, ton pays c'est pas le nôtre Moi et mon armée on dévore tout et la tienne tombe et se vautre A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt, et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gènes, qui peut stopper un homme décidé ? Mes yeux saignent de rage, de lourdes larmes creusent les joues de mon visage Drames, sur le macadam, Paname rassemble des milliers de rêves brisés Ça me suffit, je plains les jeunes que le système condamne, yeah Je calme le jeu, sauve mon âme des flammes du mal qui me réclament Je rêve d'évasion, de fuir ce béton qui memplâtre chaque jour un peu plus Cherche au fond des yeux de mes parents le force de tenir encore plus Au mic, c'est conscience, refoulement, donc ça crame dans les halls La violence a toujours été la parole du pauvre Ma voix c'est d'la mélancolie, de l'espoir qui m'alimente Colombia, America Latina, represent Represent, c'est ce foutu mal du pays qui me hante Je rentre par effraction dans un système qui me veut une mort lente Annihiler mes origines, ma culture, ma langue d'origine Puis quand je n'aurai plus rien, on me parquera loin des villes Je serai loin de mon vrai pays et près de celui qui m'a trahi Je veux pas mourir comme un déraciné dans l'oubli Soy como un boomerang los que no creen ya verán Pereceran soy la venganza india llegó el huracán Africano árabe latino jeune de té-ci Je vous l'avais dit, on fera notre place dans ce pays Je suis pas Zorro non, juste un grillé, élevé au pain, même pas grillé Pris au collet, je priais, puis j'suis devenu MC qui rigole pas Fallait qu'ils sachent comment j'm'appelle, sûr, fallait que je sois dur Plus cruel que le sort qui pousse nos pères à la truelle Et je cure mon mal par des mots man, ma rage reste au top des hits Sur micro, m'man est fière de son minot man, ma voix loin des mythomanes Je brave les cons, les pantins que ça fait chier De voir un noir dire ce qui ne va pas dans leurs patelins, ce pouvoir est un devoir que je fais mien Ma couleur fait qu'il faut que je sois mieux que les autres Et si je me vautre, faudra que je me sorte plus vite que les autres, je garde en tête que les nuls sautent Que nos gosses voient tôt des Glocks faire click, combien d'orgueil ont courbé le dos pour un bout de plastique Combien bannissent toute éthique Je rappe pour ma souche, bébé, y'a rien de louche dans mes affaires Je sais ça paraît flou de la part d'un basané mais Mes 10 années de rimes arrosent les fleurs sur les tombes de ceux qui ont pris une pause trop tôt Fini, une vie pas rose Trop de doses ankylosent les choses, dans la tête explosent plein de truc moroses Les neurones pètent, chanceux sont ceux qui dealent des proses pour des chèques Qui taffent avec fierté, tentent de servir d'exemple Fallait oser, allez, je lève mon verre à ceux qui sont allés Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Yeah, je suis comme un boomerang déguisé, la force d'un continent pillé Une vague, qui vient reprendre tout ce qu'on lui a volé A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gênes, qui peut stopper un homme décidé ? J'ai passé 20 ans de ma vie à trimer Tu sais ce que c'est de se réveiller 2 heures avant que le soleil songe à se lever Voir la lampe te flamber les yeuz' comme une sentinelle Et les gouttes des fuites du robinet qui te martèlent, telles une truelle Et voir ton boss, un boulard qui te parle, fonce-dé au pinard T'ordonne d'aller sur le chantier sinon t'es tricard Pour ta paye de smicard, un cauchemar, chaque jour que Dieu fait Mais bonhomme, on encaisse tout On a pas le temps d'aller se plaindre aux prud'hommes, en somme, boum La seule joie qu't'a c'est de voir ton môme grandir chaque jour Et voir ta souffrance qui endure pour devenir demain quelqu'un qu'on respecte Non celui qu'on suspecte, mais celui que les teur-inspect regrettent de voir dans leurs registres Parce que le mec est classé net, je te parle pas du remake de Scarface cette fois-ci Je connais le dos des cartes alors je mise tout sur mon se-fi Un missile que personne pourra désamorcer, stopper ou désaxer de sa mission Ok, j'accéderai peut-être pas avec lui au Panthéon Mais demain son regard brûlera d'un seul coup toute ta nation J'te le dis à la surface de ton rejeton, donc mec fais bien attention Et tu crois, que ton intégration on y croit Mais tes actes racistes ont pris du poids Yeah, je suis comme un boomerang déguisé, la force d'un continent pillé Une vague, qui vient reprendre tout ce qu'on lui a volé A chacun de mes pas, ton regard posé sur moi Me blesse comme si tu me pointais du doigt, Animalement Vôtre Et tu crois Ton pays c'est pas le nôtre Moi et mon armée on dévore tout et la tienne tombe et se vautre De surcroît, la tension s'accroît Mes frères en ont marre de porter la croix, et tu crois Que viennent ceux qui tiennent à essayer de nous dévier La fureur dans les gênes, qui peux stopper un homme décidé ?</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Independance Daye</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
           <t>Jai vu ce quils projettent de faire Ils sont comme des sauterelles Ils déplacent leur civilisation de planète en planète Après avoir consommé toutes les ressources naturelles, ils repartent Nous sommes les suivants Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Je quitte mon milieu naturel la jungle urbaine quimporte ma dégaine Jerre, jsuis à des années lumières jme sers dmon flair Mon ombre sombre comme Spawn plane sur la ville lumière Dans mon repaire une place pour chaque tête mec, comme trophée de guerre Jpends les boys band aux boyaux des boys scouts qui m'boycottent Check le scoop, branche ton scope découvre les yeux des mioches mortes Les sales gosses en Lacoste prennent la sale dope dans le zen Arrachent ta daube de ma zone ou jte fouette à coup de chaînes Et cache tes pâturages quand vient le prédateur africain Yreste plus rien de la pauvre chèvre et dce vieux monsieur Seguin Jaspire ton atmosphère, pire jentends encore tes soupirs Comme la veille dlapocalypse lève les yeux au ciel, fuir! Mais pour aller où Timal ? viens à la rencontre de clui qui a canné Ltroisième type dun seul coup, mal, mal Mon trip cest dbalourder tes tripes au fond de la trappe J moins rien, les miens se souviendront de cette sale date Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Jsors dmon cocon, un nouveau colon Sauf que moi mon nom cest pas Christophe Colomb Mais Hamed Daye, le seul chef dcette flotte en perdition Dans ma caravelle jcherche pas dépices Mais le port des MCs qui glissent à fond de cale Pour cette expédition mon drapeau la bannière noire du Secteur Ä flotte Le jeune moussaillon flippe et une flaque Jte fous la pétoche comme mes pères lont foutu jadis aux Boches En foutant une cicatrice sur la joue de la douce France, japproche Alors Papy fait dla résistance et leur mioches collaborent Les pseudos de napalm approchent et veulent ma mort Me foutre en Zone 51, écoute ce baratin Comme un homme-soldat qui a djà échoué, jamais! Comme mon sauce lalbinos, je toast et fausse les données Pour crier nous pas bouger moi et mes têtes grainées Les têtes brûlent encore plus fêlées Qules hommes sous les ordres Pappy Boyington, tché Prêt pour une bataille rangée Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Pas de mayday, mayday, pas la peine de chialer Jsuis pas le lieutenant Spock, cette loque de captaine Kirk viendra pas te sauver À bord de lEntreprise on nique le bénef Toujours jte fesse, blesse, laisse et jleste, hasta la vista bébé, rhalas Je vois déjà sur ta tête se dresser tes Dread Locks Comme un stressos place toi face à moi et dun seul coup jte boxe Car ya pas de place pour toi dans lhyperespace là où mes forces décuplent On amasse trop de blé, harcelés par les civils en tasse-pé Jme méfie delles et jen foudroie avec mon rayon Delta Appelle moi Seaman, Orco ou bien Chewbacca Quand jenfile mon blouson de combat cest pour la guerre, tché Ton Sud contre not Nord une nouvelle guerre de Sécession Rétorque et sors les armes si tu veux perpétuer la tradition Jviens sauver ton HIP-HOP français comme le Che la fait pour la Bolivie Donc quitte ton baggy, ton treillis ou ton pe-sli, Hamed Daye te suis Lindépendance daye, lindépendance daye Apocalypse moins trois secondes, cest l'heure H quand sonne le réveil Lindépendance daye, lindépendance daye Cachés sous le soleil de Satan mes soldats veillent Encore une fois mon secteur Ä te fout ça Cest chaud daye et tu le sais Hamed Daye, hein, Lino, hein Planque toi Tché, Planque toi Tché Négro on tlavait dit, Secteur Äpocalypse Encore un inédit Lindépendance Daye on tlavait prédit On danse sous une pluie de balles, nique la tendance Le balai tireur Ärsenik pousse le tirailleur, offense Dans toute la France, 98, 99, 2000, 2001, 2002 et tout ce que tu veux !</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>J’avance pour ma familia</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Bouges pour toi sinon qui le fera Vous êtes toujours sur Chaud Lapin F.M, si vous n'aimez pas Stomy, bonne chance, vous êtes sur sa radio et comme hier, comme avant-hier, demain, après-demain, c'est sa journée, Chaud Lapin Je viens comme le parrain des parrains Bruit de bisou Baise-moi la main Je blanchis mon argent Pour mes négros, la couleur est la sang 9.5.200 la table est ronde, ça parle bizness et ça gronde Les prétentieux en fondent J'ai la bague dans la main comme Capone pour dénicher les chiens Je ne me protège pas derrière les enfants quand Les ritals me rafalent de balles Non, non ne me prends pas pour Nino négro Ou le costaud caïd qui se fait fourrer dans les films de Tarantino Place à la classe, numéro uno, Bugsy my-Sto L'art du hold-up au stylo Je sais qu'un petit coup de langue peut tuer plus vite qu'un clan de cubain Mais c'est un risque j'aime, j'aime l'amour du risque et tout ce qui s'en suit Dans le monde du crime, l'oxygène je suis Tueur à Garges à la vision large Dans le respect, il y a une marge et si tu la dépasses, carnage On vit dans un monde de lope-sa Y'a pas de coup-ci, coup-ça Tous mes couz, ici sont murs comme Sosa Pour ma familia Je marche pour ma familia, pour mes nègres infâmes, il y a Trop de filiales pour un crew, je roule ma sensimilia Trop de tendance simili, il y trop de lascars dans ma Cosca Qu'il n'y a d'encre dans ton poska ou de béné dans ton rosse-ca Si tu vois la que-arna, je redeviens carnassier Aussi vrai que ma parole est ferme et mon manche est d'acier Assieds-toi ou goute au nouveau western moderne façon Sergio Leone Pour ta gouverne, on est soudés comme le clan Corleone Et on nique la vie, donnes moi le micro pour un clash, un homicide L'enfer remonte à la surface déclenche un génocide Ceux qui me suivent, lèvent leur main, les autres peuvent aller se faire mettre J'ai pas le temps de me la jouer négro funky, je peux pas me le permettre Omettre ce détail équivaut à fixer ton destin au bout de mon canon J'ai l'instinct d'un tueur psychopathe au micro damné comme Fanon Suis-je le gardien de mon frère ? Oui je le suis, fier de mes connexions Mon secteur rentre en action, Arsenik pour une inspection Section mafioso, bozo File quand je cause au microphone, hostile mon rap est flexible comme le roseau Laisses moi me fonce-dé Tu vois bien que Calbo est protégé des fous Partout dans toutes les poches, fauchent quand c'est la guerre Mon groupe vient briser des carrières et ma famille protège mes arrières Donnes la palme à Trois on explose comme dans un film de De Palma Arsenik te crame au napalm avance pour sa familia Là c'est parfait j'enchaine, ma race est calé sur multi-piste Si t'as fumé l'intox, propager le tumulte de La Rumeur depuis sa force Encore un moyen de plus de faire du bruit Faire parler les gaillards de mon écurie, compris Avant le son de cloche, je marque des points sur le ring Décoches des coups de te-trai, autant de demandes de featuring L'infamie étatique garde ouverte nos plaies Je te promets Je trace en franc-tireur, de la hargne en lieu et place des pleurs Une conscience d'arabe et pas de beur De cramé de la France qu'a compris qu'elle n'attend de lui qu'un faux pas Ou la soumission dans le silence Épargne moi des remords si je t'irrite la ge-gor Discréditer La Rumeur c'est lui servir de sponsor Alors de la balle, un concept qui me-cal S'installe tant bien que mal est à-l pour de bon Avec des sales intonations, des postillons dans la che-tron C'est sur l'album de Mister gringo que je prouve pour ma familia À chacun sa lame s'il y a mort d'homme, c'est la mierda Ma Clinique est en guerre, Furet, Papillon sortent de la serre Commencement d'une série noire, amères seront les prières Vais-je buter un innocent, être l'avocat d'un truand Bruler les squales comme du bétail, confier des bombes à des enfants ? Ensuite, j'irais délivrer les malades de Saint-Anne Et moi les animaux dangereux, enfermés dans des trams Ayant lil de la biche et les dents du requin Considère que son vice et croisé à celui du Parrain Prends ça dans le fion et laisses-moi mon bizness garçon Mais parfait dans le rap j'opère en typhon Passes moi 86 flammes, j'allume tout Paname Les Sales Gosses sont dramatiquement cinglés dans lâme Passes le fusil, j'arme, vas y négro fourre ça, laisse-moi donner ça dans le tas Pour qu'ils comprennent que l'on ne bouge qu'avec la familia J'ai fait un pacte pour le meilleur et pour le pire Et quand ma voix s'élève, c'est toujours la même qui transpire Marianne où c'est que je dépose toutes mes valises ? Marianne tu m'avais dit que c'était le Terre Promise Putain de merde c'est ça Paris, on m'a bluffé Même la Tour Eiffel n'est pas aussi grande qu'on me l'avait dit Djé Depuis mon arrivée, depuis que j'ai emménagé chez mon cousin Abdoulaye Ils ont fait des rapports sur moi dans les moindres détails Ma famille est solide comme les 5 piliers gars Si tu touches à un, c'est tous les autres qui tombent sur toi Alors nous cherches pas la guerre C'est un peu comme tes ploucs de mousquetaires, un pour tous, tous sur un, est-ce clair Pas de gri-gri, j'avance pour qui et pour quoi Pour ma familia et devines qui est derrière moi Mon secteur A, mon secteur A Je trinque pour 80, Daye avec le prince des scar-la Je suis un ange pour ma mille-fa, dans la guérilla le ble-dia Prosterne toi voilà l'altesse double S, le pah pah Comme à Halloween paie ta dime Ou mes vermines t'éliminent Oublies un sou, joues les casse-couille au cou Et je me fous de tout, je troue Femmes, enfants, ripoux comme des poux vaudous Je calcule, stimule mes crapules si tu recules , moi j'en Comme pour les intègres, tel nègre la pègre Ça tourne au vinaigre Passi pense, rentre en transe avec ses loups, danse et avance Je massacre toutes vos mères, je bourre toutes vos surs et je transforme vos frères en eunuque Je crois qu'ils ont assimilé la leçon, on y va Ouais</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Les balances</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Couplet 1 Stomy Bugsy Première image un toxico en train de crever Le nez ensanglanté, mais ce n'est pas une overdose. La cause ? Je suppose, le manque de sa dose qui le place à l'apothéose La caméra le quitte tout tremblant On aperçoit un homme qui agite, vite, un sachet blanc Parle! Le premier mot vient d'être prononcé, le projecteur dans sa gueule Les minutes passent, il dégueule ! Les balances ne mentent pas Tout est cadencé, bien lancé, bien placé, brossé Sa gueule et les pompes n'arrêtent pas de converser Il est tellement rossé qu'il aurait pu doubler De Niro dans Raging Bull quand il a le nez pété, déclassé Assez ! Il braille, assez!!, dans le commissariat Ha, tu comprends pourquoi ? Ses voeux n'ont pas été exaucés Il a beau prier et jurer, son cauchemar ne fait que commencer Et comme la tactique, l'attaque des poulets est amorcée La bonne et vieille technique du keuf qui t'écroule A coups de boule et celui qui est très cool Tu veux une cigarette ou un café? Et comme son corps est déjà infligé de châtiments corporels Il rentre dans la confession telle une chatte qui avance gentiment à l'hôtel Il se met à baver, la machine à taper Les inspecteurs s'exclament, HAHAHAA !! Pré-refrain Tu vas en prendre pour un long moment! Les balances ne mentent pas au commissariat Tu vas en prendre pour un long moment! Les balances ne mentent pas Refrain Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Demande aux Yakuzas, pour ça, ils coupent des doigts Et les scar-la te font la balafre et là, la la la la la ! Couplet 2 Passi Version deux, j'te parle de l'as des as, du biz coriace Qui brasse, caillasse en liasse et au calepin plein de pétasses Son jeu les coups juteux, le milieu, la meu-meu Fabuleux saltimbanque, jamais pris par les bleus Tu sais le coup du Brinks ? Le tank des banques bang bang Les preuves manquent mais le magot est dans sa planque Sur sa ligne téléphonique, non pas d'affaire de fric ! Son tic, timinik, c'est qu'il appelle Brigitte femme de flic Car il se sait écouté et pour narguer les kisdés Il a serré cette pimbêche, devenue sa tabataspech ? Nympho tombée accroc de ce négro du barrio De son ex-macro qu'on appelle Mysto Le commissaire frappé, fouetté par le préfet vé-ner S'est juré de tous les mettre au vert Alors les poulets passent au plan ES Espionne Salope Passi va te raconter ça, à la façon double S Une de ces seufs sur une meuf qui le bleute dans une teuf Une indic pour keuf et il fonce comme un boeuf T'as vu le loup de Tex Avery ? Donc tu sex ce qui suit ! Gros plan sur le héros et la fille sur ses pectoraux Tous les jours il est beau quand dans le lit, c'est chaud Témoin plus micro, confessions sur l'oreiller Au poste de lice-po, il pleut des oh yeah! Ah ouais Robert, on l'a eu ! Vas-y ça s'arrose eh !! Pré-refrain Tu vas en prendre pour un long moment! Les balances ne mentent pas au commissariat Tu vas en prendre pour un long moment! Les balances ne mentent pas Refrain Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas T'étais là pourquoi? Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment ! Au commissariat, les balances ne mentent pas Le nom, l'heure et l'endroit. Parle !! sinon PAH PAH ! Tu vas en prendre pour un long moment !</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Les cloches du diable</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1994, encore une saison rude, je reprends de l'altitude Tandis qu'à Paris 1e pouvoir s'endurcit à l'heure La Gaule repart dans la terreur Elle montre qui est le maître, pratique la traite des traîtres Le Diable crache sur la France répand ses semences Fric, sexe, violence en alternance Poussent, poussent vers la décadence De la crise resurgissent les disciples de Mein Kampf Comme pendant les guerres d'antan Suppôt de Satan, fachos, collabos partent en avant J'ai vu ces blancs sur les Champs comme des enfants Fêtés les 500 ans du jeune continent Glorifiés Colomb sous l'ombre des hécatombes Ses catacombes servent de tombes Les miens sombrent et tombent, Pam Pam dans la tête des nègres Pam Pam dans la tête des bougnoules, Pam Pam dans la foule, pool Certains s'enflamment, d'autres acclament profanent Vendent leurs âmes, Marianne la Sheitane blâme, baise et condamne T'as signé de ton sang ? Elle s'éclate en ton nom Les Anges Damnés ont les ailes coupées La chasse aux sorciers a déjà commencé Rira bien qui rira le dernier La chute est inévitable n'entends tu pas sonner les cloches du Diable ? x 4 Le démon tourne autour Autour de nous comme un vautour Ding dong font les cloches du diable Gling début du gong coupable est le verdict Que 1e dicte à tout Babylone avant que mon heure sonne Assieds toi, écoute moi, je pose ma voix attention Première indication sous ecsta', les camés assurent nada La France rentre dans la danse rentre dans la Trans Des petits blonds et bruns, roses cochons, défoncés, désaxés Sur du son, moi y en a trouver ça bon Informer mes négrillons prends le comme tu veux Mais plus tu fermeras les yeux plus la note sera salée Comme le matador quand il se fait shooter N'y a plus de olé deuxième indication Totalement dément Satan est-il ton président ? Pan ! Dans tes dents, je m'adresse à toi petit blanc Le baise ton gouvernement tu me diras Pourquoi tant de haine ? avec la sale haleine Je te dirai ta mère, ta sur, cette chienne Kiffe l'Afrique ma trique, ma zik, logique Elle veut un négroïde bourré de spermyStozoïdes Trop de maneé-ci, Eddy Murphy, MTV Sissi veut goûter à mon gode ou est-ce une victime de la mode Aux fantasmes incontrôlables? Mélanges instables bleu, blanc, rouge Vert, jaune, rouge alerte rouge Que personne ne bouge n'entends-tu pas sonner les cloches du Diable ? Le démon tourne autour Autour de nous comme un vautour Dès six heures du matin. comme des loups hurlent les chiens Dans un monde de chiens les miens sont en chien Tandis que les cloches du Sheitan sonnent sonnent chez Marianne L'odeur du souffre plane sur Paname Au niveau mondial tout va mal timal Après la Tempête du Désert, Babylone restaure l'espoir Les carottes pleuvent sur le continent noir Fâché fâché comme un somalien assiégé Y.M.0.T.S double S.A.P no techno parano Négro numéro uno, assistent au déficit dictent la mauvaise conduite Sous les ra-ta-ta-ta je ressuscite Guetsch me place sur orbite Kenzy me donne la ''Touche maudite L'ennemi ne peut rien même s'il chante aux armes citoyens De plus en plus d'homos, de péchés, d'escrocs Les prêtres veulent la levrette, le mariage comme droit Ils passent du ''Hallelujah'' au Bee bop a lulla Tous les ans des dizaines de viols, de viols d'enfants De guerres, poussière tout redeviendra poussière Mais restera à jamais gravé le Ministère pour que la tête du porc Diable soit toujours reconnaissable une couleur Un malheur, un coupable qui fait sonner les cloches du Diable Le démon tourne autour Autour de nous comme un vautour</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Pas 2 limite</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Abdulaï résurrection, le hip-hop a une érection Je veux tuer l'temps mais le temps veut ma peau On s'comprend entre criminels, on s'tire le chapeau Cinq litres de sang dans l'corps pour graver l'Histoire Les points sur les Ä, sur ta gueule, ta ratte sur l'trottoir Bavard en bastos, muet à l'interrogatoire Mon groupuscule t'encule jusqu'à la cervelle J't'ai lobotomisé, le rap vient d'Garges Sarcelles Cherche la vibe comme un tox', j'suis dopé J'suis un paradoxe, un calibre avec un message de paix La voie est libre, j'vise et shoote avant qu'les anges m'accueillent Des salopes surfent sur la vague avec une planche de cercueil Engreneur avec une bouteille, d'l'essence un chiffon Pardonne-leur, Seigneur, ils savent pas c'qu'ils font Moi j'donne l'heure, du fond, d'la bonne herbe, du son qui traumatise C'est comme la roulette russe avec un automatique C'est dead Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler On baise le buzz, toujours en biz, deuil, disque C'est mort pour nous c'est l'Christ Qui va nous mettre sous terre dans c'biz du disque Il risque d'y avoir des flaques de sang, la rue s'attriste Alors on pisse, le Ä pisse sur les langues de putes Hip-hop résistants Kamikazes, genre soldats d'Afghanistan Avec le traître aux dreadlocks on a mis la distance Assiste à la reconquête d'l'empire, le chemin est glissant La liste des victimes s'allonge, mec on reste puissants Une guerre, cest une vie pour une vie Lindustrie a rien compris Hamed Daye au micro Cest comme ce putain de Zarkaoui Evadé de Guantanamo Allah est avec les négros Toi avec les clitos J'vous excise avec mon stylo Jviens faire lintifada avec mon canon scié Prier, crier, trier Avec le démon jvous envoie griller Cest pas laïd pourtant ça va saigner Oualaye, tes une caille Au djihad viens tassocier Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler Une ogive dans ta tête gros, pour tout faire sauter Mec, ma Secte rentre sec mais personne peut stopper C.A.L. gangsta, ceux qui kiffent votez Quand ça baise, l'État, l'bleu, toujours opé Baskets blanches, bruit d'coupe-coupe, fly-jacket Traverse pas ma zone MC ou on t'rackette C'est chaud chaud, un yo-yo pour les frères au cachot Abdulaï à la mort, c'est d'la bonne t'inquiète Laisse-moi, ha Dé-délimiter l'périmètre de sécurité Déto-détonation verbale, j'ai la bouche dynamitée Avec un dé-débit direct, eux ont l'débit différé T'inquiète, ici ça kicke sec, mes cailles sont dé-déterminées Laisse passer mon G.A.N.G Au micro j'ai la haine, tu ressens le danger La donne va changer, les MC vont manger Le hip-hop on vient venger Ça dé-dé-défouraille, sur le beat c'est Abdulaï Sorti tout droit des ténèbres pour bénir la racaille Barbare popo, j'viens m'faire per-pom Trop sale, poto, la barre pour quer-cro Trop rap, trop fort, trop squale, trop gore J'ai un don d'Abdulaï, la kalash dans l'cerveau Kamikazes, on débarque et les balles parlent C'est l'bal des claques pour les baltringues, le ball-trap C'est l'banc d'touche, la machette, ta bande qui bataille Un pack de chiens entre potos On baise le biz putain d'bâtards Je n'ai pas non pas de limite Mon département c'est l'élite 9-5 gangsta on a l'seum, que des oufs N'essaie même pas d'test' Mais vite, vite vite vite fait T'entends clic-clic sur mon ter-ter c'est la zone interdite Tu fais l'con, boum ça explose comme du C4 Bonhomme c'est d'la dynamite Ouais, ouais, mon département Arrive en boule-dé c'est un événement Trop d'rage, trop vulgaires dans nos propos Trop d'adrénaline dans nos comportements Flows déguisés, aiguisés J'viens t'aviser, viser On n'a pas l'temps d'jouer Si tu piges pas, serre les dents tu vas morfler</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Pas venus en touriste</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>De nouveau sur la scène, je reviens Je me ramène, micro en main dans l'arène Augmente le son ça vaut la peine damné titulaire du A.M.E.R Mon attitude est noire et fière mon attitude est amère Viens avec ta négritude, tes manies, et les coutumes On fera la fête t'as tes sapes, tes Weston, tes costumes Le CFA a perdu du poids comme s'il avait le sida Ici on parle en écu, je te souhaite la bienvenue t'auras le statut Réfugié économique n'oublie pas ramène moi Un bon saka-saka typique on ira à Château d'Eau pour te faire une coupe À Château Rouge on fera les courses pour la vie de groupe On sera 20 chez moi, on mettra la musique fort Tous les vendredis en boîte et les samedis encore En lingala on parlera fort dans tous les transports Normal l'homme noir est trop noir trop fort Pas inquiet pour tes papiers, la mode est au métissage Récépissé plus mariage, tu seras du paysage Et j'insiste, tu seras pas là en touriste Tout comme moi avec la police Tu auras droit à ''vérification, nous détenons un Papa, Alpha, Sierra, India Artiste réaliste, hérétique, analyste Traité de raciste, fasciste, anarchiste, extrémiste, activiste, intégriste Tous les mots que je débite vous irrite ? Je ne suis pas là en touriste Je ne suis pas venu en touriste Non, non pas en touriste, la voix de basse La voix de basse, la voix de basse brouille les pistes L'homme qu'on appelait Daye accède à l'auditoire Sous le nom de Frère Hamed et démarre peinard Par aucun handicap je me rattrape je fous des tapes À tous les les MCs flip-flap Pour ce genre de mission je suis apte La grande famille du stère-Mini est enfin réunie L'été nous appartient et personne ne me contredit En dehors ou sur les terrains de basket Frère Hamed n'est pas du genre à faire banquette Je dribble à gauche, je dribble à droite Je lance mon mètre 90 et mes 95 kilos sur ta tête Hou ! Très fort ! Hou ! Très fort ! Le nègre vient de te travailler au corps Et comme d'habitude après chaque match Frère Hamed doit toucher son cash Ouais je ne suis pas venu en touriste Je ne suis pas venu en touriste Je suis le nègre de la pègre réformiste Aux paroles terroristes boycotté par les radios Côté par les négros, surveillé par les Renseignements Généraux Jamais derrière les barreaux Toujours en train de taraud excitant comme l'alcool Plus cher que le pétrole vos filles sont folles de moi Il y a de quoi ! Devinez qui vient dîner à la maison ? Devinez qui vient dîner au réveillon ? Moi Stomy Bugsy, plus côté que Schwarzy et Rocky au box-office D'office je suis l'ami de votre fils, le petit ami de votre fille Pas besoin d'attaque, tac, je rentre par la porte, toc toc Escalope de veau ? Bien je sais manger avec un fourchette et une couteau Ne faites pas la tête, non, accepte-moi belle maman Je t'offrirai un exemplaire du Coran Accepte-moi beau papa tu auras la photo de l'Ayatollah Parlons de Monique je lui prévois un bel avenir Tchador, je t'adore, elle le portera Quoi ! vous n'êtes pas d'accord ? On sera jamais dans la dèche, elle sera ma taspechhhe Le dessert passe mal, mal quand elle gueule comme une squale Sans respect c'est OK en moins d'une seconde Je crache auprès de ma blonde dans la France profonde J'insiste, persiste tel un exorciste je n'ai pas la croix du Christ....</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Quand Les Anges Pleurent</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Assia Pour lui j'aurais donné toute ma vie Trahi mon âme quand j'ai perdu l'esprit Tant pis si je peux goûter de bonheur infini De moi à lui, le jour, la nuit Parole d'amie, une pure folie Tant pis si pour ça je suis bannie du paradis Refrain Quand les anges pleurent Le ciel s'assombrit Les larmes de pluie effleurent Le démon sourit Quand les anges pleurent Moi je pleure aussi Assia Voilà trois jour que t'es parti Hamed Däye Même si je n'donne pas signe de vie C'est toi qui me maintiens en vie Avec toi mon sommeil s'est enfui L'essentiel, c'est que je sois près de toi Oublie toutes ces nuits Mon ciel est gris et je compte les gouttes de pluie Te mets pas dans tous ces états Viens dans mes bras ma chérie Arrête de me faire du mal je t'en prie Hamed Däye Cesse de péter les plombs et débloquer A chaque fois que le téléphone chiale Assia Un jour tu regretteras tout ça Hamed Däye J'attache aucune importance à toutes ces folles qui braillent Tu pleureras en pensant à moi Pour s'arracher mon corps alors que mon cur affiche complet L'amour c'est pas ça OK continue à parler toute seule Moi je m'arrache, Ciao bébé Refrain Hamed Däye Ma vie n'a plus aucun sens, j'me sens trop seul tu sais Depuis que tu m'as quitté, je me fais une fixette sur ton décès Je suis sûr que si j'avais été là ce soir-là, à tes côtés Tu serais encore en vie mais qu'est-ce-qui m'a pris J'étais censé te protéger pour le restant de ta vie Maintenant c'est moi qui pleure Mes larmes et mes cris transpercent les portes du paradis Oh mon Dieu, mon vu le plus cher Ça serait de la revoir, de la chérir juste une dernière fois Combien de fois j'ai songé à te rejoindre bébé Combien de fois j'me suis réveillé au milieu de la nuit pour sombrer Dans le désespoir si tu veux savoir mon plus grand regret C'est de ne pas t'avoir dit assez à quel point je t'aimais Alors écoute-moi une dernière fois j't'aime et j't'ai toujours aimée En fin de compte j'suis peut-être un démon Mais mon âme s'est purifiée le jour où t'as pris ton envol vers l'horizon</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Sur la sellette</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Hawaï Police d'Etat, y a pas dra le cain-cain Venu de l'ouest africain vient foutre son grain de sel Appelle qui tu veux, mon cartel martèle Du travail de pro, le résultat est nickel, ma belle Sur l'échiquier, l'altesse, la tour en mission Opération du bon son, deux voix graves en salve Na zo ya encore le Saka-Saka, oui c'est le ssi-Pa Celui qui tient sa trique, du gingembre de l'Afrique Je me promène dans ma ville, j'ai l'impression que tout le monde me connaît Mais qui veut me poignarder, qui veut me tester ? Je guette de droite à gauche, mon Secteur Ä t'a déjà traîné tché J'ai la puissance du python comme les vieux pères du de-blé Dis bonjour, v'là les boss, la flambe en boss, les Giorgio Smalto, ston-We croco du rap braillés Nos stratégies, cellules cérébrales grillées Notre bario, tu le sais A deux points t'y es Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S Laisse-moi m'asseoir sur tout le biz, arrête tes bêtises Marche pas sur mes plates-bandes car c'est ta femme que je courtise Peser, gagner, la tirer en une prise À minuit quand toutes les ch... sont grises Adultère et lope-sa, cile-fa ça baise à ris-Pas Toi ris pas ça se trouve on fourre la tienne et tu le sais même pas Bon, bon, arrête là, maintenant tu sais qui pèse et qui ne pèse pas Deux putains de nègres de la pègre, nominés pour le secteur Ä Daye, Passi, ici, tu suis sans souci Nominés aux premiers prix sans surprise, mon stère-Mini On monte sur le podium, nos smokings sont taillés On lève les bras et on arrache le trophée Tout le monde applaudit y compris nos ennemis J'arrange mon nud pap' et je leur souris La grande classe bébé, la grande classe tasse-pé Et jusque dans les coulisses on est toujours bien escortés Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S Pas de fiasco chez les négros qui braquent au micro Dans notre bizness y a pas de Donnie Brasco Je déniche la taupe, fourgue la dope, de la bonne came Qui a passé la douane et qui débarque chez toi juste à l'aube Je suis servi par décibels, Taj Mahal verbal Je deale à la tienne, les rues nous appartiennent Ouais, Ouais j'pèse comme Gainsbar, des barres et des barres Du wari wari, ce soir négro y a pas de lézard Tu veux des sensations, si pour toi le temps est gris Grippe dans ta gorge, l'atmosphère est pourrie Paris nous voici, ta décadence, tes boîtes de nuit On va maquer tout ça et se faire un max de profit Ah, Ah, je suis vraiment à Paris De Sarcelles, je suis passé à Neuilly Oui c'est donc ça la vie, j'ai réussi J'ai envoyé assez de blé pour construire au pays Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, sur la basse bouge tes fesses Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, j'ai déjà la main dans le tiroir-caisse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S, voix de basse et l'altesse Prends garde aux deux mecs grillés sur la sellette Hamed Daye, double S</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Tel une bombe (Remix) (Album version)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Un deux, un, devinez qui revient Je pèse et je baise En levrette, en brochettes, pickpocket, pichenette J'impose ma notoriété comme Vito Corleone Me regarde pas d'travers, enculé d'ta mère J'viens flamber sur l'album des Neg' Marrons Et tu m'connais Si t'es pas content, va t'faire mettre jusqu'aux trous d'nez J'te piétine à coups d'talon façon Joe Pesci L'affranchi, pas d'chichis, mon Secteur Ä te chie Devant lui tu fléchis Même si tu cries, on augmente la mélodie d'la tuerie Fait passer l'homicide pour un putain d'hara-kiri Les flics sucent leurs indics, personne sait c'est iq Va t'faire enculer J'veux c'qui m'revient, ne plus voir les richesses non étalées Stomy Bugsy, c'est comme ça qu'on m'appelle Tu sais, le beau gosse avec le costard, la coupe de champagne et le cigare Et les rattes de des rêves, j'en ai à la pelle J'ai tout connu, laisse-moi sortir du cul Les murs de chez moi sont tellement fins Que quand mon voisin chie, j'peux savoir si c'est des pâtes ou du riz Quand les fils de salopes prétendent faire du vrai hip-hop L'important c'est la maille, le flooze, la pêche, la classe quoi Appelle-moi Stomy Bugsy Montana Le calibre qu'il te faut en attendant le prochain album du M.Ä Mon premier est une taspé qui kiffe Gynéco Mon second un MC qui fait du rap à l'eau Le tout est une su que je baise sans poa Je touche ma SACEM et j'investis dans un BM Je pèse, je baise, toutes les filles m'aiment L'homme qui met son doigt dans ton intimité A prostitué ton rap sur le boulevard Ney Si tu veux pécho viens voir Gynéco Jamais de pénurie au PLC non non non J'investis en gros dans les rues du quartier J'suis sur toutes les radios, j'ai des clips vidéos On s'échange mes démos, j'ai une putain d'promo Un riche en sursis toi-même tu sais que Secteur Ä m'appuie Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? C'est encore nous Les trois scars-la voyous Ben-J Jacky Djamatik Daddy viennent tchatcher pour vous 1-9-9-chut, l'année où tu rêves de pèze Lève-toi, bats-toi si tu n'veux pas être de la baise Maille, maille, maille, ma-ma-ma-maille Mais oui il n'y a que la maille qui m'aille Djamatik le dancehall a fait découper ça XXX Chaud, écoute ça Marre de vivre comme une victime de XXX 1-9-9-7 l'argent entre dans ma vie J'en ai marre de rêver, faut qu'j'assouvisse mes envies C'que j'ai pas eu hier, faut qu'j'l'obtienne aujourd'hui Tu veux d'la maille, des tunes, du fric, non non non non non il ne faut pas qu'tu flaires La monnaie dirige le monde, je l'ai déjà dit l'année dernière Comme nous t'aimes be-flam Et dans tous les mouvements Avoir des taspés tout l'temps Avoir les poches pleines d'argent Qu'on dise que t'es important Peser à cent pour cent Comme le temps c'est d'l'argent il faut qu't'agisses dès maintenant Mais oui mais oui tel une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? 1996, soit tu pèses, soit t'es d'la baise Le tirailleur revient donc bouge ton cul d'ma chaise Je fesse, blesse, laisse les MC flip-flap à leur place Quand l'Cain-cain pèse, les Caucasiens font la grimace, ouais Rien à foutre de l'état d'ton XXX je fourre tout dans ma BNP Le siège social reste j'crois qu'mon oreiller Mais cette fois François, ne paye pas en francs CFA J'veux qu'tu m'payes en francs lourds hé hé, la caisse est par là J'suis l'mec qui va t'faire perdre toute ta paye T'es encore d'la baise, un conseil, paye Hamed Däye Faut du wari-wari, plus de wari-wari Pour qu'j'puisse me retirer en retraite au pays Hamed Däye, Neg' Marrons, mem bagay, envoie le pognon Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Sorti du sixième chaudron Ärsenik le poison est dans ta maison Les douilles éclatent et l'hémoglobine souille mon sol écarlate Écarte les âmes sensibles quand les XXX Mais MC XXX trop bavards, de France ou de Navarre Je suis connu comme le flingueur le moins avare Avare en bastos, mon esprit part en testos XXX qui nous XXX et les microbes comme Domestos Si le rap était un système solaire, je serais son éclipse Despee dans l'il du cyclone, symptôme de l'Apocalypse L'ogre nègre ennemi d'la concurrence humide Qui ne comprend pas ne comprendra jamais le rugissement du tigre XXX 80 Ärsenik le ceau-mor Je prends le microphone et l'pays brûle comme Sodome et Gomorrhe Dans mon Secteur, je suis vecteur Cannibale sectaire, plus bas qu'terre XXX manière qu'Hannibal Lecter L'exterminateur expert tenace comme une gangrène Je suis la menace des cités où pousse la mauvaise graine Le french schizo à la rime exquise au micro XXX Despee, costaud mais allergique à la kryptonite verte Alerte, danger danger Rangez vos miches, je viens manger, changer XXX au purgatoire, un étranger Dans mon crâne et du métal dans ma poche XXX Ärsenik comme la mort te fauche Sur une mélodie sinistre, un concerto macabre affûté comme un sabre Tchoum tchoum, et on danse la biguine L'emprise de la XXX sauve-toi XXX Mon alcôve est un satané XXX l'antichambre de l'enfer Combat l'ambiance crépusculaire, mon groupuscule erre dans la brume Je danse avec le diable au clair de Lune Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Comme un guerrier Viêt-Cong, surgissant du Mékong Passi sonne le gong, tu m'connais à la longue Issap! Big, pas de tminik, je renique sur le ring Le numéro six, année un double-neuf sept Se la pète et glisse un feu d'artifice Quand mon Secteur Ä je hisse dans l'orifice du rap en France Je fous ça sans vice Et ce n'est plus gratis quand sur les pingres hostiles je pisse Les miens je rejoins Dans la bringue et je tringle Avec mes dingues dont les mots sur le cerveau sont des tringles Ma requête n'est pas des moindres, monnaie monnaie quitte à enfreindre Cette année damnée, donner l'plaisir, l'atteindre et XXX Laissez-nous rejoindre toutes celles qu'on entend se plaindre Telle une bombe J'arrive et puis j'explose en fraction d'seconde Ferme ta gueule, creuse ta tombe, v'là Secteur Ä c'est l'hécatombe Je gronde comme le tonnerre et j'suis vénère comme King-Kong Est-ce que t'as bien saisi? Pour le Secteur Ä, Ärsenik P.A.Double S.I Stomy Bugsy, Doc Gynéco Hamed Däye, Neg' Marrons Aaah! Comme King-Kong Est-ce que t'as bien saisi?</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Hamed Daye</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Un rep qui fait reup</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Super Chaud sur Show Lapin FM Shooow Lapiiin !!! Ouais, ouais, ouais, ouais... Mon papa à moi... remix Mon papa à moi c'est un gan... chhh Le genre de gangster qui bouge en silence Manigance en douce dans la douce Franchté Entame son plat de riz avec les mains vésquis S'essuie la bouche avec la manche de son costume acheté à Tati Un peigne afro dans la poche gauche Dans l'autre une fausse feuille d 'embauche En guise de couverture pour les flics auche Mais il sait dire oui oui Missié, tout de suite Missié Pour qu'on l'laisse circuler puis après il continue à faire son business et Arrivé au foyer y m'dit de tailler, me lâche des billets À peine la porte fermée, j'me mets à mater Par le trou d'la serrure mais ce que j'vois jamais j'le dévoilerai Parce que j'balancerai jamais celui qui m'donne à manger Même si mon papa marche la tête baissée dehors Pour moi et pour la famille au bled il reste le plus fort Mon papa manigance mais il sait s'taire Le genre de gangster que t'enverras jamais par terre Payé en Dollars, Sterling on leur donne l'heure précise Comme les profs j'utilise des strophes pour décrire les catastrophes, Imagine Une prime, une vermine qui faut que j'extermine L'atmosphère musicale, les mines, les rimes mais ça se termine Primo mon nom Passi Deuzio Ministère Tertio un gangster en cachemire pas en polyester Une bonne Chester, champagne, Magnum dans le holster Dans mon hystérique Western, j'ai le rôle de Winchester Un hostile gangster qui vient des mystères de l'Ouest Qui vise à Rio, à Manchester et s'terre à Palerme Pour qui la terre entière n'est juste qu'une cage pour un hamster Un gangster qui rêve même de niquer le système stellaire Faire de la vendetta Une façon de communiquer Papa et relations publiques, au micro un expert Papa gangster, maman doit s'taire Pleure pas, un jour petit tu prendras la place de ton père Son rep à lui c'est un vrai Un rep qui fait reup Un putain de daron Un pacha, un caid, un baron Si tu te demandes d'où viennent nos paroles meurtrières C'est héréditaire Y'a rien à faire Mon père est un gangster Papa c'est pas un gangster c'est Zorro Il met sa fausse barbe rose Son masque, à la banque, la tune tombe des arbres Après on joue à Starsky et Hutch Parce qu'il roule aussi speed, casse plus de caisses, et met les même Nikes À l'école, pire que Tom Sawyer J'ai les meilleures notes sans l'vouloir, ni l'pouvoir, et les plus bonnes profs Jamais on m'a collé, chuis fier de mon Pops C'est l'meilleur, les juges l'appellent monsieur, Oxmo Puccino Dans les News, j'ai vu ce keuf qui m'a foutu le blues occisé Dans une flaque de sang, boxon, on aurait dit par 12 toxs Papa est revenu avec un cuir marron, le même Que ce même civil, quelle coïncidence, c'est marrant C'est pas un gangster, qui roule en Holster Je reste le chéri de sa voisine Une meuf terrible et papa il a le poster A classe du biz le papa d'Pit brise coeurs Sur les disques et on parle de lui et on dit qu'c'est un mythe Lino Pas de blagues, pas de bag is rough Levis ras les couilles Au boogie gangster Aux aguets et même pris en flag Il nie et drague les jupes mini-zig-zag Avec les stups fini toujours ses jobs du métal sous son Tacchini bob Sur le crane comme jamais la couleuvre ça fera lou'velouse ça fait une partouze une putain d'heure La savane son royaume il traine ses shoes la zep son médicament XL Quand maman fils sans maman fixe... Calbo Ce mec là n'a pas d'principe, kiffe surtout ce qui rapporte Exporte son vice, vif le soir, le matin t'approche pas de sa porte Forte poitrine, grosse paire de cojones au mont des moisis Bourrés de saisie en tout genre et cette fois ci à Roissy Il s'envole couche une liasse avant d'se vésau Ne dit même pas au'revoir à tout moment sa vie peut tésau Respect, j'irai jamais trainer tout près d'ses vestons Mais où est son caisson, dedans je sais qu'j'y trouverai du bon Mon Paps j'le connaît trop pas trop pape sans pour être honnête Trop pro pour mettre du sang sur sa gourmette Comme dit le raggae un tocou dans la poche Même pour les enterrements il emmène sûrement un pompe dans le BM Un il sur sa bague où ils sont comme en limousine L'autre sur ses cousines Pas d'religion, pas d'prêtres, pas d'rabbins Il se confesse qu'à la teillbout Père Labat Prend jamais l'un d'ses gamins par la main J'sais qu'il a tellement semé sa semence en France Que quand j't'appelle refré c'est pour d'vrai Si tu lui dois beaucoup d'sous il t'fout un coup d'coupe-coupe sous l'cou Daron fiancé au Tiercé, tu veux niquer sa maille aux dominos Y'a des filles comme au Bobino Vengeance y'a plus d'jeux plus y'a d'gens genre Et n'y'a qu'deux potes car y'a moins d'Rhum Et d'ganja plus y'a d'gens Mal Negre foncedé Faut toujours qu'on finisse par battre nos femmes et chaque fois plus pire qu'nos pères, imagine nos fils Dring, Dring, papa c'est les flics casse toi Depuis qu'chuis tout petit c'est ce que j'lui répète à chaque fois Les huissiers les impôts, le fisc au cul Il leur met dans l'cul, prend leur femme et les fait devenir cocu... leurs cornes poussent Wanted alors il se barre au bled en douce Quand il repart il a trop d'gosses et il les connaît même pas tous Toutes les femmes lui disent qu'il finira malheureux Il répond Salope, Salope j'ai mon fils au monde y'a pas mieux La seule qu'il respecte c'est ma mère mais elle se laisse pas faire Et elle lui jette un verre points d'suture à l'arcade sourcilière Et on peut rien y faire sinon lui et moi c'est la guerre Si un inspecteur jacte dans le haut-parleur Rend toi Il lui dit nique toi J'dirais pas qu'toutes les polices le recherchent En tout cas celle de Paris j'te parie qu'ils se cachent dans une brèche... cchh N'essaie pas d'reconnaître ma voix chuis enrhumé à force de l'chercher Et quand chuis bien Stomy... chhh Chaud lapin comme mon père et son père à lui</t>
         </is>
       </c>
     </row>
